--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
@@ -16080,7 +16080,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773">
@@ -16260,7 +16260,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782">
@@ -16280,7 +16280,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="783">
@@ -16300,7 +16300,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="784">
@@ -16320,7 +16320,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -16340,7 +16340,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -16360,7 +16360,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="787">
@@ -16400,7 +16400,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="789">
@@ -16420,7 +16420,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790">
@@ -16440,7 +16440,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="791">
@@ -16460,7 +16460,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="792">
@@ -16480,7 +16480,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="793">
@@ -16500,7 +16500,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="794">
@@ -16520,7 +16520,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="795">
@@ -16540,7 +16540,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -16580,7 +16580,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="799">
@@ -16620,7 +16620,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -16660,7 +16660,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802">
@@ -16680,7 +16680,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803">
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -16740,7 +16740,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -16760,7 +16760,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807">
@@ -16780,7 +16780,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="808">
@@ -16800,7 +16800,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="809">
@@ -16820,7 +16820,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="810">
@@ -16860,7 +16860,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -16880,7 +16880,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -16900,7 +16900,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814">
@@ -16940,7 +16940,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816">
@@ -16960,7 +16960,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="817">
@@ -16980,7 +16980,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="818">
@@ -17000,7 +17000,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="819">
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -17040,7 +17040,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821">
@@ -17060,7 +17060,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="822">
@@ -17080,7 +17080,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -17100,7 +17100,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824">
@@ -17120,7 +17120,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825">
@@ -17140,7 +17140,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="826">
@@ -17180,7 +17180,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -17200,7 +17200,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="829">
@@ -17220,7 +17220,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="830">
@@ -17240,7 +17240,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831">
@@ -17260,7 +17260,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="832">
@@ -17280,7 +17280,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="833">
@@ -17300,7 +17300,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -17320,7 +17320,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="835">
@@ -17340,7 +17340,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="836">
@@ -17360,7 +17360,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="837">
@@ -17400,7 +17400,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="839">
@@ -17420,7 +17420,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="840">
@@ -17440,7 +17440,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="841">
@@ -17460,7 +17460,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -17480,7 +17480,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="843">
@@ -17500,7 +17500,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="844">
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -17540,7 +17540,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -17600,7 +17600,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -17620,7 +17620,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -17640,7 +17640,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="851">
@@ -17660,7 +17660,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="852">
@@ -17680,7 +17680,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="853">
@@ -17700,7 +17700,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="854">
@@ -17720,7 +17720,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="855">
@@ -17760,7 +17760,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="857">
@@ -17800,7 +17800,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="859">
@@ -17840,7 +17840,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861">
@@ -17880,7 +17880,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="863">
@@ -17900,7 +17900,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="864">
@@ -17940,7 +17940,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -17960,7 +17960,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="867">
@@ -17980,7 +17980,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -18000,7 +18000,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="869">
@@ -18020,7 +18020,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="870">
@@ -18040,7 +18040,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="871">
@@ -18060,7 +18060,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="872">
@@ -18080,7 +18080,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="873">
@@ -18100,7 +18100,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="874">
@@ -18120,7 +18120,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -18140,7 +18140,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="876">
@@ -18160,7 +18160,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="877">
@@ -18200,7 +18200,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="879">
@@ -18220,7 +18220,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880">
@@ -18260,7 +18260,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882">
@@ -18280,7 +18280,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="883">
@@ -18300,7 +18300,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="884">
@@ -18320,7 +18320,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="885">
@@ -18340,7 +18340,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="886">
@@ -18360,7 +18360,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="887">
@@ -18380,7 +18380,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="888">
@@ -18420,7 +18420,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="890">
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="892">
@@ -18480,7 +18480,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="893">
@@ -18500,7 +18500,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="894">
@@ -18520,7 +18520,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895">
@@ -18540,7 +18540,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="896">
@@ -18580,7 +18580,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898">
@@ -18600,7 +18600,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899">
@@ -18620,7 +18620,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="900">
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="901">
@@ -18660,7 +18660,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="902">
@@ -18700,7 +18700,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -18720,7 +18720,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="905">
@@ -18740,7 +18740,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="906">
@@ -18760,7 +18760,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="907">
@@ -18780,7 +18780,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -18800,7 +18800,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="910">
@@ -18840,7 +18840,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">
@@ -18860,7 +18860,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="912">
@@ -18920,7 +18920,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="915">
@@ -18940,7 +18940,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="916">
@@ -18960,7 +18960,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917">
@@ -18980,7 +18980,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918">
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="919">
@@ -19020,7 +19020,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="920">
@@ -19040,7 +19040,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="921">
@@ -19060,7 +19060,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="922">
@@ -19100,7 +19100,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
@@ -19120,7 +19120,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="925">
@@ -19140,7 +19140,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -19160,7 +19160,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927">
@@ -19200,7 +19200,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="929">
@@ -19220,7 +19220,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="930">
@@ -19240,7 +19240,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931">
@@ -19260,7 +19260,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="932">
@@ -19280,7 +19280,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="933">
@@ -19300,7 +19300,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934">
@@ -19320,7 +19320,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="935">
@@ -19340,7 +19340,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="937">
@@ -19380,7 +19380,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938">
@@ -19400,7 +19400,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="939">
@@ -19420,7 +19420,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940">
@@ -19480,7 +19480,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="943">
@@ -19500,7 +19500,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="944">
@@ -19520,7 +19520,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -19540,7 +19540,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="946">
@@ -19560,7 +19560,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="947">
@@ -19580,7 +19580,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="948">
@@ -19600,7 +19600,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="949">
@@ -19620,7 +19620,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="950">
@@ -19640,7 +19640,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="951">
@@ -19660,7 +19660,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="952">
@@ -19680,7 +19680,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953">
@@ -19700,7 +19700,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
@@ -19720,7 +19720,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955">
@@ -19740,7 +19740,7 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956">
@@ -19760,7 +19760,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -19780,7 +19780,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="958">
@@ -19800,7 +19800,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959">
@@ -19820,7 +19820,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960">
@@ -19840,7 +19840,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="961">
@@ -19860,7 +19860,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="962">
@@ -19900,7 +19900,7 @@
         </is>
       </c>
       <c r="D963" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="964">
@@ -19920,7 +19920,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -19960,7 +19960,7 @@
         </is>
       </c>
       <c r="D966" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967">
@@ -19980,7 +19980,7 @@
         </is>
       </c>
       <c r="D967" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="968">
@@ -20000,7 +20000,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969">
@@ -20020,7 +20020,7 @@
         </is>
       </c>
       <c r="D969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
@@ -20040,7 +20040,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="971">
@@ -20060,7 +20060,7 @@
         </is>
       </c>
       <c r="D971" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="972">
@@ -20080,7 +20080,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="973">
@@ -20100,7 +20100,7 @@
         </is>
       </c>
       <c r="D973" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="974">
@@ -20120,7 +20120,7 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975">
@@ -20140,7 +20140,7 @@
         </is>
       </c>
       <c r="D975" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976">
@@ -20160,7 +20160,7 @@
         </is>
       </c>
       <c r="D976" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="977">
@@ -20200,7 +20200,7 @@
         </is>
       </c>
       <c r="D978" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="979">
@@ -20220,7 +20220,7 @@
         </is>
       </c>
       <c r="D979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980">
@@ -20240,7 +20240,7 @@
         </is>
       </c>
       <c r="D980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981">
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982">
@@ -20280,7 +20280,7 @@
         </is>
       </c>
       <c r="D982" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="983">
@@ -20300,7 +20300,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984">
@@ -20320,7 +20320,7 @@
         </is>
       </c>
       <c r="D984" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="985">
@@ -20360,7 +20360,7 @@
         </is>
       </c>
       <c r="D986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987">
@@ -20380,7 +20380,7 @@
         </is>
       </c>
       <c r="D987" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="988">
@@ -20400,7 +20400,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="989">
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="D990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991">
@@ -20480,7 +20480,7 @@
         </is>
       </c>
       <c r="D992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993">
@@ -20520,7 +20520,7 @@
         </is>
       </c>
       <c r="D994" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="995">
@@ -20540,7 +20540,7 @@
         </is>
       </c>
       <c r="D995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996">
@@ -20560,7 +20560,7 @@
         </is>
       </c>
       <c r="D996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -20600,7 +20600,7 @@
         </is>
       </c>
       <c r="D998" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="999">
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="D999" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1000">
@@ -20640,7 +20640,7 @@
         </is>
       </c>
       <c r="D1000" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1001">
@@ -20660,7 +20660,7 @@
         </is>
       </c>
       <c r="D1001" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1002">
@@ -20680,7 +20680,7 @@
         </is>
       </c>
       <c r="D1002" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1003">
@@ -20700,7 +20700,7 @@
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004">
@@ -20720,7 +20720,7 @@
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005">
@@ -20740,7 +20740,7 @@
         </is>
       </c>
       <c r="D1005" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1006">
@@ -20760,7 +20760,7 @@
         </is>
       </c>
       <c r="D1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007">
@@ -20780,7 +20780,7 @@
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="D1008" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009">
@@ -20840,7 +20840,7 @@
         </is>
       </c>
       <c r="D1010" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1011">
@@ -20860,7 +20860,7 @@
         </is>
       </c>
       <c r="D1011" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012">
@@ -20880,7 +20880,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013">
@@ -20900,7 +20900,7 @@
         </is>
       </c>
       <c r="D1013" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014">
@@ -20920,7 +20920,7 @@
         </is>
       </c>
       <c r="D1014" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1015">
@@ -20940,7 +20940,7 @@
         </is>
       </c>
       <c r="D1015" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016">
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="D1017" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018">
@@ -21000,7 +21000,7 @@
         </is>
       </c>
       <c r="D1018" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1019">
@@ -21020,7 +21020,7 @@
         </is>
       </c>
       <c r="D1019" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1020">
@@ -21040,7 +21040,7 @@
         </is>
       </c>
       <c r="D1020" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1021">
@@ -21060,7 +21060,7 @@
         </is>
       </c>
       <c r="D1021" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1022">
@@ -21080,7 +21080,7 @@
         </is>
       </c>
       <c r="D1022" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1023">
@@ -21100,7 +21100,7 @@
         </is>
       </c>
       <c r="D1023" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024">
@@ -21120,7 +21120,7 @@
         </is>
       </c>
       <c r="D1024" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1025">
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="D1026" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1027">
@@ -21180,7 +21180,7 @@
         </is>
       </c>
       <c r="D1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028">
@@ -21200,7 +21200,7 @@
         </is>
       </c>
       <c r="D1028" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029">
@@ -21220,7 +21220,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030">
@@ -21240,7 +21240,7 @@
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1031">
@@ -21280,7 +21280,7 @@
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033">
@@ -21300,7 +21300,7 @@
         </is>
       </c>
       <c r="D1033" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1034">
@@ -21320,7 +21320,7 @@
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1035">
@@ -21340,7 +21340,7 @@
         </is>
       </c>
       <c r="D1035" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1036">
@@ -21360,7 +21360,7 @@
         </is>
       </c>
       <c r="D1036" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1037">
@@ -21400,7 +21400,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1039">
@@ -21420,7 +21420,7 @@
         </is>
       </c>
       <c r="D1039" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040">
@@ -21460,7 +21460,7 @@
         </is>
       </c>
       <c r="D1041" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1042">
@@ -21480,7 +21480,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1043">
@@ -21500,7 +21500,7 @@
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044">
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="D1044" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1045">
@@ -21540,7 +21540,7 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1046">
@@ -21580,7 +21580,7 @@
         </is>
       </c>
       <c r="D1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048">
@@ -21600,7 +21600,7 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049">
@@ -21620,7 +21620,7 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1050">
@@ -21640,7 +21640,7 @@
         </is>
       </c>
       <c r="D1050" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051">
@@ -21660,7 +21660,7 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
@@ -21680,7 +21680,7 @@
         </is>
       </c>
       <c r="D1052" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053">
@@ -21700,7 +21700,7 @@
         </is>
       </c>
       <c r="D1053" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1054">
@@ -21720,7 +21720,7 @@
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1055">
@@ -21740,7 +21740,7 @@
         </is>
       </c>
       <c r="D1055" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056">
@@ -21760,7 +21760,7 @@
         </is>
       </c>
       <c r="D1056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057">
@@ -21780,7 +21780,7 @@
         </is>
       </c>
       <c r="D1057" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058">
@@ -21800,7 +21800,7 @@
         </is>
       </c>
       <c r="D1058" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059">
@@ -21820,7 +21820,7 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1060">
@@ -21840,7 +21840,7 @@
         </is>
       </c>
       <c r="D1060" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1061">
@@ -21880,7 +21880,7 @@
         </is>
       </c>
       <c r="D1062" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1063">
@@ -21900,7 +21900,7 @@
         </is>
       </c>
       <c r="D1063" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1064">
@@ -21920,7 +21920,7 @@
         </is>
       </c>
       <c r="D1064" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1065">
@@ -21940,7 +21940,7 @@
         </is>
       </c>
       <c r="D1065" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1066">
@@ -21960,7 +21960,7 @@
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1067">
@@ -21980,7 +21980,7 @@
         </is>
       </c>
       <c r="D1067" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1068">
@@ -22000,7 +22000,7 @@
         </is>
       </c>
       <c r="D1068" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1069">
@@ -22020,7 +22020,7 @@
         </is>
       </c>
       <c r="D1069" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070">
@@ -22040,7 +22040,7 @@
         </is>
       </c>
       <c r="D1070" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1071">
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="D1071" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1072">
@@ -22080,7 +22080,7 @@
         </is>
       </c>
       <c r="D1072" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1073">
@@ -22100,7 +22100,7 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074">
@@ -22120,7 +22120,7 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1075">
@@ -22140,7 +22140,7 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1076">
@@ -22160,7 +22160,7 @@
         </is>
       </c>
       <c r="D1076" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1077">
@@ -22200,7 +22200,7 @@
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1079">
@@ -22220,7 +22220,7 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080">
@@ -22240,7 +22240,7 @@
         </is>
       </c>
       <c r="D1080" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1081">
@@ -22260,7 +22260,7 @@
         </is>
       </c>
       <c r="D1081" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1082">
@@ -22280,7 +22280,7 @@
         </is>
       </c>
       <c r="D1082" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083">
@@ -22300,7 +22300,7 @@
         </is>
       </c>
       <c r="D1083" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1084">
@@ -22320,7 +22320,7 @@
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1085">
@@ -22340,7 +22340,7 @@
         </is>
       </c>
       <c r="D1085" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1086">
@@ -22360,7 +22360,7 @@
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087">
@@ -22380,7 +22380,7 @@
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1088">
@@ -22400,7 +22400,7 @@
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1089">
@@ -22420,7 +22420,7 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1090">
@@ -22480,7 +22480,7 @@
         </is>
       </c>
       <c r="D1092" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1093">
@@ -22520,7 +22520,7 @@
         </is>
       </c>
       <c r="D1094" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1095">
@@ -22540,7 +22540,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096">
@@ -22560,7 +22560,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1097">
@@ -22580,7 +22580,7 @@
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1098">
@@ -22600,7 +22600,7 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1099">
@@ -22640,7 +22640,7 @@
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101">
@@ -22660,7 +22660,7 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1102">
@@ -22680,7 +22680,7 @@
         </is>
       </c>
       <c r="D1102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1103">
@@ -22700,7 +22700,7 @@
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -22720,7 +22720,7 @@
         </is>
       </c>
       <c r="D1104" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1105">
@@ -22740,7 +22740,7 @@
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106">
@@ -22760,7 +22760,7 @@
         </is>
       </c>
       <c r="D1106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1107">
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="D1107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1108">
@@ -22800,7 +22800,7 @@
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109">
@@ -22820,7 +22820,7 @@
         </is>
       </c>
       <c r="D1109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1110">
@@ -22840,7 +22840,7 @@
         </is>
       </c>
       <c r="D1110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1111">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="D1111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112">
@@ -22900,7 +22900,7 @@
         </is>
       </c>
       <c r="D1113" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1114">
@@ -22920,7 +22920,7 @@
         </is>
       </c>
       <c r="D1114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115">
@@ -22940,7 +22940,7 @@
         </is>
       </c>
       <c r="D1115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1116">
@@ -22960,7 +22960,7 @@
         </is>
       </c>
       <c r="D1116" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1117">
@@ -22980,7 +22980,7 @@
         </is>
       </c>
       <c r="D1117" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1118">
@@ -23000,7 +23000,7 @@
         </is>
       </c>
       <c r="D1118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1119">
@@ -23040,7 +23040,7 @@
         </is>
       </c>
       <c r="D1120" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1121">
@@ -23060,7 +23060,7 @@
         </is>
       </c>
       <c r="D1121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122">
@@ -23080,7 +23080,7 @@
         </is>
       </c>
       <c r="D1122" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1123">
@@ -23100,7 +23100,7 @@
         </is>
       </c>
       <c r="D1123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124">
@@ -23120,7 +23120,7 @@
         </is>
       </c>
       <c r="D1124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="D1125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126">
@@ -23160,7 +23160,7 @@
         </is>
       </c>
       <c r="D1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127">
@@ -23180,7 +23180,7 @@
         </is>
       </c>
       <c r="D1127" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1128">
@@ -23220,7 +23220,7 @@
         </is>
       </c>
       <c r="D1129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1130">
@@ -23240,7 +23240,7 @@
         </is>
       </c>
       <c r="D1130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1131">
@@ -23300,7 +23300,7 @@
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1134">
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="D1134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135">
@@ -23360,7 +23360,7 @@
         </is>
       </c>
       <c r="D1136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137">
@@ -23380,7 +23380,7 @@
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138">
@@ -23400,7 +23400,7 @@
         </is>
       </c>
       <c r="D1138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1139">
@@ -23420,7 +23420,7 @@
         </is>
       </c>
       <c r="D1139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1140">
@@ -23440,7 +23440,7 @@
         </is>
       </c>
       <c r="D1140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141">
@@ -23460,7 +23460,7 @@
         </is>
       </c>
       <c r="D1141" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1142">
@@ -23480,7 +23480,7 @@
         </is>
       </c>
       <c r="D1142" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1143">
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="D1143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144">
@@ -23540,7 +23540,7 @@
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1146">
@@ -23560,7 +23560,7 @@
         </is>
       </c>
       <c r="D1146" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1147">
@@ -23580,7 +23580,7 @@
         </is>
       </c>
       <c r="D1147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1148">
@@ -23600,7 +23600,7 @@
         </is>
       </c>
       <c r="D1148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1149">
@@ -23620,7 +23620,7 @@
         </is>
       </c>
       <c r="D1149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150">
@@ -23640,7 +23640,7 @@
         </is>
       </c>
       <c r="D1150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1151">
@@ -23660,7 +23660,7 @@
         </is>
       </c>
       <c r="D1151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152">
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="D1152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1153">
@@ -23720,7 +23720,7 @@
         </is>
       </c>
       <c r="D1154" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1155">
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="D1155" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1156">
@@ -23760,7 +23760,7 @@
         </is>
       </c>
       <c r="D1156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1157">
@@ -23780,7 +23780,7 @@
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158">
@@ -23820,7 +23820,7 @@
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160">
@@ -23840,7 +23840,7 @@
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1161">
@@ -23880,7 +23880,7 @@
         </is>
       </c>
       <c r="D1162" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1163">
@@ -23900,7 +23900,7 @@
         </is>
       </c>
       <c r="D1163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1164">
@@ -23960,7 +23960,7 @@
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167">
@@ -23980,7 +23980,7 @@
         </is>
       </c>
       <c r="D1167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1168">
@@ -24040,7 +24040,7 @@
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1171">
@@ -24060,7 +24060,7 @@
         </is>
       </c>
       <c r="D1171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1172">
@@ -24120,7 +24120,7 @@
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175">
@@ -24140,7 +24140,7 @@
         </is>
       </c>
       <c r="D1175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1176">
@@ -24160,7 +24160,7 @@
         </is>
       </c>
       <c r="D1176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1177">
@@ -24180,7 +24180,7 @@
         </is>
       </c>
       <c r="D1177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178">
@@ -24200,7 +24200,7 @@
         </is>
       </c>
       <c r="D1178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1179">
@@ -24240,7 +24240,7 @@
         </is>
       </c>
       <c r="D1180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181">
@@ -24260,7 +24260,7 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182">
@@ -24280,7 +24280,7 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183">
@@ -24300,7 +24300,7 @@
         </is>
       </c>
       <c r="D1183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1184">
@@ -24320,7 +24320,7 @@
         </is>
       </c>
       <c r="D1184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1185">
@@ -24340,7 +24340,7 @@
         </is>
       </c>
       <c r="D1185" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1186">
@@ -24360,7 +24360,7 @@
         </is>
       </c>
       <c r="D1186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1187">
@@ -24380,7 +24380,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188">
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="D1188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189">
@@ -24420,7 +24420,7 @@
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1190">
@@ -24460,7 +24460,7 @@
         </is>
       </c>
       <c r="D1191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1192">
@@ -24480,7 +24480,7 @@
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193">
@@ -24500,7 +24500,7 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194">
@@ -24520,7 +24520,7 @@
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195">
@@ -24540,7 +24540,7 @@
         </is>
       </c>
       <c r="D1195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1196">
@@ -24560,7 +24560,7 @@
         </is>
       </c>
       <c r="D1196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1197">
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="D1198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1199">
@@ -24640,7 +24640,7 @@
         </is>
       </c>
       <c r="D1200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201">
@@ -24660,7 +24660,7 @@
         </is>
       </c>
       <c r="D1201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1202">
@@ -24700,7 +24700,7 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -24720,7 +24720,7 @@
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205">
@@ -24740,7 +24740,7 @@
         </is>
       </c>
       <c r="D1205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1206">
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1207">
@@ -24780,7 +24780,7 @@
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208">
@@ -24800,7 +24800,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1209">
@@ -24820,7 +24820,7 @@
         </is>
       </c>
       <c r="D1209" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1210">
@@ -24840,7 +24840,7 @@
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1211">
@@ -24860,7 +24860,7 @@
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1212">
@@ -24880,7 +24880,7 @@
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1213">
@@ -24940,7 +24940,7 @@
         </is>
       </c>
       <c r="D1215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216">
@@ -24980,7 +24980,7 @@
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1218">
@@ -25000,7 +25000,7 @@
         </is>
       </c>
       <c r="D1218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219">
@@ -25040,7 +25040,7 @@
         </is>
       </c>
       <c r="D1220" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1221">
@@ -25060,7 +25060,7 @@
         </is>
       </c>
       <c r="D1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -25080,7 +25080,7 @@
         </is>
       </c>
       <c r="D1222" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1223">
@@ -25100,7 +25100,7 @@
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1224">
@@ -25120,7 +25120,7 @@
         </is>
       </c>
       <c r="D1224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225">
@@ -25140,7 +25140,7 @@
         </is>
       </c>
       <c r="D1225" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1226">
@@ -25160,7 +25160,7 @@
         </is>
       </c>
       <c r="D1226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1227">
@@ -25180,7 +25180,7 @@
         </is>
       </c>
       <c r="D1227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1228">
@@ -25200,7 +25200,7 @@
         </is>
       </c>
       <c r="D1228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229">
@@ -25220,7 +25220,7 @@
         </is>
       </c>
       <c r="D1229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1230">
@@ -25240,7 +25240,7 @@
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231">
@@ -25260,7 +25260,7 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232">
@@ -25280,7 +25280,7 @@
         </is>
       </c>
       <c r="D1232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233">
@@ -25300,7 +25300,7 @@
         </is>
       </c>
       <c r="D1233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1234">
@@ -25320,7 +25320,7 @@
         </is>
       </c>
       <c r="D1234" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1235">
@@ -25340,7 +25340,7 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1236">
@@ -25360,7 +25360,7 @@
         </is>
       </c>
       <c r="D1236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -25380,7 +25380,7 @@
         </is>
       </c>
       <c r="D1237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1238">
@@ -25420,7 +25420,7 @@
         </is>
       </c>
       <c r="D1239" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1240">
@@ -25440,7 +25440,7 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1241">
@@ -25460,7 +25460,7 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1242">
@@ -25480,7 +25480,7 @@
         </is>
       </c>
       <c r="D1242" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1243">
@@ -25500,7 +25500,7 @@
         </is>
       </c>
       <c r="D1243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1244">
@@ -25540,7 +25540,7 @@
         </is>
       </c>
       <c r="D1245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246">
@@ -25560,7 +25560,7 @@
         </is>
       </c>
       <c r="D1246" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1247">
@@ -25620,7 +25620,7 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1250">
@@ -25640,7 +25640,7 @@
         </is>
       </c>
       <c r="D1250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251">
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1252">
@@ -25680,7 +25680,7 @@
         </is>
       </c>
       <c r="D1252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1253">
@@ -25700,7 +25700,7 @@
         </is>
       </c>
       <c r="D1253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254">
@@ -25720,7 +25720,7 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1255">
@@ -25740,7 +25740,7 @@
         </is>
       </c>
       <c r="D1255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1256">
@@ -25760,7 +25760,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1257">
@@ -25780,7 +25780,7 @@
         </is>
       </c>
       <c r="D1257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1258">
@@ -25800,7 +25800,7 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1259">
@@ -25820,7 +25820,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1260">
@@ -25840,7 +25840,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1261">
@@ -25860,7 +25860,7 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262">
@@ -25880,7 +25880,7 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -25900,7 +25900,7 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264">
@@ -25920,7 +25920,7 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265">
@@ -25940,7 +25940,7 @@
         </is>
       </c>
       <c r="D1265" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1266">
@@ -25960,7 +25960,7 @@
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1267">
@@ -25980,7 +25980,7 @@
         </is>
       </c>
       <c r="D1267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1268">
@@ -26000,7 +26000,7 @@
         </is>
       </c>
       <c r="D1268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="D1269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270">
@@ -26040,7 +26040,7 @@
         </is>
       </c>
       <c r="D1270" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1271">
@@ -26060,7 +26060,7 @@
         </is>
       </c>
       <c r="D1271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272">
@@ -26080,7 +26080,7 @@
         </is>
       </c>
       <c r="D1272" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1273">
@@ -26100,7 +26100,7 @@
         </is>
       </c>
       <c r="D1273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274">
@@ -26120,7 +26120,7 @@
         </is>
       </c>
       <c r="D1274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275">
@@ -26140,7 +26140,7 @@
         </is>
       </c>
       <c r="D1275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276">
@@ -26180,7 +26180,7 @@
         </is>
       </c>
       <c r="D1277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278">
@@ -26200,7 +26200,7 @@
         </is>
       </c>
       <c r="D1278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279">
@@ -26220,7 +26220,7 @@
         </is>
       </c>
       <c r="D1279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1280">
@@ -26240,7 +26240,7 @@
         </is>
       </c>
       <c r="D1280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -26260,7 +26260,7 @@
         </is>
       </c>
       <c r="D1281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1282">
@@ -26280,7 +26280,7 @@
         </is>
       </c>
       <c r="D1282" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1283">
@@ -26300,7 +26300,7 @@
         </is>
       </c>
       <c r="D1283" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1284">
@@ -26320,7 +26320,7 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285">
@@ -26340,7 +26340,7 @@
         </is>
       </c>
       <c r="D1285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -26360,7 +26360,7 @@
         </is>
       </c>
       <c r="D1286" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1287">
@@ -26400,7 +26400,7 @@
         </is>
       </c>
       <c r="D1288" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1289">
@@ -26420,7 +26420,7 @@
         </is>
       </c>
       <c r="D1289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1290">
@@ -26440,7 +26440,7 @@
         </is>
       </c>
       <c r="D1290" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1291">
@@ -26480,7 +26480,7 @@
         </is>
       </c>
       <c r="D1292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293">
@@ -26500,7 +26500,7 @@
         </is>
       </c>
       <c r="D1293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -26520,7 +26520,7 @@
         </is>
       </c>
       <c r="D1294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -26540,7 +26540,7 @@
         </is>
       </c>
       <c r="D1295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296">
@@ -26560,7 +26560,7 @@
         </is>
       </c>
       <c r="D1296" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1297">
@@ -26600,7 +26600,7 @@
         </is>
       </c>
       <c r="D1298" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1299">
@@ -26620,7 +26620,7 @@
         </is>
       </c>
       <c r="D1299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300">
@@ -26640,7 +26640,7 @@
         </is>
       </c>
       <c r="D1300" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1301">
@@ -26660,7 +26660,7 @@
         </is>
       </c>
       <c r="D1301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302">
@@ -26680,7 +26680,7 @@
         </is>
       </c>
       <c r="D1302" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1303">
@@ -26700,7 +26700,7 @@
         </is>
       </c>
       <c r="D1303" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1304">
@@ -26740,7 +26740,7 @@
         </is>
       </c>
       <c r="D1305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1306">
@@ -26760,7 +26760,7 @@
         </is>
       </c>
       <c r="D1306" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1307">
@@ -26780,7 +26780,7 @@
         </is>
       </c>
       <c r="D1307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308">
@@ -26800,7 +26800,7 @@
         </is>
       </c>
       <c r="D1308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309">
@@ -26820,7 +26820,7 @@
         </is>
       </c>
       <c r="D1309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -26840,7 +26840,7 @@
         </is>
       </c>
       <c r="D1310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311">
@@ -26880,7 +26880,7 @@
         </is>
       </c>
       <c r="D1312" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1313">
@@ -26900,7 +26900,7 @@
         </is>
       </c>
       <c r="D1313" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1314">
@@ -26920,7 +26920,7 @@
         </is>
       </c>
       <c r="D1314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1315">
@@ -26940,7 +26940,7 @@
         </is>
       </c>
       <c r="D1315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1316">
@@ -26960,7 +26960,7 @@
         </is>
       </c>
       <c r="D1316" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1317">
@@ -26980,7 +26980,7 @@
         </is>
       </c>
       <c r="D1317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318">
@@ -27000,7 +27000,7 @@
         </is>
       </c>
       <c r="D1318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1319">
@@ -27020,7 +27020,7 @@
         </is>
       </c>
       <c r="D1319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320">
@@ -27040,7 +27040,7 @@
         </is>
       </c>
       <c r="D1320" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1321">
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="D1323" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1324">
@@ -27120,7 +27120,7 @@
         </is>
       </c>
       <c r="D1324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325">
@@ -27140,7 +27140,7 @@
         </is>
       </c>
       <c r="D1325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326">
@@ -27160,7 +27160,7 @@
         </is>
       </c>
       <c r="D1326" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1327">
@@ -27180,7 +27180,7 @@
         </is>
       </c>
       <c r="D1327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -27200,7 +27200,7 @@
         </is>
       </c>
       <c r="D1328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1329">
@@ -27220,7 +27220,7 @@
         </is>
       </c>
       <c r="D1329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330">
@@ -27240,7 +27240,7 @@
         </is>
       </c>
       <c r="D1330" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1331">
@@ -27280,7 +27280,7 @@
         </is>
       </c>
       <c r="D1332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333">
@@ -27300,7 +27300,7 @@
         </is>
       </c>
       <c r="D1333" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1334">
@@ -27320,7 +27320,7 @@
         </is>
       </c>
       <c r="D1334" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1335">
@@ -27340,7 +27340,7 @@
         </is>
       </c>
       <c r="D1335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336">
@@ -27360,7 +27360,7 @@
         </is>
       </c>
       <c r="D1336" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1337">
@@ -27380,7 +27380,7 @@
         </is>
       </c>
       <c r="D1337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -27400,7 +27400,7 @@
         </is>
       </c>
       <c r="D1338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339">
@@ -27440,7 +27440,7 @@
         </is>
       </c>
       <c r="D1340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341">
@@ -27480,7 +27480,7 @@
         </is>
       </c>
       <c r="D1342" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1343">
@@ -27500,7 +27500,7 @@
         </is>
       </c>
       <c r="D1343" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1344">
@@ -27520,7 +27520,7 @@
         </is>
       </c>
       <c r="D1344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345">
@@ -27540,7 +27540,7 @@
         </is>
       </c>
       <c r="D1345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346">
@@ -27560,7 +27560,7 @@
         </is>
       </c>
       <c r="D1346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347">
@@ -27580,7 +27580,7 @@
         </is>
       </c>
       <c r="D1347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348">
@@ -27620,7 +27620,7 @@
         </is>
       </c>
       <c r="D1349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350">
@@ -27640,7 +27640,7 @@
         </is>
       </c>
       <c r="D1350" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1351">
@@ -27680,7 +27680,7 @@
         </is>
       </c>
       <c r="D1352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1353">
@@ -27700,7 +27700,7 @@
         </is>
       </c>
       <c r="D1353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354">
@@ -27720,7 +27720,7 @@
         </is>
       </c>
       <c r="D1354" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1355">
@@ -27740,7 +27740,7 @@
         </is>
       </c>
       <c r="D1355" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1356">
@@ -27760,7 +27760,7 @@
         </is>
       </c>
       <c r="D1356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1357">
@@ -27780,7 +27780,7 @@
         </is>
       </c>
       <c r="D1357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1358">
@@ -27800,7 +27800,7 @@
         </is>
       </c>
       <c r="D1358" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1359">
@@ -27860,7 +27860,7 @@
         </is>
       </c>
       <c r="D1361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1362">
@@ -27880,7 +27880,7 @@
         </is>
       </c>
       <c r="D1362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1363">
@@ -27900,7 +27900,7 @@
         </is>
       </c>
       <c r="D1363" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1364">
@@ -27920,7 +27920,7 @@
         </is>
       </c>
       <c r="D1364" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1365">
@@ -27940,7 +27940,7 @@
         </is>
       </c>
       <c r="D1365" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1366">
@@ -27960,7 +27960,7 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367">
@@ -27980,7 +27980,7 @@
         </is>
       </c>
       <c r="D1367" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1368">
@@ -28000,7 +28000,7 @@
         </is>
       </c>
       <c r="D1368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1369">
@@ -28020,7 +28020,7 @@
         </is>
       </c>
       <c r="D1369" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1370">
@@ -28040,7 +28040,7 @@
         </is>
       </c>
       <c r="D1370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1371">
@@ -28060,7 +28060,7 @@
         </is>
       </c>
       <c r="D1371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1372">
@@ -28100,7 +28100,7 @@
         </is>
       </c>
       <c r="D1373" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1374">
@@ -28120,7 +28120,7 @@
         </is>
       </c>
       <c r="D1374" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1375">
@@ -28140,7 +28140,7 @@
         </is>
       </c>
       <c r="D1375" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1376">
@@ -28160,7 +28160,7 @@
         </is>
       </c>
       <c r="D1376" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1377">
@@ -28180,7 +28180,7 @@
         </is>
       </c>
       <c r="D1377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378">
@@ -28200,7 +28200,7 @@
         </is>
       </c>
       <c r="D1378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379">
@@ -28220,7 +28220,7 @@
         </is>
       </c>
       <c r="D1379" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1380">
@@ -28260,7 +28260,7 @@
         </is>
       </c>
       <c r="D1381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1382">
@@ -28280,7 +28280,7 @@
         </is>
       </c>
       <c r="D1382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1383">
@@ -28300,7 +28300,7 @@
         </is>
       </c>
       <c r="D1383" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1384">
@@ -28320,7 +28320,7 @@
         </is>
       </c>
       <c r="D1384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1385">
@@ -28340,7 +28340,7 @@
         </is>
       </c>
       <c r="D1385" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1386">
@@ -28360,7 +28360,7 @@
         </is>
       </c>
       <c r="D1386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1387">
@@ -28380,7 +28380,7 @@
         </is>
       </c>
       <c r="D1387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388">
@@ -28420,7 +28420,7 @@
         </is>
       </c>
       <c r="D1389" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1390">
@@ -28440,7 +28440,7 @@
         </is>
       </c>
       <c r="D1390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1391">
@@ -28460,7 +28460,7 @@
         </is>
       </c>
       <c r="D1391" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1392">
@@ -28500,7 +28500,7 @@
         </is>
       </c>
       <c r="D1393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394">
@@ -28520,7 +28520,7 @@
         </is>
       </c>
       <c r="D1394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1395">
@@ -28540,7 +28540,7 @@
         </is>
       </c>
       <c r="D1395" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1396">
@@ -28580,7 +28580,7 @@
         </is>
       </c>
       <c r="D1397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398">
@@ -28620,7 +28620,7 @@
         </is>
       </c>
       <c r="D1399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1400">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="D1400" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1401">
@@ -28680,7 +28680,7 @@
         </is>
       </c>
       <c r="D1402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1403">
@@ -28720,7 +28720,7 @@
         </is>
       </c>
       <c r="D1404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="9">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="16">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="22">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="23">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="25">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="27">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="29">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="31">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="33">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="35">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="37">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="39">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="44">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="45">
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="47">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="48">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="50">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="54">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="57">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="58">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="60">
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="61">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="63">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="64">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="67">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="68">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="70">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="75">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="76">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="78">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="80">
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="81">
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="88">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="89">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="91">
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="92">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="94">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="95">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="98">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="102">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="105">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="106">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="109">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="111">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="112">
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="113">
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="114">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="118">
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="120">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="125">
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="126">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="127">
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="131">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="139">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="142">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="146">
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="151">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="158">
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="162">
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="165">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="168">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="169">
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="171">
@@ -4080,7 +4080,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="173">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="174">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="177">
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="178">
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="180">
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="181">
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="182">
@@ -4280,7 +4280,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="183">
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="184">
@@ -4380,7 +4380,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="188">
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="189">
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="191">
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="193">
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="194">
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="195">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="196">
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="197">
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="198">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="199">
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="201">
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="203">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="212">
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="216">
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="217">
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="221">
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="222">
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="225">
@@ -5200,7 +5200,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="229">
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="230">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="232">
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="235">
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="237">
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="240">
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="241">
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="243">
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="244">
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="245">
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="248">
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="250">
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="251">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="252">
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="255">
@@ -5820,7 +5820,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="260">
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="262">
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="267">
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="269">
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="271">
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="275">
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="276">
@@ -6180,7 +6180,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="278">
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="282">
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="284">
@@ -6320,7 +6320,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="285">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="288">
@@ -6420,7 +6420,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="290">
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="292">
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="294">
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="299">
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="304">
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="307">
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="310">
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="311">
@@ -6880,7 +6880,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="313">
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="316">
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="317">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="319">
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="320">
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="324">
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="326">
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="330">
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="331">
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="333">
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="335">
@@ -7360,7 +7360,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="337">
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="338">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="340">
@@ -7440,7 +7440,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="341">
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="342">
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="344">
@@ -7580,7 +7580,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="348">
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="349">
@@ -7640,7 +7640,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="351">
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="354">
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="356">
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="357">
@@ -7900,7 +7900,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="364">
@@ -7940,7 +7940,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="366">
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="369">
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="370">
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="373">
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="375">
@@ -8180,7 +8180,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="378">
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="379">
@@ -8220,7 +8220,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="380">
@@ -8300,7 +8300,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="384">
@@ -8320,7 +8320,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="385">
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="389">
@@ -8460,7 +8460,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="392">
@@ -8480,7 +8480,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="393">
@@ -8500,7 +8500,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="394">
@@ -8520,7 +8520,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="395">
@@ -8540,7 +8540,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="396">
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="397">
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="403">
@@ -8700,7 +8700,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="404">
@@ -8720,7 +8720,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="405">
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="407">
@@ -8800,7 +8800,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="409">
@@ -8820,7 +8820,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="410">
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="413">
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="415">
@@ -9040,7 +9040,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="421">
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="422">
@@ -9080,7 +9080,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="423">
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="424">
@@ -9200,7 +9200,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="429">
@@ -9240,7 +9240,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="431">
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="433">
@@ -9320,7 +9320,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="435">
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="436">
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -9380,7 +9380,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="438">
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="439">
@@ -9420,7 +9420,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="440">
@@ -9440,7 +9440,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="441">
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="442">
@@ -9480,7 +9480,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="443">
@@ -9600,7 +9600,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="449">
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="450">
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="451">
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="459">
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="460">
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="468">
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="469">
@@ -10020,7 +10020,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="470">
@@ -10040,7 +10040,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="471">
@@ -10100,7 +10100,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="474">
@@ -10120,7 +10120,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="475">
@@ -10140,7 +10140,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="476">
@@ -10160,7 +10160,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="477">
@@ -10220,7 +10220,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="480">
@@ -10240,7 +10240,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="481">
@@ -10260,7 +10260,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="482">
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="487">
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="491">
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="492">
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="499">
@@ -10620,7 +10620,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="500">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="501">
@@ -10680,7 +10680,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="503">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="504">
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="505">
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="506">
@@ -10800,7 +10800,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="509">
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="511">
@@ -10880,7 +10880,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="513">
@@ -10940,7 +10940,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="516">
@@ -11060,7 +11060,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="522">
@@ -11080,7 +11080,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="523">
@@ -11160,7 +11160,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="527">
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="529">
@@ -11280,7 +11280,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="533">
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="534">
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="537">
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="542">
@@ -11520,7 +11520,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="545">
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="546">
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="548">
@@ -11620,7 +11620,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="550">
@@ -11720,7 +11720,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="555">
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="559">
@@ -11840,7 +11840,7 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="561">
@@ -11900,7 +11900,7 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="564">
@@ -11960,7 +11960,7 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="567">
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="568">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="569">
@@ -12060,7 +12060,7 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="572">
@@ -12080,7 +12080,7 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="573">
@@ -12140,7 +12140,7 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="576">
@@ -12160,7 +12160,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="577">
@@ -12280,7 +12280,7 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="583">
@@ -12400,7 +12400,7 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="589">
@@ -12420,7 +12420,7 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="590">
@@ -12460,7 +12460,7 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="592">
@@ -12540,7 +12540,7 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="596">
@@ -12560,7 +12560,7 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="597">
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="599">
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="600">
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="603">
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="604">
@@ -12720,7 +12720,7 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="605">
@@ -12740,7 +12740,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="606">
@@ -12760,7 +12760,7 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="607">
@@ -12800,7 +12800,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="609">
@@ -12820,7 +12820,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="610">
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="613">
@@ -12900,7 +12900,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="614">
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="615">
@@ -12960,7 +12960,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="617">
@@ -13000,7 +13000,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -13140,7 +13140,7 @@
         </is>
       </c>
       <c r="D625" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="626">
@@ -13160,7 +13160,7 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="627">
@@ -13180,7 +13180,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="628">
@@ -13220,7 +13220,7 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="630">
@@ -13320,7 +13320,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="635">
@@ -13380,7 +13380,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="638">
@@ -13420,7 +13420,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="640">
@@ -13440,7 +13440,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="641">
@@ -13460,7 +13460,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="642">
@@ -13500,7 +13500,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="644">
@@ -13540,7 +13540,7 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="646">
@@ -13580,7 +13580,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="648">
@@ -13680,7 +13680,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="653">
@@ -13720,7 +13720,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="655">
@@ -13800,7 +13800,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="659">
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="662">
@@ -13880,7 +13880,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="663">
@@ -13900,7 +13900,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="664">
@@ -13940,7 +13940,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="666">
@@ -14020,7 +14020,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="670">
@@ -14040,7 +14040,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="671">
@@ -14100,7 +14100,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="674">
@@ -14120,7 +14120,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="675">
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="676">
@@ -14160,7 +14160,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="677">
@@ -14180,7 +14180,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="678">
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="680">
@@ -14240,7 +14240,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="681">
@@ -14300,7 +14300,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684">
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="685">
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="689">
@@ -14440,7 +14440,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="691">
@@ -14460,7 +14460,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="692">
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="694">
@@ -14620,7 +14620,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="700">
@@ -14920,7 +14920,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="715">
@@ -14960,7 +14960,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="717">
@@ -14980,7 +14980,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="718">
@@ -15000,7 +15000,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="719">
@@ -15080,7 +15080,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="723">
@@ -15100,7 +15100,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="724">
@@ -15120,7 +15120,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="725">
@@ -15280,7 +15280,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="733">
@@ -15360,7 +15360,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="737">
@@ -15400,7 +15400,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="739">
@@ -15420,7 +15420,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="740">
@@ -15440,7 +15440,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="741">
@@ -15480,7 +15480,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="743">
@@ -15500,7 +15500,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="744">
@@ -15520,7 +15520,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="745">
@@ -15540,7 +15540,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="746">
@@ -15620,7 +15620,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="750">
@@ -15640,7 +15640,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="751">
@@ -15720,7 +15720,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="755">
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="757">
@@ -15780,7 +15780,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="758">
@@ -15800,7 +15800,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="759">
@@ -15900,7 +15900,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="764">
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="766">
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="767">
@@ -16000,7 +16000,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="769">
@@ -16020,7 +16020,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="770">
@@ -16040,7 +16040,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="771">
@@ -16060,7 +16060,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="772">
@@ -16080,7 +16080,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="775">
@@ -16140,7 +16140,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="776">
@@ -16200,7 +16200,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="779">
@@ -16260,7 +16260,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="782">
@@ -16280,7 +16280,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="783">
@@ -16320,7 +16320,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785">
@@ -16340,7 +16340,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="786">
@@ -16380,7 +16380,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="788">
@@ -16420,7 +16420,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="790">
@@ -16480,7 +16480,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="793">
@@ -16500,7 +16500,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="794">
@@ -16520,7 +16520,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="795">
@@ -16540,7 +16540,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796">
@@ -16560,7 +16560,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797">
@@ -16580,7 +16580,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="799">
@@ -16620,7 +16620,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800">
@@ -16640,7 +16640,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801">
@@ -16680,7 +16680,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="803">
@@ -16700,7 +16700,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="804">
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="805">
@@ -16740,7 +16740,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="806">
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="811">
@@ -16860,7 +16860,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="812">
@@ -16880,7 +16880,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="813">
@@ -16900,7 +16900,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814">
@@ -16920,7 +16920,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="815">
@@ -16960,7 +16960,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="817">
@@ -16980,7 +16980,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="818">
@@ -17000,7 +17000,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="819">
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820">
@@ -17040,7 +17040,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -17080,7 +17080,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="823">
@@ -17100,7 +17100,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="824">
@@ -17120,7 +17120,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -17140,7 +17140,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="826">
@@ -17160,7 +17160,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="827">
@@ -17180,7 +17180,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="828">
@@ -17240,7 +17240,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831">
@@ -17280,7 +17280,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="833">
@@ -17300,7 +17300,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="834">
@@ -17320,7 +17320,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="835">
@@ -17340,7 +17340,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="836">
@@ -17380,7 +17380,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="838">
@@ -17440,7 +17440,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="841">
@@ -17460,7 +17460,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="845">
@@ -17540,7 +17540,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="847">
@@ -17580,7 +17580,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="848">
@@ -17600,7 +17600,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="849">
@@ -17620,7 +17620,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850">
@@ -17680,7 +17680,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="853">
@@ -17720,7 +17720,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="855">
@@ -17740,7 +17740,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="856">
@@ -17760,7 +17760,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="857">
@@ -17780,7 +17780,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="858">
@@ -17800,7 +17800,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="859">
@@ -17820,7 +17820,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="860">
@@ -17840,7 +17840,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="861">
@@ -17860,7 +17860,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="862">
@@ -17900,7 +17900,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="864">
@@ -17920,7 +17920,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="865">
@@ -17940,7 +17940,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="866">
@@ -17980,7 +17980,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="868">
@@ -18000,7 +18000,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="869">
@@ -18020,7 +18020,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="870">
@@ -18120,7 +18120,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="875">
@@ -18140,7 +18140,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="876">
@@ -18160,7 +18160,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="877">
@@ -18180,7 +18180,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="878">
@@ -18220,7 +18220,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="880">
@@ -18240,7 +18240,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="881">
@@ -18260,7 +18260,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="882">
@@ -18380,7 +18380,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="888">
@@ -18400,7 +18400,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="889">
@@ -18420,7 +18420,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="890">
@@ -18440,7 +18440,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="891">
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="892">
@@ -18480,7 +18480,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="893">
@@ -18520,7 +18520,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895">
@@ -18540,7 +18540,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="896">
@@ -18560,7 +18560,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="897">
@@ -18580,7 +18580,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="898">
@@ -18600,7 +18600,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="899">
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="901">
@@ -18680,7 +18680,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="903">
@@ -18700,7 +18700,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="904">
@@ -18720,7 +18720,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="905">
@@ -18760,7 +18760,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="907">
@@ -18780,7 +18780,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="908">
@@ -18800,7 +18800,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="909">
@@ -18840,7 +18840,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="911">
@@ -18880,7 +18880,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="913">
@@ -18900,7 +18900,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="914">
@@ -18960,7 +18960,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="917">
@@ -18980,7 +18980,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="918">
@@ -19020,7 +19020,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="920">
@@ -19080,7 +19080,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="923">
@@ -19100,7 +19100,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="924">
@@ -19140,7 +19140,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="926">
@@ -19160,7 +19160,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927">
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="928">
@@ -19220,7 +19220,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="930">
@@ -19240,7 +19240,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="931">
@@ -19300,7 +19300,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="934">
@@ -19340,7 +19340,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="936">
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="937">
@@ -19380,7 +19380,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="938">
@@ -19420,7 +19420,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="940">
@@ -19440,7 +19440,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="941">
@@ -19460,7 +19460,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942">
@@ -19500,7 +19500,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="944">
@@ -19520,7 +19520,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945">
@@ -19560,7 +19560,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="947">
@@ -19580,7 +19580,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="948">
@@ -19640,7 +19640,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="951">
@@ -19700,7 +19700,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="954">
@@ -19720,7 +19720,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="955">
@@ -19740,7 +19740,7 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="956">
@@ -19760,7 +19760,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957">
@@ -19800,7 +19800,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="959">
@@ -19820,7 +19820,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="960">
@@ -19880,7 +19880,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="963">
@@ -19920,7 +19920,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="965">
@@ -19940,7 +19940,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="966">
@@ -19960,7 +19960,7 @@
         </is>
       </c>
       <c r="D966" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="967">
@@ -20000,7 +20000,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="969">
@@ -20020,7 +20020,7 @@
         </is>
       </c>
       <c r="D969" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="970">
@@ -20120,7 +20120,7 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="975">
@@ -20140,7 +20140,7 @@
         </is>
       </c>
       <c r="D975" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="976">
@@ -20160,7 +20160,7 @@
         </is>
       </c>
       <c r="D976" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="977">
@@ -20180,7 +20180,7 @@
         </is>
       </c>
       <c r="D977" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="978">
@@ -20200,7 +20200,7 @@
         </is>
       </c>
       <c r="D978" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="979">
@@ -20220,7 +20220,7 @@
         </is>
       </c>
       <c r="D979" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="980">
@@ -20240,7 +20240,7 @@
         </is>
       </c>
       <c r="D980" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="981">
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="982">
@@ -20280,7 +20280,7 @@
         </is>
       </c>
       <c r="D982" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="983">
@@ -20300,7 +20300,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -20340,7 +20340,7 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="986">
@@ -20360,7 +20360,7 @@
         </is>
       </c>
       <c r="D986" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="987">
@@ -20400,7 +20400,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="989">
@@ -20420,7 +20420,7 @@
         </is>
       </c>
       <c r="D989" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="990">
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="D990" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="991">
@@ -20460,7 +20460,7 @@
         </is>
       </c>
       <c r="D991" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="992">
@@ -20480,7 +20480,7 @@
         </is>
       </c>
       <c r="D992" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="993">
@@ -20500,7 +20500,7 @@
         </is>
       </c>
       <c r="D993" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="994">
@@ -20520,7 +20520,7 @@
         </is>
       </c>
       <c r="D994" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="995">
@@ -20540,7 +20540,7 @@
         </is>
       </c>
       <c r="D995" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="996">
@@ -20560,7 +20560,7 @@
         </is>
       </c>
       <c r="D996" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="997">
@@ -20580,7 +20580,7 @@
         </is>
       </c>
       <c r="D997" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="998">
@@ -20600,7 +20600,7 @@
         </is>
       </c>
       <c r="D998" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="999">
@@ -20700,7 +20700,7 @@
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1004">
@@ -20720,7 +20720,7 @@
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1005">
@@ -20760,7 +20760,7 @@
         </is>
       </c>
       <c r="D1006" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1007">
@@ -20780,7 +20780,7 @@
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1008">
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="D1008" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1009">
@@ -20820,7 +20820,7 @@
         </is>
       </c>
       <c r="D1009" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1010">
@@ -20860,7 +20860,7 @@
         </is>
       </c>
       <c r="D1011" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1012">
@@ -20880,7 +20880,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1013">
@@ -20900,7 +20900,7 @@
         </is>
       </c>
       <c r="D1013" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1014">
@@ -20920,7 +20920,7 @@
         </is>
       </c>
       <c r="D1014" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1015">
@@ -20940,7 +20940,7 @@
         </is>
       </c>
       <c r="D1015" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016">
@@ -20960,7 +20960,7 @@
         </is>
       </c>
       <c r="D1016" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1017">
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="D1017" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1018">
@@ -21000,7 +21000,7 @@
         </is>
       </c>
       <c r="D1018" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1019">
@@ -21040,7 +21040,7 @@
         </is>
       </c>
       <c r="D1020" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1021">
@@ -21100,7 +21100,7 @@
         </is>
       </c>
       <c r="D1023" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1024">
@@ -21140,7 +21140,7 @@
         </is>
       </c>
       <c r="D1025" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1026">
@@ -21180,7 +21180,7 @@
         </is>
       </c>
       <c r="D1027" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1028">
@@ -21200,7 +21200,7 @@
         </is>
       </c>
       <c r="D1028" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -21220,7 +21220,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1030">
@@ -21240,7 +21240,7 @@
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1031">
@@ -21260,7 +21260,7 @@
         </is>
       </c>
       <c r="D1031" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1032">
@@ -21280,7 +21280,7 @@
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1033">
@@ -21300,7 +21300,7 @@
         </is>
       </c>
       <c r="D1033" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1034">
@@ -21320,7 +21320,7 @@
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1035">
@@ -21380,7 +21380,7 @@
         </is>
       </c>
       <c r="D1037" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1038">
@@ -21400,7 +21400,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1039">
@@ -21420,7 +21420,7 @@
         </is>
       </c>
       <c r="D1039" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1040">
@@ -21440,7 +21440,7 @@
         </is>
       </c>
       <c r="D1040" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1041">
@@ -21460,7 +21460,7 @@
         </is>
       </c>
       <c r="D1041" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1042">
@@ -21480,7 +21480,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1043">
@@ -21500,7 +21500,7 @@
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1044">
@@ -21560,7 +21560,7 @@
         </is>
       </c>
       <c r="D1046" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1047">
@@ -21580,7 +21580,7 @@
         </is>
       </c>
       <c r="D1047" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048">
@@ -21600,7 +21600,7 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1049">
@@ -21620,7 +21620,7 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1050">
@@ -21640,7 +21640,7 @@
         </is>
       </c>
       <c r="D1050" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1051">
@@ -21660,7 +21660,7 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1052">
@@ -21680,7 +21680,7 @@
         </is>
       </c>
       <c r="D1052" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1053">
@@ -21720,7 +21720,7 @@
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1055">
@@ -21740,7 +21740,7 @@
         </is>
       </c>
       <c r="D1055" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1056">
@@ -21760,7 +21760,7 @@
         </is>
       </c>
       <c r="D1056" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1057">
@@ -21780,7 +21780,7 @@
         </is>
       </c>
       <c r="D1057" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1058">
@@ -21800,7 +21800,7 @@
         </is>
       </c>
       <c r="D1058" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1059">
@@ -21840,7 +21840,7 @@
         </is>
       </c>
       <c r="D1060" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1061">
@@ -21860,7 +21860,7 @@
         </is>
       </c>
       <c r="D1061" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1062">
@@ -21900,7 +21900,7 @@
         </is>
       </c>
       <c r="D1063" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1064">
@@ -21960,7 +21960,7 @@
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1067">
@@ -22020,7 +22020,7 @@
         </is>
       </c>
       <c r="D1069" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1070">
@@ -22100,7 +22100,7 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1074">
@@ -22140,7 +22140,7 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1076">
@@ -22180,7 +22180,7 @@
         </is>
       </c>
       <c r="D1077" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1078">
@@ -22200,7 +22200,7 @@
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1079">
@@ -22220,7 +22220,7 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1080">
@@ -22240,7 +22240,7 @@
         </is>
       </c>
       <c r="D1080" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1081">
@@ -22280,7 +22280,7 @@
         </is>
       </c>
       <c r="D1082" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1083">
@@ -22320,7 +22320,7 @@
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1085">
@@ -22340,7 +22340,7 @@
         </is>
       </c>
       <c r="D1085" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1086">
@@ -22360,7 +22360,7 @@
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1087">
@@ -22380,7 +22380,7 @@
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1088">
@@ -22420,7 +22420,7 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1090">
@@ -22440,7 +22440,7 @@
         </is>
       </c>
       <c r="D1090" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1091">
@@ -22460,7 +22460,7 @@
         </is>
       </c>
       <c r="D1091" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1092">
@@ -22500,7 +22500,7 @@
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1094">
@@ -22520,7 +22520,7 @@
         </is>
       </c>
       <c r="D1094" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1095">
@@ -22540,7 +22540,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -22560,7 +22560,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1097">
@@ -22580,7 +22580,7 @@
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1098">
@@ -22600,7 +22600,7 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1099">
@@ -22620,7 +22620,7 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1100">
@@ -22640,7 +22640,7 @@
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1101">
@@ -22660,7 +22660,7 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1102">
@@ -22700,7 +22700,7 @@
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1104">
@@ -22740,7 +22740,7 @@
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1106">
@@ -22800,7 +22800,7 @@
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1109">
@@ -22840,7 +22840,7 @@
         </is>
       </c>
       <c r="D1110" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1111">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="D1111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112">
@@ -22880,7 +22880,7 @@
         </is>
       </c>
       <c r="D1112" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1113">
@@ -22920,7 +22920,7 @@
         </is>
       </c>
       <c r="D1114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1115">
@@ -22940,7 +22940,7 @@
         </is>
       </c>
       <c r="D1115" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1116">
@@ -23000,7 +23000,7 @@
         </is>
       </c>
       <c r="D1118" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1119">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="D1119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1120">
@@ -23040,7 +23040,7 @@
         </is>
       </c>
       <c r="D1120" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1121">
@@ -23060,7 +23060,7 @@
         </is>
       </c>
       <c r="D1121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -23080,7 +23080,7 @@
         </is>
       </c>
       <c r="D1122" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1123">
@@ -23100,7 +23100,7 @@
         </is>
       </c>
       <c r="D1123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1124">
@@ -23120,7 +23120,7 @@
         </is>
       </c>
       <c r="D1124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="D1125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1126">
@@ -23160,7 +23160,7 @@
         </is>
       </c>
       <c r="D1126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1127">
@@ -23200,7 +23200,7 @@
         </is>
       </c>
       <c r="D1128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1129">
@@ -23220,7 +23220,7 @@
         </is>
       </c>
       <c r="D1129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1130">
@@ -23260,7 +23260,7 @@
         </is>
       </c>
       <c r="D1131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -23280,7 +23280,7 @@
         </is>
       </c>
       <c r="D1132" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1133">
@@ -23300,7 +23300,7 @@
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1134">
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="D1134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1135">
@@ -23340,7 +23340,7 @@
         </is>
       </c>
       <c r="D1135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136">
@@ -23360,7 +23360,7 @@
         </is>
       </c>
       <c r="D1136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1137">
@@ -23380,7 +23380,7 @@
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1138">
@@ -23400,7 +23400,7 @@
         </is>
       </c>
       <c r="D1138" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139">
@@ -23440,7 +23440,7 @@
         </is>
       </c>
       <c r="D1140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1141">
@@ -23460,7 +23460,7 @@
         </is>
       </c>
       <c r="D1141" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1142">
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="D1143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1144">
@@ -23520,7 +23520,7 @@
         </is>
       </c>
       <c r="D1144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1145">
@@ -23540,7 +23540,7 @@
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1146">
@@ -23580,7 +23580,7 @@
         </is>
       </c>
       <c r="D1147" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1148">
@@ -23620,7 +23620,7 @@
         </is>
       </c>
       <c r="D1149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1150">
@@ -23660,7 +23660,7 @@
         </is>
       </c>
       <c r="D1151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1152">
@@ -23700,7 +23700,7 @@
         </is>
       </c>
       <c r="D1153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1154">
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="D1155" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1156">
@@ -23780,7 +23780,7 @@
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158">
@@ -23800,7 +23800,7 @@
         </is>
       </c>
       <c r="D1158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1159">
@@ -23820,7 +23820,7 @@
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160">
@@ -23840,7 +23840,7 @@
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1161">
@@ -23860,7 +23860,7 @@
         </is>
       </c>
       <c r="D1161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1162">
@@ -23920,7 +23920,7 @@
         </is>
       </c>
       <c r="D1164" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1165">
@@ -23940,7 +23940,7 @@
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1166">
@@ -23960,7 +23960,7 @@
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1167">
@@ -24000,7 +24000,7 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1169">
@@ -24020,7 +24020,7 @@
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170">
@@ -24060,7 +24060,7 @@
         </is>
       </c>
       <c r="D1171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1172">
@@ -24080,7 +24080,7 @@
         </is>
       </c>
       <c r="D1172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1173">
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="D1173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1174">
@@ -24120,7 +24120,7 @@
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1175">
@@ -24180,7 +24180,7 @@
         </is>
       </c>
       <c r="D1177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1178">
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="D1179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1180">
@@ -24240,7 +24240,7 @@
         </is>
       </c>
       <c r="D1180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1181">
@@ -24260,7 +24260,7 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1182">
@@ -24280,7 +24280,7 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1183">
@@ -24300,7 +24300,7 @@
         </is>
       </c>
       <c r="D1183" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1184">
@@ -24320,7 +24320,7 @@
         </is>
       </c>
       <c r="D1184" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1185">
@@ -24380,7 +24380,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1188">
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="D1188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1189">
@@ -24420,7 +24420,7 @@
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1190">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="D1190" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1191">
@@ -24480,7 +24480,7 @@
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1193">
@@ -24500,7 +24500,7 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1194">
@@ -24520,7 +24520,7 @@
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1195">
@@ -24560,7 +24560,7 @@
         </is>
       </c>
       <c r="D1196" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1197">
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1198">
@@ -24620,7 +24620,7 @@
         </is>
       </c>
       <c r="D1199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1200">
@@ -24640,7 +24640,7 @@
         </is>
       </c>
       <c r="D1200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1201">
@@ -24680,7 +24680,7 @@
         </is>
       </c>
       <c r="D1202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203">
@@ -24700,7 +24700,7 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1204">
@@ -24720,7 +24720,7 @@
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205">
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1207">
@@ -24780,7 +24780,7 @@
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208">
@@ -24800,7 +24800,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1209">
@@ -24840,7 +24840,7 @@
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1211">
@@ -24880,7 +24880,7 @@
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1213">
@@ -24900,7 +24900,7 @@
         </is>
       </c>
       <c r="D1213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1214">
@@ -24920,7 +24920,7 @@
         </is>
       </c>
       <c r="D1214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -24940,7 +24940,7 @@
         </is>
       </c>
       <c r="D1215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1216">
@@ -24960,7 +24960,7 @@
         </is>
       </c>
       <c r="D1216" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1217">
@@ -24980,7 +24980,7 @@
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1218">
@@ -25000,7 +25000,7 @@
         </is>
       </c>
       <c r="D1218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1219">
@@ -25020,7 +25020,7 @@
         </is>
       </c>
       <c r="D1219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1220">
@@ -25060,7 +25060,7 @@
         </is>
       </c>
       <c r="D1221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1222">
@@ -25100,7 +25100,7 @@
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1224">
@@ -25120,7 +25120,7 @@
         </is>
       </c>
       <c r="D1224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1225">
@@ -25180,7 +25180,7 @@
         </is>
       </c>
       <c r="D1227" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1228">
@@ -25200,7 +25200,7 @@
         </is>
       </c>
       <c r="D1228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229">
@@ -25220,7 +25220,7 @@
         </is>
       </c>
       <c r="D1229" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1230">
@@ -25240,7 +25240,7 @@
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1231">
@@ -25260,7 +25260,7 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232">
@@ -25280,7 +25280,7 @@
         </is>
       </c>
       <c r="D1232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233">
@@ -25300,7 +25300,7 @@
         </is>
       </c>
       <c r="D1233" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1234">
@@ -25340,7 +25340,7 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1236">
@@ -25360,7 +25360,7 @@
         </is>
       </c>
       <c r="D1236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1237">
@@ -25380,7 +25380,7 @@
         </is>
       </c>
       <c r="D1237" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1238">
@@ -25400,7 +25400,7 @@
         </is>
       </c>
       <c r="D1238" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1239">
@@ -25440,7 +25440,7 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1241">
@@ -25460,7 +25460,7 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1242">
@@ -25500,7 +25500,7 @@
         </is>
       </c>
       <c r="D1243" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1244">
@@ -25520,7 +25520,7 @@
         </is>
       </c>
       <c r="D1244" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1245">
@@ -25540,7 +25540,7 @@
         </is>
       </c>
       <c r="D1245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246">
@@ -25560,7 +25560,7 @@
         </is>
       </c>
       <c r="D1246" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1247">
@@ -25580,7 +25580,7 @@
         </is>
       </c>
       <c r="D1247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248">
@@ -25600,7 +25600,7 @@
         </is>
       </c>
       <c r="D1248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1249">
@@ -25620,7 +25620,7 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1250">
@@ -25640,7 +25640,7 @@
         </is>
       </c>
       <c r="D1250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1251">
@@ -25666,12 +25666,12 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>規則</t>
+          <t>然則</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>규칙</t>
+          <t>연즉</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
@@ -25686,12 +25686,12 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>然則</t>
+          <t>食品</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>연즉</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
@@ -25700,18 +25700,18 @@
         </is>
       </c>
       <c r="D1253" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>食品</t>
+          <t>加減</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>가감</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -25720,18 +25720,18 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>加減</t>
+          <t>改惡</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>가감</t>
+          <t>개악</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
@@ -25746,12 +25746,12 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>改惡</t>
+          <t>改悛</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>개악</t>
+          <t>개전</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -25766,12 +25766,12 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>改悛</t>
+          <t>更新</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>개전</t>
+          <t>갱신, 경신</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -25786,12 +25786,12 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>更新</t>
+          <t>決裂</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>갱신, 경신</t>
+          <t>결렬</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
@@ -25806,12 +25806,12 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>決裂</t>
+          <t>可決</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>결렬</t>
+          <t>가결</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
@@ -25820,18 +25820,18 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>可決</t>
+          <t>開拓</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>가결</t>
+          <t>개척</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
@@ -25846,12 +25846,12 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>開拓</t>
+          <t>難解</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>개척</t>
+          <t>난해</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
@@ -25860,18 +25860,18 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>難解</t>
+          <t>强度</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>난해</t>
+          <t>강도</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
@@ -25880,18 +25880,18 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>强度</t>
+          <t>改善</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>강도</t>
+          <t>개선</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -25900,18 +25900,18 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>改善</t>
+          <t>權勢</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>개선</t>
+          <t>권세</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
@@ -25920,18 +25920,18 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>權勢</t>
+          <t>權利</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>권세</t>
+          <t>권리</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -25946,12 +25946,12 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>權利</t>
+          <t>告發</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>권리</t>
+          <t>고발</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -25960,18 +25960,18 @@
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>告發</t>
+          <t>可憐</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>고발</t>
+          <t>가련</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -25986,12 +25986,12 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>可憐</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>가련</t>
+          <t>간섭</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -26000,18 +26000,18 @@
         </is>
       </c>
       <c r="D1268" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>强烈</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>간섭</t>
+          <t>강렬</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
@@ -26020,18 +26020,18 @@
         </is>
       </c>
       <c r="D1269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>强烈</t>
+          <t>介入</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>강렬</t>
+          <t>개입</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
@@ -26046,12 +26046,12 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>介入</t>
+          <t>改革</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>개입</t>
+          <t>개혁</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
@@ -26060,18 +26060,18 @@
         </is>
       </c>
       <c r="D1271" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>改革</t>
+          <t>見聞</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>개혁</t>
+          <t>견문</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
@@ -26080,18 +26080,18 @@
         </is>
       </c>
       <c r="D1272" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>見聞</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>견문</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
@@ -26100,18 +26100,18 @@
         </is>
       </c>
       <c r="D1273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>日沒</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>일몰</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -26120,18 +26120,18 @@
         </is>
       </c>
       <c r="D1274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>日沒</t>
+          <t>誇張</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>일몰</t>
+          <t>과장</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
@@ -26140,18 +26140,18 @@
         </is>
       </c>
       <c r="D1275" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>誇張</t>
+          <t>龜鑑</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>과장</t>
+          <t>귀감</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
@@ -26160,18 +26160,18 @@
         </is>
       </c>
       <c r="D1276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>龜鑑</t>
+          <t>龜裂</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>귀감</t>
+          <t>균열</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -26180,18 +26180,18 @@
         </is>
       </c>
       <c r="D1277" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>龜裂</t>
+          <t>樂觀</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>균열</t>
+          <t>낙관</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -26200,18 +26200,18 @@
         </is>
       </c>
       <c r="D1278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>樂觀</t>
+          <t>論述</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>낙관</t>
+          <t>논술</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
@@ -26226,12 +26226,12 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>論述</t>
+          <t>考察</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>논술</t>
+          <t>고찰</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
@@ -26240,18 +26240,18 @@
         </is>
       </c>
       <c r="D1280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>考察</t>
+          <t>檢察</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>고찰</t>
+          <t>검찰</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -26266,12 +26266,12 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>檢察</t>
+          <t>公正</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>검찰</t>
+          <t>공정</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -26280,18 +26280,18 @@
         </is>
       </c>
       <c r="D1282" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>公正</t>
+          <t>受賞</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>공정</t>
+          <t>수상</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
@@ -26306,7 +26306,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>受賞</t>
+          <t>授賞</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
@@ -26320,18 +26320,18 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>授賞</t>
+          <t>賃借</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>수상</t>
+          <t>임차</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -26340,18 +26340,18 @@
         </is>
       </c>
       <c r="D1285" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>賃借</t>
+          <t>賃貸</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>임차</t>
+          <t>임대</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
@@ -26366,12 +26366,12 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>賃貸</t>
+          <t>論證</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>임대</t>
+          <t>논증</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
@@ -26380,18 +26380,18 @@
         </is>
       </c>
       <c r="D1287" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>論證</t>
+          <t>貸出</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>논증</t>
+          <t>대출</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -26406,12 +26406,12 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>貸出</t>
+          <t>免職</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>대출</t>
+          <t>면직</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
@@ -26420,18 +26420,18 @@
         </is>
       </c>
       <c r="D1289" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>陶冶</t>
+          <t>常識</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>도야</t>
+          <t>상식</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
@@ -26446,12 +26446,12 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>免職</t>
+          <t>誇示</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>면직</t>
+          <t>과시</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -26460,18 +26460,18 @@
         </is>
       </c>
       <c r="D1291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>常識</t>
+          <t>買賣</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>상식</t>
+          <t>매매</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
@@ -26486,12 +26486,12 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>誇示</t>
+          <t>賣却</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>과시</t>
+          <t>매각</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -26500,18 +26500,18 @@
         </is>
       </c>
       <c r="D1293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>買賣</t>
+          <t>博學</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>매매</t>
+          <t>박학</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
@@ -26520,18 +26520,18 @@
         </is>
       </c>
       <c r="D1294" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>賣却</t>
+          <t>輕薄</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>매각</t>
+          <t>경박</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
@@ -26540,18 +26540,18 @@
         </is>
       </c>
       <c r="D1295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>博學</t>
+          <t>謁見</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>박학</t>
+          <t>알현</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
@@ -26560,18 +26560,18 @@
         </is>
       </c>
       <c r="D1296" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>輕薄</t>
+          <t>歷史</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>경박</t>
+          <t>역사</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
@@ -26580,18 +26580,18 @@
         </is>
       </c>
       <c r="D1297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>謁見</t>
+          <t>惡寒</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>알현</t>
+          <t>오한</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -26600,18 +26600,18 @@
         </is>
       </c>
       <c r="D1298" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>歷史</t>
+          <t>民族</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>역사</t>
+          <t>민족</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -26620,18 +26620,18 @@
         </is>
       </c>
       <c r="D1299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>惡寒</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>오한</t>
+          <t>전반</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
@@ -26646,12 +26646,12 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>民族</t>
+          <t>拒否</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>민족</t>
+          <t>거부</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
@@ -26660,18 +26660,18 @@
         </is>
       </c>
       <c r="D1301" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>說明</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>전반</t>
+          <t>설명</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -26686,12 +26686,12 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>拒否</t>
+          <t>收益</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>거부</t>
+          <t>수익</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -26700,18 +26700,18 @@
         </is>
       </c>
       <c r="D1303" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>說明</t>
+          <t>惡化</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>설명</t>
+          <t>악화</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -26720,18 +26720,18 @@
         </is>
       </c>
       <c r="D1304" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>收益</t>
+          <t>嗚咽</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>수익</t>
+          <t>오열</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -26740,18 +26740,18 @@
         </is>
       </c>
       <c r="D1305" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>惡化</t>
+          <t>咽喉</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>악화</t>
+          <t>인후</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
@@ -26766,12 +26766,12 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>嗚咽</t>
+          <t>類推</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>오열</t>
+          <t>유추</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
@@ -26780,18 +26780,18 @@
         </is>
       </c>
       <c r="D1307" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>咽喉</t>
+          <t>類型</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>인후</t>
+          <t>유형</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
@@ -26800,18 +26800,18 @@
         </is>
       </c>
       <c r="D1308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>類推</t>
+          <t>一切</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>유추</t>
+          <t>일절, 일체</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -26820,18 +26820,18 @@
         </is>
       </c>
       <c r="D1309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>類型</t>
+          <t>前進</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>유형</t>
+          <t>전진</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -26840,18 +26840,18 @@
         </is>
       </c>
       <c r="D1310" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>一切</t>
+          <t>處罰</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>일절, 일체</t>
+          <t>처벌</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
@@ -26860,18 +26860,18 @@
         </is>
       </c>
       <c r="D1311" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>前進</t>
+          <t>借用</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>전진</t>
+          <t>차용</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
@@ -26886,12 +26886,12 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>處罰</t>
+          <t>體系</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>처벌</t>
+          <t>체계</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -26906,12 +26906,12 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>借用</t>
+          <t>參與</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>차용</t>
+          <t>참여</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
@@ -26920,23 +26920,23 @@
         </is>
       </c>
       <c r="D1314" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>體系</t>
+          <t>炎涼世態</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>체계</t>
+          <t>염량세태</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
         <is>
-          <t>2글자</t>
+          <t>4글자</t>
         </is>
       </c>
       <c r="D1315" t="n">
@@ -26946,32 +26946,32 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>參與</t>
+          <t>螢雪之功</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>참여</t>
+          <t>형설지공</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>2글자</t>
+          <t>4글자</t>
         </is>
       </c>
       <c r="D1316" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>炎涼世態</t>
+          <t>山戰水戰</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>염량세태</t>
+          <t>산전수전</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
@@ -26980,18 +26980,18 @@
         </is>
       </c>
       <c r="D1317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>螢雪之功</t>
+          <t>我田引水</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>형설지공</t>
+          <t>아전인수</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr">
@@ -27000,18 +27000,18 @@
         </is>
       </c>
       <c r="D1318" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>山戰水戰</t>
+          <t>氷⼭⼀⾓</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>산전수전</t>
+          <t>빙산일각</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
@@ -27020,18 +27020,18 @@
         </is>
       </c>
       <c r="D1319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>我田引水</t>
+          <t>緣木求魚</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>아전인수</t>
+          <t>연목구어</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
@@ -27046,12 +27046,12 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>氷⼭⼀⾓</t>
+          <t>姑息之計</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>빙산일각</t>
+          <t>고식지계</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr">
@@ -27060,18 +27060,18 @@
         </is>
       </c>
       <c r="D1321" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>緣木求魚</t>
+          <t>連戰連勝</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>연목구어</t>
+          <t>연전연승</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr">
@@ -27080,18 +27080,18 @@
         </is>
       </c>
       <c r="D1322" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>姑息之計</t>
+          <t>口蜜腹劍</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>고식지계</t>
+          <t>구밀복검</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
@@ -27106,12 +27106,12 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>連戰連勝</t>
+          <t>⼤器晩成</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>연전연승</t>
+          <t>대기만성</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
@@ -27120,18 +27120,18 @@
         </is>
       </c>
       <c r="D1324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>口蜜腹劍</t>
+          <t>百年河淸</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>구밀복검</t>
+          <t>백년하청</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
@@ -27140,18 +27140,18 @@
         </is>
       </c>
       <c r="D1325" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>⼤器晩成</t>
+          <t>捲土重來</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>대기만성</t>
+          <t>권토중래</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
@@ -27166,12 +27166,12 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>百年河淸</t>
+          <t>土牛木馬</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>백년하청</t>
+          <t>토우목마</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
@@ -27180,18 +27180,18 @@
         </is>
       </c>
       <c r="D1327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>捲土重來</t>
+          <t>曰可曰否</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>권토중래</t>
+          <t>왈가왈부</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
@@ -27200,18 +27200,18 @@
         </is>
       </c>
       <c r="D1328" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>土牛木馬</t>
+          <t>東西古今</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>토우목마</t>
+          <t>동서고금</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr">
@@ -27220,18 +27220,18 @@
         </is>
       </c>
       <c r="D1329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>曰可曰否</t>
+          <t>快刀亂麻</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>왈가왈부</t>
+          <t>쾌도난마</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
@@ -27246,12 +27246,12 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>東西古今</t>
+          <t>感之德之</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>동서고금</t>
+          <t>감지덕지</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -27260,18 +27260,18 @@
         </is>
       </c>
       <c r="D1331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>快刀亂麻</t>
+          <t>安貧樂道</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>쾌도난마</t>
+          <t>안빈낙도</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
@@ -27280,18 +27280,18 @@
         </is>
       </c>
       <c r="D1332" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>感之德之</t>
+          <t>見物生心</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>감지덕지</t>
+          <t>견물생심</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
@@ -27306,12 +27306,12 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>安貧樂道</t>
+          <t>相扶相助</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>안빈낙도</t>
+          <t>상부상조</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
@@ -27326,12 +27326,12 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>見物生心</t>
+          <t>虛張聲勢</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>견물생심</t>
+          <t>허장성세</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr">
@@ -27340,18 +27340,18 @@
         </is>
       </c>
       <c r="D1335" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>相扶相助</t>
+          <t>騎虎之勢</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>상부상조</t>
+          <t>기호지세</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
@@ -27366,12 +27366,12 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>虛張聲勢</t>
+          <t>敎學相長</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>허장성세</t>
+          <t>교학상장</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
@@ -27380,18 +27380,18 @@
         </is>
       </c>
       <c r="D1337" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>騎虎之勢</t>
+          <t>一心同體</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>기호지세</t>
+          <t>일심동체</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
@@ -27400,18 +27400,18 @@
         </is>
       </c>
       <c r="D1338" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>敎學相長</t>
+          <t>物我一體</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>교학상장</t>
+          <t>물아일체</t>
         </is>
       </c>
       <c r="C1339" t="inlineStr">
@@ -27420,18 +27420,18 @@
         </is>
       </c>
       <c r="D1339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>一心同體</t>
+          <t>草露人生</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>일심동체</t>
+          <t>초로인생</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
@@ -27440,18 +27440,18 @@
         </is>
       </c>
       <c r="D1340" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>物我一體</t>
+          <t>立春大吉</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>물아일체</t>
+          <t>입춘대길</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
@@ -27460,18 +27460,18 @@
         </is>
       </c>
       <c r="D1341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>草露人生</t>
+          <t>吉凶禍福</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>초로인생</t>
+          <t>길흉화복</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
@@ -27486,12 +27486,12 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>立春大吉</t>
+          <t>語不成說</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>입춘대길</t>
+          <t>어불성설</t>
         </is>
       </c>
       <c r="C1343" t="inlineStr">
@@ -27500,18 +27500,18 @@
         </is>
       </c>
       <c r="D1343" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>吉凶禍福</t>
+          <t>國會議長</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>길흉화복</t>
+          <t>국회의장</t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
@@ -27520,18 +27520,18 @@
         </is>
       </c>
       <c r="D1344" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>語不成說</t>
+          <t>望雲之情</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>어불성설</t>
+          <t>망운지정</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
@@ -27540,18 +27540,18 @@
         </is>
       </c>
       <c r="D1345" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>國會議長</t>
+          <t>士農工商</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>국회의장</t>
+          <t>사농공상</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
@@ -27560,18 +27560,18 @@
         </is>
       </c>
       <c r="D1346" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>望雲之情</t>
+          <t>初志一貫</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>망운지정</t>
+          <t>초지일관</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
@@ -27580,18 +27580,18 @@
         </is>
       </c>
       <c r="D1347" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>士農工商</t>
+          <t>博學多識</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>사농공상</t>
+          <t>박학다식</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
@@ -27600,18 +27600,18 @@
         </is>
       </c>
       <c r="D1348" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>初志一貫</t>
+          <t>靑雲之志</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>초지일관</t>
+          <t>청운지지</t>
         </is>
       </c>
       <c r="C1349" t="inlineStr">
@@ -27620,18 +27620,18 @@
         </is>
       </c>
       <c r="D1349" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>博學多識</t>
+          <t>年中無休</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>박학다식</t>
+          <t>연중무휴</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
@@ -27640,18 +27640,18 @@
         </is>
       </c>
       <c r="D1350" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>靑雲之志</t>
+          <t>畵中之餠</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>청운지지</t>
+          <t>화중지병</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr">
@@ -27660,18 +27660,18 @@
         </is>
       </c>
       <c r="D1351" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>年中無休</t>
+          <t>十中八九</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>연중무휴</t>
+          <t>십중팔구</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
@@ -27686,12 +27686,12 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>畵中之餠</t>
+          <t>百發百中</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>화중지병</t>
+          <t>백발백중</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr">
@@ -27700,18 +27700,18 @@
         </is>
       </c>
       <c r="D1353" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>十中八九</t>
+          <t>言中有骨</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>십중팔구</t>
+          <t>언중유골</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
@@ -27726,12 +27726,12 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>百發百中</t>
+          <t>五里霧中</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>백발백중</t>
+          <t>오리무중</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
@@ -27746,12 +27746,12 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>言中有骨</t>
+          <t>衆口難防</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>언중유골</t>
+          <t>중구난방</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
@@ -27760,18 +27760,18 @@
         </is>
       </c>
       <c r="D1356" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>五里霧中</t>
+          <t>刻舟求劍</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>오리무중</t>
+          <t>각주구검</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr">
@@ -27780,18 +27780,18 @@
         </is>
       </c>
       <c r="D1357" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>衆口難防</t>
+          <t>見蚊拔劍</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>중구난방</t>
+          <t>견문발검</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
@@ -27806,12 +27806,12 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>刻舟求劍</t>
+          <t>守株待兎</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>각주구검</t>
+          <t>수주대토</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
@@ -27820,18 +27820,18 @@
         </is>
       </c>
       <c r="D1359" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>見蚊拔劍</t>
+          <t>犬兎之爭</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>견문발검</t>
+          <t>견토지쟁</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
@@ -27840,18 +27840,18 @@
         </is>
       </c>
       <c r="D1360" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>守株待兎</t>
+          <t>狡兎三窟</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>수주대토</t>
+          <t>교토삼굴</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
@@ -27860,18 +27860,18 @@
         </is>
       </c>
       <c r="D1361" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>犬兎之爭</t>
+          <t>晩時之歎</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>견토지쟁</t>
+          <t>만시지탄</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
@@ -27880,18 +27880,18 @@
         </is>
       </c>
       <c r="D1362" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>狡兎三窟</t>
+          <t>居安思危</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>교토삼굴</t>
+          <t>거안사위</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr">
@@ -27900,18 +27900,18 @@
         </is>
       </c>
       <c r="D1363" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>晩時之歎</t>
+          <t>累卵之危</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>만시지탄</t>
+          <t>누란지위</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
@@ -27926,12 +27926,12 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>居安思危</t>
+          <t>怒發大發</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>거안사위</t>
+          <t>노발대발</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
@@ -27940,18 +27940,18 @@
         </is>
       </c>
       <c r="D1365" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>累卵之危</t>
+          <t>天人共怒</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>누란지위</t>
+          <t>천인공노</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
@@ -27960,18 +27960,18 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>怒發大發</t>
+          <t>一怒一老</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>노발대발</t>
+          <t>일로일로</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
@@ -27980,18 +27980,18 @@
         </is>
       </c>
       <c r="D1367" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>天人共怒</t>
+          <t>喜怒哀樂</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>천인공노</t>
+          <t>희로애락</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
@@ -28000,18 +28000,18 @@
         </is>
       </c>
       <c r="D1368" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>一怒一老</t>
+          <t>怒氣衝天</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>일로일로</t>
+          <t>노기충천</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
@@ -28026,12 +28026,12 @@
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>喜怒哀樂</t>
+          <t>擧案齊眉</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>희로애락</t>
+          <t>거안제미</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
@@ -28040,18 +28040,18 @@
         </is>
       </c>
       <c r="D1370" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>怒氣衝天</t>
+          <t>深思熟考</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>노기충천</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
@@ -28060,18 +28060,18 @@
         </is>
       </c>
       <c r="D1371" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>擧案齊眉</t>
+          <t>結草報恩</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>거안제미</t>
+          <t>결초보은</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
@@ -28080,18 +28080,18 @@
         </is>
       </c>
       <c r="D1372" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>深思熟考</t>
+          <t>結者解之</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>결자해지</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
@@ -28106,12 +28106,12 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>結草報恩</t>
+          <t>一觸卽發</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>결초보은</t>
+          <t>일촉즉발</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
@@ -28120,18 +28120,18 @@
         </is>
       </c>
       <c r="D1374" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>結者解之</t>
+          <t>最後一刻</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>결자해지</t>
+          <t>최후일각</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
@@ -28146,12 +28146,12 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>一觸卽發</t>
+          <t>非一非再</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>일촉즉발</t>
+          <t>비일비재</t>
         </is>
       </c>
       <c r="C1376" t="inlineStr">
@@ -28166,12 +28166,12 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>最後一刻</t>
+          <t>興盡悲來</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>최후일각</t>
+          <t>흥진비래</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr">
@@ -28180,18 +28180,18 @@
         </is>
       </c>
       <c r="D1377" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>非一非再</t>
+          <t>苦盡甘來</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>비일비재</t>
+          <t>고진감래</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
@@ -28200,18 +28200,18 @@
         </is>
       </c>
       <c r="D1378" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>興盡悲來</t>
+          <t>走馬看山</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>흥진비래</t>
+          <t>주마간산</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
@@ -28226,12 +28226,12 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>苦盡甘來</t>
+          <t>馬耳東風</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>고진감래</t>
+          <t>마이동풍</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
@@ -28240,18 +28240,18 @@
         </is>
       </c>
       <c r="D1380" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>走馬看山</t>
+          <t>天高馬肥</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>주마간산</t>
+          <t>천고마비</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
@@ -28260,18 +28260,18 @@
         </is>
       </c>
       <c r="D1381" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>馬耳東風</t>
+          <t>以毒制毒</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>마이동풍</t>
+          <t>이독제독</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
@@ -28280,18 +28280,18 @@
         </is>
       </c>
       <c r="D1382" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>天高馬肥</t>
+          <t>電光石火</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>천고마비</t>
+          <t>전광석화</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -28300,18 +28300,18 @@
         </is>
       </c>
       <c r="D1383" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>以毒制毒</t>
+          <t>雪上加霜</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>이독제독</t>
+          <t>설상가상</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
@@ -28320,18 +28320,18 @@
         </is>
       </c>
       <c r="D1384" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>電光石火</t>
+          <t>樂山樂水</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>전광석화</t>
+          <t>요산요수</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
@@ -28346,12 +28346,12 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>雪上加霜</t>
+          <t>簞食瓢飮</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>설상가상</t>
+          <t>단사표음</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
@@ -28360,58 +28360,58 @@
         </is>
       </c>
       <c r="D1386" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>樂山樂水</t>
+          <t>銀河水</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>요산요수</t>
+          <t>은하수</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>4글자</t>
+          <t>3글자</t>
         </is>
       </c>
       <c r="D1387" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>簞食瓢飮</t>
+          <t>口舌數</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>단사표음</t>
+          <t>구설수</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>4글자</t>
+          <t>3글자</t>
         </is>
       </c>
       <c r="D1388" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>銀河水</t>
+          <t>長廣舌</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>은하수</t>
+          <t>장광설</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
@@ -28426,12 +28426,12 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>口舌數</t>
+          <t>衣食住</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>구설수</t>
+          <t>의식주</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
@@ -28440,18 +28440,18 @@
         </is>
       </c>
       <c r="D1390" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>長廣舌</t>
+          <t>望夫石</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>장광설</t>
+          <t>망부석</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
@@ -28466,12 +28466,12 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>衣食住</t>
+          <t>辯護士</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>의식주</t>
+          <t>변호사</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
@@ -28480,18 +28480,18 @@
         </is>
       </c>
       <c r="D1392" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>望夫石</t>
+          <t>夢中夢</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>망부석</t>
+          <t>몽중몽</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
@@ -28500,18 +28500,18 @@
         </is>
       </c>
       <c r="D1393" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>辯護士</t>
+          <t>重且大</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>변호사</t>
+          <t>중차대</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
@@ -28520,18 +28520,18 @@
         </is>
       </c>
       <c r="D1394" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>夢中夢</t>
+          <t>早晩間</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>몽중몽</t>
+          <t>조만간</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
@@ -28546,12 +28546,12 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>重且大</t>
+          <t>不可避</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>중차대</t>
+          <t>불가피</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
@@ -28560,18 +28560,18 @@
         </is>
       </c>
       <c r="D1396" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>早晩間</t>
+          <t>不可缺</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>조만간</t>
+          <t>불가결</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
@@ -28580,18 +28580,18 @@
         </is>
       </c>
       <c r="D1397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>不可避</t>
+          <t>靑瓦臺</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>불가피</t>
+          <t>청와대</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
@@ -28600,18 +28600,18 @@
         </is>
       </c>
       <c r="D1398" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>不可缺</t>
+          <t>靑少年</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>불가결</t>
+          <t>청소년</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
@@ -28620,18 +28620,18 @@
         </is>
       </c>
       <c r="D1399" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>靑瓦臺</t>
+          <t>句讀點</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>청와대</t>
+          <t>구두점</t>
         </is>
       </c>
       <c r="C1400" t="inlineStr">
@@ -28640,18 +28640,18 @@
         </is>
       </c>
       <c r="D1400" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>靑少年</t>
+          <t>白眼視</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>청소년</t>
+          <t xml:space="preserve">백안시 </t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -28666,12 +28666,12 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>句讀點</t>
+          <t>度外視</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>구두점</t>
+          <t>도외시</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
@@ -28680,47 +28680,47 @@
         </is>
       </c>
       <c r="D1402" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>白眼視</t>
+          <t>上漏下濕</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t xml:space="preserve">백안시 </t>
+          <t>상루하습 | 매우 가난한 집</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>3글자</t>
+          <t>4글자</t>
         </is>
       </c>
       <c r="D1403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>度外視</t>
+          <t>家徒壁立</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>도외시</t>
+          <t>가도벽립 | 매우 가난한 처지</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>3글자</t>
+          <t>4글자</t>
         </is>
       </c>
       <c r="D1404" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1404"/>
+  <dimension ref="A1:D1403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="9">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="21">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="26">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="32">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="33">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="34">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="44">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="46">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="98">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="99">
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="120">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="133">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="142">
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="157">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="160">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="163">
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="167">
@@ -4080,7 +4080,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="173">
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="189">
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="191">
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="206">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="212">
@@ -5200,7 +5200,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="229">
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="237">
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="245">
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="266">
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="274">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="288">
@@ -6560,7 +6560,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="297">
@@ -6740,7 +6740,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="306">
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="312">
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="315">
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="317">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="319">
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="323">
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="330">
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="345">
@@ -7560,7 +7560,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="347">
@@ -7640,7 +7640,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="351">
@@ -7800,7 +7800,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="359">
@@ -7960,7 +7960,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="367">
@@ -8040,7 +8040,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="371">
@@ -8420,7 +8420,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="390">
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
@@ -8460,7 +8460,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="392">
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="397">
@@ -8780,7 +8780,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="408">
@@ -8840,7 +8840,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="411">
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="413">
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="414">
@@ -9080,7 +9080,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="423">
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="425">
@@ -9220,7 +9220,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="430">
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="436">
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
@@ -9560,7 +9560,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="447">
@@ -9740,7 +9740,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="456">
@@ -9780,7 +9780,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="458">
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="468">
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="469">
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="472">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="478">
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="487">
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="494">
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="497">
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="506">
@@ -10820,7 +10820,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="510">
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="514">
@@ -11120,7 +11120,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="525">
@@ -11420,7 +11420,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="540">
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="546">
@@ -11600,7 +11600,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="549">
@@ -11620,7 +11620,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="550">
@@ -11640,7 +11640,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="551">
@@ -11820,7 +11820,7 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="560">
@@ -11940,7 +11940,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="566">
@@ -12020,7 +12020,7 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="570">
@@ -12100,7 +12100,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="574">
@@ -12240,7 +12240,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="581">
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="582">
@@ -12300,7 +12300,7 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="584">
@@ -12360,7 +12360,7 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="587">
@@ -12440,7 +12440,7 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="591">
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="604">
@@ -12820,7 +12820,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="610">
@@ -12940,7 +12940,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="616">
@@ -13000,7 +13000,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="619">
@@ -13080,7 +13080,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="623">
@@ -13120,7 +13120,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="625">
@@ -13180,7 +13180,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="628">
@@ -13420,7 +13420,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="640">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="647">
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="D648" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="649">
@@ -13660,7 +13660,7 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="652">
@@ -14100,7 +14100,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="674">
@@ -14240,7 +14240,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="681">
@@ -14340,7 +14340,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="686">
@@ -14460,7 +14460,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="692">
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="703">
@@ -14760,7 +14760,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="707">
@@ -14840,7 +14840,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="711">
@@ -14860,7 +14860,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="712">
@@ -15000,7 +15000,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="719">
@@ -15080,7 +15080,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="723">
@@ -15160,7 +15160,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="727">
@@ -15200,7 +15200,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="729">
@@ -15240,7 +15240,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="731">
@@ -15260,7 +15260,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="732">
@@ -15280,7 +15280,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="733">
@@ -15360,7 +15360,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="737">
@@ -15380,7 +15380,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="738">
@@ -15580,7 +15580,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="748">
@@ -15660,7 +15660,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="752">
@@ -15720,7 +15720,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="755">
@@ -15780,7 +15780,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="758">
@@ -15840,7 +15840,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="761">
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="767">
@@ -15980,7 +15980,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="768">
@@ -16020,7 +16020,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="770">
@@ -16080,7 +16080,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773">
@@ -16260,7 +16260,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="782">
@@ -16580,7 +16580,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="798">
@@ -16620,7 +16620,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="800">
@@ -16640,7 +16640,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801">
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="805">
@@ -17000,7 +17000,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="819">
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="820">
@@ -17040,7 +17040,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="821">
@@ -17080,7 +17080,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="823">
@@ -17100,7 +17100,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824">
@@ -17120,7 +17120,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="825">
@@ -17180,7 +17180,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="828">
@@ -17280,7 +17280,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="833">
@@ -17460,7 +17460,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="847">
@@ -17580,7 +17580,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="848">
@@ -17640,7 +17640,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="851">
@@ -17900,7 +17900,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="864">
@@ -18160,7 +18160,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="877">
@@ -18260,7 +18260,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="882">
@@ -18320,7 +18320,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="885">
@@ -18520,7 +18520,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="895">
@@ -18580,7 +18580,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="898">
@@ -18620,7 +18620,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="900">
@@ -18800,7 +18800,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="909">
@@ -18920,7 +18920,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="915">
@@ -18940,7 +18940,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="916">
@@ -19140,7 +19140,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="926">
@@ -19160,7 +19160,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="927">
@@ -19220,7 +19220,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="930">
@@ -19460,7 +19460,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="942">
@@ -19500,7 +19500,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="944">
@@ -19620,7 +19620,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="950">
@@ -19680,7 +19680,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="953">
@@ -19800,7 +19800,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="959">
@@ -19840,7 +19840,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="961">
@@ -20100,7 +20100,7 @@
         </is>
       </c>
       <c r="D973" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="974">
@@ -20180,7 +20180,7 @@
         </is>
       </c>
       <c r="D977" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="978">
@@ -20200,7 +20200,7 @@
         </is>
       </c>
       <c r="D978" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="979">
@@ -20300,7 +20300,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="984">
@@ -20600,7 +20600,7 @@
         </is>
       </c>
       <c r="D998" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="999">
@@ -20720,7 +20720,7 @@
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1005">
@@ -20780,7 +20780,7 @@
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1008">
@@ -20940,7 +20940,7 @@
         </is>
       </c>
       <c r="D1015" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1016">
@@ -21080,7 +21080,7 @@
         </is>
       </c>
       <c r="D1022" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1023">
@@ -21120,7 +21120,7 @@
         </is>
       </c>
       <c r="D1024" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1025">
@@ -21200,7 +21200,7 @@
         </is>
       </c>
       <c r="D1028" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1029">
@@ -21220,7 +21220,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1030">
@@ -21306,12 +21306,12 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>止揚</t>
+          <t>志士</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>지양</t>
+          <t>지사</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -21320,18 +21320,18 @@
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>志士</t>
+          <t>志學</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>지사</t>
+          <t>지학</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -21346,12 +21346,12 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>志學</t>
+          <t>意識</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>지학</t>
+          <t>의식</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -21366,12 +21366,12 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>意識</t>
+          <t>意向</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>의식</t>
+          <t>의향</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -21380,18 +21380,18 @@
         </is>
       </c>
       <c r="D1037" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>意向</t>
+          <t>中央</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>의향</t>
+          <t>중앙</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -21400,18 +21400,18 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>中央</t>
+          <t>中間</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>중앙</t>
+          <t>중간</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -21426,12 +21426,12 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>中間</t>
+          <t>中斷</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>중간</t>
+          <t>중단</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -21440,18 +21440,18 @@
         </is>
       </c>
       <c r="D1040" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>中斷</t>
+          <t>渦中</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>중단</t>
+          <t>와중</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -21460,18 +21460,18 @@
         </is>
       </c>
       <c r="D1041" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>渦中</t>
+          <t>中立</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>와중</t>
+          <t>중립</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -21480,18 +21480,18 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>中立</t>
+          <t>眼中</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>중립</t>
+          <t>안중</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -21506,12 +21506,12 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>眼中</t>
+          <t>中食</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>안중</t>
+          <t>중식</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -21526,12 +21526,12 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>中食</t>
+          <t>仲介</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>중식</t>
+          <t>중개</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -21546,12 +21546,12 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>仲介</t>
+          <t>仲裁</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>중개</t>
+          <t>중재</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -21566,12 +21566,12 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>仲裁</t>
+          <t>重要</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>중재</t>
+          <t>중요</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -21580,18 +21580,18 @@
         </is>
       </c>
       <c r="D1047" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>重要</t>
+          <t>所重</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>중요</t>
+          <t>소중</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -21600,18 +21600,18 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>所重</t>
+          <t>重力</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>소중</t>
+          <t>중력</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -21620,18 +21620,18 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>重力</t>
+          <t>比重</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>중력</t>
+          <t>비중</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -21646,12 +21646,12 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>比重</t>
+          <t>輕重</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>비중</t>
+          <t>경중</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -21666,12 +21666,12 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>輕重</t>
+          <t>莫重</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>경중</t>
+          <t>막중</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -21686,12 +21686,12 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>莫重</t>
+          <t>大衆</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>막중</t>
+          <t>대중</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -21700,18 +21700,18 @@
         </is>
       </c>
       <c r="D1053" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>大衆</t>
+          <t>群衆</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>대중</t>
+          <t>군중</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -21726,12 +21726,12 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>群衆</t>
+          <t>衆智</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>군중</t>
+          <t>중지</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -21746,12 +21746,12 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>衆智</t>
+          <t>聽衆</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>중지</t>
+          <t>청중</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
@@ -21766,12 +21766,12 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>聽衆</t>
+          <t>言衆</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>청중</t>
+          <t>언중</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -21786,12 +21786,12 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>言衆</t>
+          <t>民衆</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>언중</t>
+          <t>민중</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -21806,12 +21806,12 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>民衆</t>
+          <t>出衆</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>민중</t>
+          <t>출중</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -21820,18 +21820,18 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>出衆</t>
+          <t>重大</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>출중</t>
+          <t>중대</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -21840,18 +21840,18 @@
         </is>
       </c>
       <c r="D1060" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>重大</t>
+          <t>晩學</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>중대</t>
+          <t>만학</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -21866,12 +21866,12 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>晩學</t>
+          <t>檢査</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>만학</t>
+          <t>검사</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -21880,18 +21880,18 @@
         </is>
       </c>
       <c r="D1062" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>檢査</t>
+          <t>檢索</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>검사</t>
+          <t>검색</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -21900,18 +21900,18 @@
         </is>
       </c>
       <c r="D1063" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>檢索</t>
+          <t>檢討</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>검색</t>
+          <t>검토</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -21926,12 +21926,12 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>檢討</t>
+          <t>檢證</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>검토</t>
+          <t>검증</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -21940,18 +21940,18 @@
         </is>
       </c>
       <c r="D1065" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>檢證</t>
+          <t>檢疫</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>검증</t>
+          <t>검역</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -21960,18 +21960,18 @@
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>檢疫</t>
+          <t>檢診</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>검역</t>
+          <t>검진</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -21986,12 +21986,12 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>檢診</t>
+          <t>討論</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>검진</t>
+          <t>토론</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -22006,12 +22006,12 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>討論</t>
+          <t>保險</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>토론</t>
+          <t>보험</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -22020,18 +22020,18 @@
         </is>
       </c>
       <c r="D1069" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>保險</t>
+          <t>探險</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>보험</t>
+          <t>탐험</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -22046,12 +22046,12 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>探險</t>
+          <t>險惡</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>탐험</t>
+          <t>험악</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -22066,12 +22066,12 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>險惡</t>
+          <t>險談</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>험악</t>
+          <t>험담</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -22086,12 +22086,12 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>險談</t>
+          <t>儉素</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>험담</t>
+          <t>검소</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -22100,18 +22100,18 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>儉素</t>
+          <t>勤儉</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>검소</t>
+          <t>근검</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -22120,18 +22120,18 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>勤儉</t>
+          <t>王儉</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>근검</t>
+          <t>왕검</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -22140,18 +22140,18 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>王儉</t>
+          <t>危機</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>왕검</t>
+          <t>위기</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
@@ -22166,12 +22166,12 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>危機</t>
+          <t>危害</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>위기</t>
+          <t>위해</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -22180,18 +22180,18 @@
         </is>
       </c>
       <c r="D1077" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>危害</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>위해</t>
+          <t>보안</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -22200,18 +22200,18 @@
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>探索</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>보안</t>
+          <t>탐색</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -22220,18 +22220,18 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>探索</t>
+          <t>探訪</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>탐색</t>
+          <t>탐방</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -22246,12 +22246,12 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>探訪</t>
+          <t>善惡</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>탐방</t>
+          <t>선악</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -22266,12 +22266,12 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>善惡</t>
+          <t>憎惡</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>선악</t>
+          <t>증오</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -22286,12 +22286,12 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>憎惡</t>
+          <t>要素</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>증오</t>
+          <t>요소</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -22300,18 +22300,18 @@
         </is>
       </c>
       <c r="D1083" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>要素</t>
+          <t>平素</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>요소</t>
+          <t>평소</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -22320,18 +22320,18 @@
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>平素</t>
+          <t>思索</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>평소</t>
+          <t>사색</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -22340,18 +22340,18 @@
         </is>
       </c>
       <c r="D1085" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>思索</t>
+          <t>索引</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>사색</t>
+          <t>색인</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -22360,18 +22360,18 @@
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>索引</t>
+          <t>索莫</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>색인</t>
+          <t>삭막</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -22380,18 +22380,18 @@
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>索莫</t>
+          <t>疫病</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>삭막</t>
+          <t>역병</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -22400,18 +22400,18 @@
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>疫病</t>
+          <t>防疫</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>역병</t>
+          <t>방역</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -22420,18 +22420,18 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>防疫</t>
+          <t>診斷</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>방역</t>
+          <t>진단</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -22446,12 +22446,12 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>診斷</t>
+          <t>確診</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>진단</t>
+          <t>확진</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -22466,12 +22466,12 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>確診</t>
+          <t>探査</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>확진</t>
+          <t>탐사</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -22486,12 +22486,12 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>探査</t>
+          <t>忿怒</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>탐사</t>
+          <t>분노</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -22500,18 +22500,18 @@
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>忿怒</t>
+          <t>容恕</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>분노</t>
+          <t>용서</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -22520,18 +22520,18 @@
         </is>
       </c>
       <c r="D1094" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>容恕</t>
+          <t>容易</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>용서</t>
+          <t>용역</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -22540,18 +22540,18 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>容易</t>
+          <t>受容</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>용역</t>
+          <t>수용</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -22566,12 +22566,12 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>受容</t>
+          <t>恕罪</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>수용</t>
+          <t>서죄</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -22586,12 +22586,12 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>恕罪</t>
+          <t>謝罪</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>서죄</t>
+          <t>사죄</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -22600,18 +22600,18 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>謝罪</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>사죄</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -22626,12 +22626,12 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>安定</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>안정</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -22640,18 +22640,18 @@
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>安定</t>
+          <t>便安</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>안정</t>
+          <t>편안</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -22660,18 +22660,18 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>便安</t>
+          <t>安息</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>편안</t>
+          <t>안식</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -22686,12 +22686,12 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>安息</t>
+          <t>安逸</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>안식</t>
+          <t>안일</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -22700,18 +22700,18 @@
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>安逸</t>
+          <t>不安</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>안일</t>
+          <t>불안</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -22726,12 +22726,12 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>不安</t>
+          <t>平安</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>불안</t>
+          <t>평안</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -22746,12 +22746,12 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>平安</t>
+          <t>草案</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>평안</t>
+          <t>초안</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -22766,12 +22766,12 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>草案</t>
+          <t>考案</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>초안</t>
+          <t>고안</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -22780,18 +22780,18 @@
         </is>
       </c>
       <c r="D1107" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>考案</t>
+          <t>腹案</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>고안</t>
+          <t>복안</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -22800,18 +22800,18 @@
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>腹案</t>
+          <t>案件</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>복안</t>
+          <t>안건</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -22820,18 +22820,18 @@
         </is>
       </c>
       <c r="D1109" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>案件</t>
+          <t>方案</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>안건</t>
+          <t>방안</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -22840,18 +22840,18 @@
         </is>
       </c>
       <c r="D1110" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>方案</t>
+          <t>吉兆</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>방안</t>
+          <t>길조</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -22860,18 +22860,18 @@
         </is>
       </c>
       <c r="D1111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>吉兆</t>
+          <t>凶兆</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>길조</t>
+          <t>흉조</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -22886,12 +22886,12 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>凶兆</t>
+          <t>亡兆</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>흉조</t>
+          <t>망조</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -22906,12 +22906,12 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>亡兆</t>
+          <t>挑發</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>망조</t>
+          <t>도발</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -22920,18 +22920,18 @@
         </is>
       </c>
       <c r="D1114" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>挑發</t>
+          <t>挑戰</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>도발</t>
+          <t>도전</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -22946,12 +22946,12 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>挑戰</t>
+          <t>逃走</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>도전</t>
+          <t>도주</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -22966,12 +22966,12 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>逃走</t>
+          <t>逃避</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>도주</t>
+          <t>도피</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -22980,18 +22980,18 @@
         </is>
       </c>
       <c r="D1117" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>逃避</t>
+          <t>指導</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>도피</t>
+          <t>지도</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -23000,18 +23000,18 @@
         </is>
       </c>
       <c r="D1118" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>指導</t>
+          <t>指示</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>지도</t>
+          <t>지시</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -23020,18 +23020,18 @@
         </is>
       </c>
       <c r="D1119" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>指示</t>
+          <t>指揮</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>지시</t>
+          <t>지휘</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -23040,18 +23040,18 @@
         </is>
       </c>
       <c r="D1120" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>指揮</t>
+          <t>指數</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>지휘</t>
+          <t>지수</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -23060,18 +23060,18 @@
         </is>
       </c>
       <c r="D1121" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>指數</t>
+          <t>支持</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>지수</t>
+          <t>지지</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -23086,12 +23086,12 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>支配</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>지지</t>
+          <t>지배</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -23106,12 +23106,12 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>支配</t>
+          <t>依支</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>지배</t>
+          <t>의지</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -23120,18 +23120,18 @@
         </is>
       </c>
       <c r="D1124" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>依支</t>
+          <t>支給</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>의지</t>
+          <t>지급</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -23146,12 +23146,12 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>支給</t>
+          <t>支拂</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>지급</t>
+          <t>지불</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -23166,12 +23166,12 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>支拂</t>
+          <t>知識</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>지불</t>
+          <t>지식</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -23186,12 +23186,12 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>知識</t>
+          <t>認知</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>지식</t>
+          <t>인지</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -23200,18 +23200,18 @@
         </is>
       </c>
       <c r="D1128" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>認知</t>
+          <t>智慧</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>인지</t>
+          <t>지혜</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -23220,18 +23220,18 @@
         </is>
       </c>
       <c r="D1129" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>智慧</t>
+          <t>主導</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>지혜</t>
+          <t>주도</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -23246,12 +23246,12 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>主導</t>
+          <t>發揮</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>주도</t>
+          <t>발휘</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -23260,18 +23260,18 @@
         </is>
       </c>
       <c r="D1131" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>發揮</t>
+          <t>分數</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>발휘</t>
+          <t>분수</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -23280,18 +23280,18 @@
         </is>
       </c>
       <c r="D1132" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>分數</t>
+          <t>持病</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>분수</t>
+          <t>지병</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -23300,18 +23300,18 @@
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>持病</t>
+          <t>持參</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>지병</t>
+          <t>지참</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -23326,12 +23326,12 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>持參</t>
+          <t>分配</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>지참</t>
+          <t>분배</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -23340,18 +23340,18 @@
         </is>
       </c>
       <c r="D1135" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>分配</t>
+          <t>配匹</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>분배</t>
+          <t>배필</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -23366,12 +23366,12 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>配匹</t>
+          <t>依存</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>배필</t>
+          <t>의존</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -23380,18 +23380,18 @@
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>依存</t>
+          <t>滯拂</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>의존</t>
+          <t>체불</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -23400,18 +23400,18 @@
         </is>
       </c>
       <c r="D1138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>滯拂</t>
+          <t>假拂</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>체불</t>
+          <t>가불</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -23426,12 +23426,12 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>假拂</t>
+          <t>沈沒</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>가불</t>
+          <t>침몰</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -23440,18 +23440,18 @@
         </is>
       </c>
       <c r="D1140" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>沈沒</t>
+          <t>沈默</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>침몰</t>
+          <t>침묵</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -23460,18 +23460,18 @@
         </is>
       </c>
       <c r="D1141" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>沈默</t>
+          <t>沈滯</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>침묵</t>
+          <t>침체</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
@@ -23480,18 +23480,18 @@
         </is>
       </c>
       <c r="D1142" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>沈滯</t>
+          <t>陰沈</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>침체</t>
+          <t>음침</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -23500,18 +23500,18 @@
         </is>
       </c>
       <c r="D1143" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>陰沈</t>
+          <t>深刻</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>음침</t>
+          <t>심각</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -23520,18 +23520,18 @@
         </is>
       </c>
       <c r="D1144" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>深刻</t>
+          <t>深夜</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>심각</t>
+          <t>심야</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -23540,18 +23540,18 @@
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>深夜</t>
+          <t>深化</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>심야</t>
+          <t>심화</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -23560,18 +23560,18 @@
         </is>
       </c>
       <c r="D1146" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>深化</t>
+          <t>探求</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>심화</t>
+          <t>탐구</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -23580,18 +23580,18 @@
         </is>
       </c>
       <c r="D1147" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>探求</t>
+          <t>廉探</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>탐구</t>
+          <t>염탐</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -23606,12 +23606,12 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>廉探</t>
+          <t>陷沒</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>염탐</t>
+          <t>함몰</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -23626,12 +23626,12 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>陷沒</t>
+          <t>⽇沒</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>함몰</t>
+          <t>일몰</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -23646,12 +23646,12 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>⽇沒</t>
+          <t>汨沒</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>일몰</t>
+          <t>골몰</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -23666,12 +23666,12 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>汨沒</t>
+          <t>滯症</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>골몰</t>
+          <t>체증</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -23686,12 +23686,12 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>滯症</t>
+          <t>寡默</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>체증</t>
+          <t>과묵</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -23706,12 +23706,12 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>寡默</t>
+          <t>默殺</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>과묵</t>
+          <t>묵살</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -23720,18 +23720,18 @@
         </is>
       </c>
       <c r="D1154" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>默殺</t>
+          <t>廉恥</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>묵살</t>
+          <t>염치</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -23740,18 +23740,18 @@
         </is>
       </c>
       <c r="D1155" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>廉恥</t>
+          <t>低廉</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>염치</t>
+          <t>저렴</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -23766,12 +23766,12 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>低廉</t>
+          <t>淸廉</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>저렴</t>
+          <t>청렴</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -23780,18 +23780,18 @@
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>淸廉</t>
+          <t>低質</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>청렴</t>
+          <t>저질</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -23806,12 +23806,12 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>低質</t>
+          <t>結婚</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>저질</t>
+          <t>결혼</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -23820,18 +23820,18 @@
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>結婚</t>
+          <t>結果</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>결혼</t>
+          <t>결과</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -23840,18 +23840,18 @@
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>結果</t>
+          <t>連結</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>결과</t>
+          <t>연결</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
@@ -23866,12 +23866,12 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>連結</t>
+          <t>結束</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>연결</t>
+          <t>결속</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -23886,12 +23886,12 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>結束</t>
+          <t>結論</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>결속</t>
+          <t>결론</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -23906,12 +23906,12 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>結論</t>
+          <t>結實</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>결론</t>
+          <t>결실</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -23926,12 +23926,12 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>結實</t>
+          <t>決濟</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>결실</t>
+          <t>결제</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
@@ -23940,18 +23940,18 @@
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>決濟</t>
+          <t>決裁</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>결제</t>
+          <t>결재</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -23966,12 +23966,12 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>決裁</t>
+          <t>缺陷</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>결재</t>
+          <t>결함</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -23980,18 +23980,18 @@
         </is>
       </c>
       <c r="D1167" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>缺陷</t>
+          <t>缺乏</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>결함</t>
+          <t>결핍</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -24000,18 +24000,18 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>缺乏</t>
+          <t>缺如</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>결핍</t>
+          <t>결여</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -24020,18 +24020,18 @@
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>缺如</t>
+          <t>缺勤</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>결여</t>
+          <t>결근</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -24040,18 +24040,18 @@
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>缺勤</t>
+          <t>再生</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>결근</t>
+          <t>재생</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -24060,18 +24060,18 @@
         </is>
       </c>
       <c r="D1171" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>再生</t>
+          <t>再考</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>재생</t>
+          <t>재고</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -24086,12 +24086,12 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>再考</t>
+          <t>再會</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>재고</t>
+          <t>재회</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -24106,12 +24106,12 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>再會</t>
+          <t>再開</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>재회</t>
+          <t>재개</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -24126,12 +24126,12 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>再開</t>
+          <t>提高</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>재개</t>
+          <t>제고</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -24146,12 +24146,12 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>提高</t>
+          <t>提起</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>제고</t>
+          <t>제기</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -24166,12 +24166,12 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>提起</t>
+          <t>提案</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>제기</t>
+          <t>제안</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -24186,12 +24186,12 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>提案</t>
+          <t>提請</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>제안</t>
+          <t>제청</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -24206,12 +24206,12 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>提請</t>
+          <t>發動</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>제청</t>
+          <t>발동</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -24226,12 +24226,12 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>發動</t>
+          <t>學校</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>발동</t>
+          <t>학교</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -24246,12 +24246,12 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>學校</t>
+          <t>勉學</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>학교</t>
+          <t>면학</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
@@ -24266,12 +24266,12 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>勉學</t>
+          <t>覺書</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>면학</t>
+          <t>각서</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
@@ -24280,18 +24280,18 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>覺書</t>
+          <t>自覺</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>각서</t>
+          <t>자각</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -24306,12 +24306,12 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>自覺</t>
+          <t>一刻</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>자각</t>
+          <t>일각</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -24320,18 +24320,18 @@
         </is>
       </c>
       <c r="D1184" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>一刻</t>
+          <t>非理</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>일각</t>
+          <t>비리</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
@@ -24346,12 +24346,12 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>非理</t>
+          <t>是非</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>비리</t>
+          <t>시비</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -24366,12 +24366,12 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>是非</t>
+          <t>非難</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>시비</t>
+          <t>비난</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -24386,12 +24386,12 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>非難</t>
+          <t>喜悲</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>비난</t>
+          <t>희비</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -24400,18 +24400,18 @@
         </is>
       </c>
       <c r="D1188" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>喜悲</t>
+          <t>排他</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>희비</t>
+          <t>배타</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
@@ -24420,18 +24420,18 @@
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>排他</t>
+          <t>排斥</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>배타</t>
+          <t>배척</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -24446,12 +24446,12 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>排斥</t>
+          <t>排除</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>배척</t>
+          <t>배제</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -24466,12 +24466,12 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>排除</t>
+          <t>俳優</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>배제</t>
+          <t>배우</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
@@ -24486,12 +24486,12 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>俳優</t>
+          <t>乘馬</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>배우</t>
+          <t>승마</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
@@ -24506,12 +24506,12 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>乘馬</t>
+          <t>磨耗</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>승마</t>
+          <t>마모</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -24526,12 +24526,12 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>磨耗</t>
+          <t>硏磨</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>마모</t>
+          <t>연마</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -24540,18 +24540,18 @@
         </is>
       </c>
       <c r="D1195" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>硏磨</t>
+          <t>酷毒</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>연마</t>
+          <t>혹독</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -24560,18 +24560,18 @@
         </is>
       </c>
       <c r="D1196" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>酷毒</t>
+          <t>毒素</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>혹독</t>
+          <t>독소</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
@@ -24586,12 +24586,12 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>毒素</t>
+          <t>中毒</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>독소</t>
+          <t>중독</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
@@ -24600,18 +24600,18 @@
         </is>
       </c>
       <c r="D1198" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>中毒</t>
+          <t>毒感</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>중독</t>
+          <t>독감</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
@@ -24626,12 +24626,12 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>毒感</t>
+          <t>禁止</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>독감</t>
+          <t>금지</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -24646,12 +24646,12 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>禁止</t>
+          <t>禁煙</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>금지</t>
+          <t>금연</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -24666,12 +24666,12 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>禁煙</t>
+          <t>禁忌</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>금연</t>
+          <t>금기</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
@@ -24680,18 +24680,18 @@
         </is>
       </c>
       <c r="D1202" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>禁忌</t>
+          <t>禁斷</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>금기</t>
+          <t>금단</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
@@ -24706,12 +24706,12 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>禁斷</t>
+          <t>豪雨</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>금단</t>
+          <t>호우</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
@@ -24720,18 +24720,18 @@
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>豪雨</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>호우</t>
+          <t>폭우</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -24740,18 +24740,18 @@
         </is>
       </c>
       <c r="D1205" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>雪辱</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>폭우</t>
+          <t>설욕</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -24760,18 +24760,18 @@
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>雪辱</t>
+          <t>暴雪</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>설욕</t>
+          <t>폭설</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
@@ -24780,18 +24780,18 @@
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>暴雪</t>
+          <t>電氣</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>폭설</t>
+          <t>전기</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
@@ -24800,18 +24800,18 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>電氣</t>
+          <t>落雷</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>전기</t>
+          <t>낙뢰</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
@@ -24820,18 +24820,18 @@
         </is>
       </c>
       <c r="D1209" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>落雷</t>
+          <t>地雷</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>낙뢰</t>
+          <t>지뢰</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
@@ -24840,18 +24840,18 @@
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>地雷</t>
+          <t>風霜</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>지뢰</t>
+          <t>풍상</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
@@ -24860,18 +24860,18 @@
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>風霜</t>
+          <t>雲霧</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>풍상</t>
+          <t>운무</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
@@ -24880,18 +24880,18 @@
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>雲霧</t>
+          <t>霧散</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>운무</t>
+          <t>무산</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
@@ -24906,12 +24906,12 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>霧散</t>
+          <t>海霧</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>무산</t>
+          <t>해무</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -24920,18 +24920,18 @@
         </is>
       </c>
       <c r="D1214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>海霧</t>
+          <t>漏落</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>해무</t>
+          <t>누락</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
@@ -24946,12 +24946,12 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>漏落</t>
+          <t>漏泄</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>누락</t>
+          <t>누설</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
@@ -24960,13 +24960,13 @@
         </is>
       </c>
       <c r="D1216" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>漏泄</t>
+          <t>漏洩</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
@@ -24980,18 +24980,18 @@
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>漏洩</t>
+          <t>漏出</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>누설</t>
+          <t>누출</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -25006,12 +25006,12 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>漏出</t>
+          <t>漏水</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>누출</t>
+          <t>누수</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -25026,12 +25026,12 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>漏水</t>
+          <t>靑春</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>누수</t>
+          <t>청춘</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
@@ -25046,12 +25046,12 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>靑春</t>
+          <t>靑年</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>청춘</t>
+          <t>청년</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
@@ -25066,12 +25066,12 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>靑年</t>
+          <t>淸潔</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>청년</t>
+          <t>청결</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
@@ -25080,18 +25080,18 @@
         </is>
       </c>
       <c r="D1222" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>淸潔</t>
+          <t>申請</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>청결</t>
+          <t>신청</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
@@ -25100,18 +25100,18 @@
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>申請</t>
+          <t>要請</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>신청</t>
+          <t>요청</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
@@ -25126,12 +25126,12 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>要請</t>
+          <t>請願</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>요청</t>
+          <t>청원</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
@@ -25146,12 +25146,12 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>請願</t>
+          <t>請約</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>청원</t>
+          <t>청약</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
@@ -25160,18 +25160,18 @@
         </is>
       </c>
       <c r="D1226" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>請約</t>
+          <t>招請</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>청약</t>
+          <t>초청</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
@@ -25180,18 +25180,18 @@
         </is>
       </c>
       <c r="D1227" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>招請</t>
+          <t>快晴</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>초청</t>
+          <t>쾌청</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
@@ -25200,18 +25200,18 @@
         </is>
       </c>
       <c r="D1228" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>快晴</t>
+          <t>猜忌</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>쾌청</t>
+          <t>시기</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
@@ -25220,18 +25220,18 @@
         </is>
       </c>
       <c r="D1229" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>猜忌</t>
+          <t>昇降</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>시기</t>
+          <t>승강</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
@@ -25240,18 +25240,18 @@
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>昇降</t>
+          <t>降伏</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>승강</t>
+          <t>항복</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
@@ -25260,18 +25260,18 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>降伏</t>
+          <t>制度</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>항복</t>
+          <t>제도</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
@@ -25280,18 +25280,18 @@
         </is>
       </c>
       <c r="D1232" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>制度</t>
+          <t>忖度</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>제도</t>
+          <t>촌탁</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
@@ -25306,12 +25306,12 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>忖度</t>
+          <t>比率</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>촌탁</t>
+          <t>비율</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
@@ -25320,18 +25320,18 @@
         </is>
       </c>
       <c r="D1234" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>比率</t>
+          <t>統率</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>비율</t>
+          <t>통솔</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -25340,18 +25340,18 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>統率</t>
+          <t>確率</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>통솔</t>
+          <t>확률</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
@@ -25360,18 +25360,18 @@
         </is>
       </c>
       <c r="D1236" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>確率</t>
+          <t>率先</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>확률</t>
+          <t>솔선</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
@@ -25380,18 +25380,18 @@
         </is>
       </c>
       <c r="D1237" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>率先</t>
+          <t>樂園</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>솔선</t>
+          <t>낙원</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
@@ -25406,12 +25406,12 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>樂園</t>
+          <t>音樂</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>낙원</t>
+          <t>음악</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -25420,18 +25420,18 @@
         </is>
       </c>
       <c r="D1239" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>音樂</t>
+          <t>便利</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>음악</t>
+          <t>편리</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
@@ -25440,18 +25440,18 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>便利</t>
+          <t>便器</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>편리</t>
+          <t>변기</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
@@ -25460,18 +25460,18 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>便器</t>
+          <t>回復</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>변기</t>
+          <t>회복</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
@@ -25480,18 +25480,18 @@
         </is>
       </c>
       <c r="D1242" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>回復</t>
+          <t>反復</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>회복</t>
+          <t>반복</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
@@ -25500,18 +25500,18 @@
         </is>
       </c>
       <c r="D1243" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>反復</t>
+          <t>復歸</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>반복</t>
+          <t>복귀</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
@@ -25526,12 +25526,12 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>復歸</t>
+          <t>復活</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>복귀</t>
+          <t>부활</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
@@ -25540,18 +25540,18 @@
         </is>
       </c>
       <c r="D1245" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>復活</t>
+          <t>南北</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>부활</t>
+          <t>남북</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
@@ -25560,18 +25560,18 @@
         </is>
       </c>
       <c r="D1246" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>南北</t>
+          <t>敗北</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>남북</t>
+          <t>패배</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -25580,18 +25580,18 @@
         </is>
       </c>
       <c r="D1247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>敗北</t>
+          <t>推進</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>패배</t>
+          <t>추진</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
@@ -25600,18 +25600,18 @@
         </is>
       </c>
       <c r="D1248" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>推進</t>
+          <t>推定</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>추진</t>
+          <t>추정</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
@@ -25620,18 +25620,18 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>推定</t>
+          <t>推敲</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>추정</t>
+          <t>퇴고</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
@@ -25646,12 +25646,12 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>推敲</t>
+          <t>然則</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>퇴고</t>
+          <t>연즉</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
@@ -25666,12 +25666,12 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>然則</t>
+          <t>食品</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>연즉</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
@@ -25686,12 +25686,12 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>食品</t>
+          <t>加減</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>가감</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
@@ -25700,18 +25700,18 @@
         </is>
       </c>
       <c r="D1253" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>加減</t>
+          <t>改惡</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>가감</t>
+          <t>개악</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -25720,18 +25720,18 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>改惡</t>
+          <t>改悛</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>개악</t>
+          <t>개전</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
@@ -25746,12 +25746,12 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>改悛</t>
+          <t>更新</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>개전</t>
+          <t>갱신, 경신</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -25766,12 +25766,12 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>更新</t>
+          <t>決裂</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>갱신, 경신</t>
+          <t>결렬</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -25786,12 +25786,12 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>決裂</t>
+          <t>可決</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>결렬</t>
+          <t>가결</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
@@ -25800,18 +25800,18 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>可決</t>
+          <t>開拓</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>가결</t>
+          <t>개척</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
@@ -25826,12 +25826,12 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>開拓</t>
+          <t>難解</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>개척</t>
+          <t>난해</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
@@ -25846,12 +25846,12 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>難解</t>
+          <t>强度</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>난해</t>
+          <t>강도</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
@@ -25866,12 +25866,12 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>强度</t>
+          <t>改善</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>강도</t>
+          <t>개선</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
@@ -25886,12 +25886,12 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>改善</t>
+          <t>權勢</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>개선</t>
+          <t>권세</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -25900,18 +25900,18 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>權勢</t>
+          <t>權利</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>권세</t>
+          <t>권리</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
@@ -25920,18 +25920,18 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>權利</t>
+          <t>告發</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>권리</t>
+          <t>고발</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -25940,18 +25940,18 @@
         </is>
       </c>
       <c r="D1265" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>告發</t>
+          <t>可憐</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>고발</t>
+          <t>가련</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -25966,12 +25966,12 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>可憐</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>가련</t>
+          <t>간섭</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -25980,18 +25980,18 @@
         </is>
       </c>
       <c r="D1267" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>强烈</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>간섭</t>
+          <t>강렬</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -26006,12 +26006,12 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>强烈</t>
+          <t>介入</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>강렬</t>
+          <t>개입</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
@@ -26026,12 +26026,12 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>介入</t>
+          <t>改革</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>개입</t>
+          <t>개혁</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
@@ -26040,18 +26040,18 @@
         </is>
       </c>
       <c r="D1270" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>改革</t>
+          <t>見聞</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>개혁</t>
+          <t>견문</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
@@ -26060,18 +26060,18 @@
         </is>
       </c>
       <c r="D1271" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>見聞</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>견문</t>
+          <t>상품</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
@@ -26080,18 +26080,18 @@
         </is>
       </c>
       <c r="D1272" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>日沒</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>상품</t>
+          <t>일몰</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
@@ -26106,12 +26106,12 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>日沒</t>
+          <t>誇張</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>일몰</t>
+          <t>과장</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -26126,12 +26126,12 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>誇張</t>
+          <t>龜鑑</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>과장</t>
+          <t>귀감</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
@@ -26146,12 +26146,12 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>龜鑑</t>
+          <t>龜裂</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>귀감</t>
+          <t>균열</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
@@ -26166,12 +26166,12 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>龜裂</t>
+          <t>樂觀</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>균열</t>
+          <t>낙관</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -26186,12 +26186,12 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>樂觀</t>
+          <t>論述</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>낙관</t>
+          <t>논술</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -26206,12 +26206,12 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>論述</t>
+          <t>考察</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>논술</t>
+          <t>고찰</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
@@ -26226,12 +26226,12 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>考察</t>
+          <t>檢察</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>고찰</t>
+          <t>검찰</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
@@ -26246,12 +26246,12 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>檢察</t>
+          <t>公正</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>검찰</t>
+          <t>공정</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -26260,18 +26260,18 @@
         </is>
       </c>
       <c r="D1281" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>公正</t>
+          <t>受賞</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>공정</t>
+          <t>수상</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -26286,7 +26286,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>受賞</t>
+          <t>授賞</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
@@ -26300,18 +26300,18 @@
         </is>
       </c>
       <c r="D1283" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>授賞</t>
+          <t>賃借</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>수상</t>
+          <t>임차</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
@@ -26326,12 +26326,12 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>賃借</t>
+          <t>賃貸</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>임차</t>
+          <t>임대</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -26346,12 +26346,12 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>賃貸</t>
+          <t>論證</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>임대</t>
+          <t>논증</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
@@ -26360,18 +26360,18 @@
         </is>
       </c>
       <c r="D1286" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>論證</t>
+          <t>貸出</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>논증</t>
+          <t>대출</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
@@ -26380,18 +26380,18 @@
         </is>
       </c>
       <c r="D1287" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>貸出</t>
+          <t>免職</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>대출</t>
+          <t>면직</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -26406,12 +26406,12 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>免職</t>
+          <t>常識</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>면직</t>
+          <t>상식</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
@@ -26420,18 +26420,18 @@
         </is>
       </c>
       <c r="D1289" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>常識</t>
+          <t>誇示</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>상식</t>
+          <t>과시</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
@@ -26440,18 +26440,18 @@
         </is>
       </c>
       <c r="D1290" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>誇示</t>
+          <t>買賣</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>과시</t>
+          <t>매매</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -26460,18 +26460,18 @@
         </is>
       </c>
       <c r="D1291" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>買賣</t>
+          <t>賣却</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>매매</t>
+          <t>매각</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
@@ -26480,18 +26480,18 @@
         </is>
       </c>
       <c r="D1292" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>賣却</t>
+          <t>博學</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>매각</t>
+          <t>박학</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -26506,12 +26506,12 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>博學</t>
+          <t>輕薄</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>박학</t>
+          <t>경박</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
@@ -26526,12 +26526,12 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>輕薄</t>
+          <t>謁見</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>경박</t>
+          <t>알현</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
@@ -26540,18 +26540,18 @@
         </is>
       </c>
       <c r="D1295" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>謁見</t>
+          <t>歷史</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>알현</t>
+          <t>역사</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
@@ -26560,18 +26560,18 @@
         </is>
       </c>
       <c r="D1296" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>歷史</t>
+          <t>惡寒</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>역사</t>
+          <t>오한</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
@@ -26580,18 +26580,18 @@
         </is>
       </c>
       <c r="D1297" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>惡寒</t>
+          <t>民族</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>오한</t>
+          <t>민족</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -26600,18 +26600,18 @@
         </is>
       </c>
       <c r="D1298" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>民族</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>민족</t>
+          <t>전반</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -26626,12 +26626,12 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>拒否</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>전반</t>
+          <t>거부</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
@@ -26640,18 +26640,18 @@
         </is>
       </c>
       <c r="D1300" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>拒否</t>
+          <t>說明</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>거부</t>
+          <t>설명</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
@@ -26660,18 +26660,18 @@
         </is>
       </c>
       <c r="D1301" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>說明</t>
+          <t>收益</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>설명</t>
+          <t>수익</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -26680,18 +26680,18 @@
         </is>
       </c>
       <c r="D1302" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>收益</t>
+          <t>惡化</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>수익</t>
+          <t>악화</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -26700,18 +26700,18 @@
         </is>
       </c>
       <c r="D1303" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>惡化</t>
+          <t>嗚咽</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>악화</t>
+          <t>오열</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -26720,18 +26720,18 @@
         </is>
       </c>
       <c r="D1304" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>嗚咽</t>
+          <t>咽喉</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>오열</t>
+          <t>인후</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -26746,12 +26746,12 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>咽喉</t>
+          <t>類推</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>인후</t>
+          <t>유추</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
@@ -26766,12 +26766,12 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>類推</t>
+          <t>類型</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>유추</t>
+          <t>유형</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
@@ -26786,12 +26786,12 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>類型</t>
+          <t>一切</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>유형</t>
+          <t>일절, 일체</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
@@ -26800,18 +26800,18 @@
         </is>
       </c>
       <c r="D1308" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>一切</t>
+          <t>前進</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>일절, 일체</t>
+          <t>전진</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -26826,12 +26826,12 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>前進</t>
+          <t>處罰</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>전진</t>
+          <t>처벌</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -26846,12 +26846,12 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>處罰</t>
+          <t>借用</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>처벌</t>
+          <t>차용</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
@@ -26866,12 +26866,12 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>借用</t>
+          <t>體系</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>차용</t>
+          <t>체계</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
@@ -26886,12 +26886,12 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>體系</t>
+          <t>參與</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>체계</t>
+          <t>참여</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -26900,38 +26900,38 @@
         </is>
       </c>
       <c r="D1313" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>參與</t>
+          <t>炎涼世態</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>참여</t>
+          <t>염량세태</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>2글자</t>
+          <t>4글자</t>
         </is>
       </c>
       <c r="D1314" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>炎涼世態</t>
+          <t>螢雪之功</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>염량세태</t>
+          <t>형설지공</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
@@ -26940,18 +26940,18 @@
         </is>
       </c>
       <c r="D1315" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>螢雪之功</t>
+          <t>山戰水戰</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>형설지공</t>
+          <t>산전수전</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -26966,12 +26966,12 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>山戰水戰</t>
+          <t>我田引水</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>산전수전</t>
+          <t>아전인수</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
@@ -26980,18 +26980,18 @@
         </is>
       </c>
       <c r="D1317" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>我田引水</t>
+          <t>氷⼭⼀⾓</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>아전인수</t>
+          <t>빙산일각</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr">
@@ -27000,18 +27000,18 @@
         </is>
       </c>
       <c r="D1318" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>氷⼭⼀⾓</t>
+          <t>緣木求魚</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>빙산일각</t>
+          <t>연목구어</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
@@ -27026,12 +27026,12 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>緣木求魚</t>
+          <t>姑息之計</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>연목구어</t>
+          <t>고식지계</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
@@ -27040,18 +27040,18 @@
         </is>
       </c>
       <c r="D1320" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>姑息之計</t>
+          <t>連戰連勝</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>고식지계</t>
+          <t>연전연승</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr">
@@ -27060,18 +27060,18 @@
         </is>
       </c>
       <c r="D1321" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>連戰連勝</t>
+          <t>口蜜腹劍</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>연전연승</t>
+          <t>구밀복검</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr">
@@ -27086,12 +27086,12 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>口蜜腹劍</t>
+          <t>⼤器晩成</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>구밀복검</t>
+          <t>대기만성</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
@@ -27106,12 +27106,12 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>⼤器晩成</t>
+          <t>百年河淸</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>대기만성</t>
+          <t>백년하청</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
@@ -27126,12 +27126,12 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>百年河淸</t>
+          <t>捲土重來</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>백년하청</t>
+          <t>권토중래</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
@@ -27146,12 +27146,12 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>捲土重來</t>
+          <t>土牛木馬</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>권토중래</t>
+          <t>토우목마</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
@@ -27166,12 +27166,12 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>土牛木馬</t>
+          <t>曰可曰否</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>토우목마</t>
+          <t>왈가왈부</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
@@ -27180,18 +27180,18 @@
         </is>
       </c>
       <c r="D1327" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>曰可曰否</t>
+          <t>東西古今</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>왈가왈부</t>
+          <t>동서고금</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
@@ -27200,18 +27200,18 @@
         </is>
       </c>
       <c r="D1328" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>東西古今</t>
+          <t>快刀亂麻</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>동서고금</t>
+          <t>쾌도난마</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr">
@@ -27226,12 +27226,12 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>快刀亂麻</t>
+          <t>感之德之</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>쾌도난마</t>
+          <t>감지덕지</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
@@ -27240,18 +27240,18 @@
         </is>
       </c>
       <c r="D1330" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>感之德之</t>
+          <t>安貧樂道</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>감지덕지</t>
+          <t>안빈낙도</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -27260,18 +27260,18 @@
         </is>
       </c>
       <c r="D1331" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>安貧樂道</t>
+          <t>見物生心</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>안빈낙도</t>
+          <t>견물생심</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
@@ -27280,18 +27280,18 @@
         </is>
       </c>
       <c r="D1332" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>見物生心</t>
+          <t>相扶相助</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>견물생심</t>
+          <t>상부상조</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
@@ -27306,12 +27306,12 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>相扶相助</t>
+          <t>虛張聲勢</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>상부상조</t>
+          <t>허장성세</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
@@ -27326,12 +27326,12 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>虛張聲勢</t>
+          <t>騎虎之勢</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>허장성세</t>
+          <t>기호지세</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr">
@@ -27346,12 +27346,12 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>騎虎之勢</t>
+          <t>敎學相長</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>기호지세</t>
+          <t>교학상장</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
@@ -27366,12 +27366,12 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>敎學相長</t>
+          <t>一心同體</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>교학상장</t>
+          <t>일심동체</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
@@ -27386,12 +27386,12 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>一心同體</t>
+          <t>物我一體</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>일심동체</t>
+          <t>물아일체</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
@@ -27406,12 +27406,12 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>物我一體</t>
+          <t>草露人生</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>물아일체</t>
+          <t>초로인생</t>
         </is>
       </c>
       <c r="C1339" t="inlineStr">
@@ -27420,18 +27420,18 @@
         </is>
       </c>
       <c r="D1339" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>草露人生</t>
+          <t>立春大吉</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>초로인생</t>
+          <t>입춘대길</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
@@ -27440,18 +27440,18 @@
         </is>
       </c>
       <c r="D1340" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>立春大吉</t>
+          <t>吉凶禍福</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>입춘대길</t>
+          <t>길흉화복</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
@@ -27466,12 +27466,12 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>吉凶禍福</t>
+          <t>語不成說</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>길흉화복</t>
+          <t>어불성설</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
@@ -27486,12 +27486,12 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>語不成說</t>
+          <t>國會議長</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>어불성설</t>
+          <t>국회의장</t>
         </is>
       </c>
       <c r="C1343" t="inlineStr">
@@ -27500,18 +27500,18 @@
         </is>
       </c>
       <c r="D1343" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>國會議長</t>
+          <t>望雲之情</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>국회의장</t>
+          <t>망운지정</t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
@@ -27520,18 +27520,18 @@
         </is>
       </c>
       <c r="D1344" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>望雲之情</t>
+          <t>士農工商</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>망운지정</t>
+          <t>사농공상</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
@@ -27546,12 +27546,12 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>士農工商</t>
+          <t>初志一貫</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>사농공상</t>
+          <t>초지일관</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
@@ -27566,12 +27566,12 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>初志一貫</t>
+          <t>博學多識</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>초지일관</t>
+          <t>박학다식</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
@@ -27586,12 +27586,12 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>博學多識</t>
+          <t>靑雲之志</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>박학다식</t>
+          <t>청운지지</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
@@ -27606,12 +27606,12 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>靑雲之志</t>
+          <t>年中無休</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>청운지지</t>
+          <t>연중무휴</t>
         </is>
       </c>
       <c r="C1349" t="inlineStr">
@@ -27620,18 +27620,18 @@
         </is>
       </c>
       <c r="D1349" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>年中無休</t>
+          <t>畵中之餠</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>연중무휴</t>
+          <t>화중지병</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
@@ -27646,12 +27646,12 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>畵中之餠</t>
+          <t>十中八九</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>화중지병</t>
+          <t>십중팔구</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr">
@@ -27666,12 +27666,12 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>十中八九</t>
+          <t>百發百中</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>십중팔구</t>
+          <t>백발백중</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
@@ -27680,18 +27680,18 @@
         </is>
       </c>
       <c r="D1352" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>百發百中</t>
+          <t>言中有骨</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>백발백중</t>
+          <t>언중유골</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr">
@@ -27700,18 +27700,18 @@
         </is>
       </c>
       <c r="D1353" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>言中有骨</t>
+          <t>五里霧中</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>언중유골</t>
+          <t>오리무중</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
@@ -27726,12 +27726,12 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>五里霧中</t>
+          <t>衆口難防</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>오리무중</t>
+          <t>중구난방</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
@@ -27740,18 +27740,18 @@
         </is>
       </c>
       <c r="D1355" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>衆口難防</t>
+          <t>刻舟求劍</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>중구난방</t>
+          <t>각주구검</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
@@ -27760,18 +27760,18 @@
         </is>
       </c>
       <c r="D1356" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>刻舟求劍</t>
+          <t>見蚊拔劍</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>각주구검</t>
+          <t>견문발검</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr">
@@ -27780,18 +27780,18 @@
         </is>
       </c>
       <c r="D1357" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>見蚊拔劍</t>
+          <t>守株待兎</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>견문발검</t>
+          <t>수주대토</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
@@ -27806,12 +27806,12 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>守株待兎</t>
+          <t>犬兎之爭</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>수주대토</t>
+          <t>견토지쟁</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
@@ -27826,12 +27826,12 @@
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>犬兎之爭</t>
+          <t>狡兎三窟</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>견토지쟁</t>
+          <t>교토삼굴</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
@@ -27846,12 +27846,12 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>狡兎三窟</t>
+          <t>晩時之歎</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>교토삼굴</t>
+          <t>만시지탄</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
@@ -27860,18 +27860,18 @@
         </is>
       </c>
       <c r="D1361" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>晩時之歎</t>
+          <t>居安思危</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>만시지탄</t>
+          <t>거안사위</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
@@ -27880,18 +27880,18 @@
         </is>
       </c>
       <c r="D1362" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>居安思危</t>
+          <t>累卵之危</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>거안사위</t>
+          <t>누란지위</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr">
@@ -27906,12 +27906,12 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>累卵之危</t>
+          <t>怒發大發</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>누란지위</t>
+          <t>노발대발</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
@@ -27920,18 +27920,18 @@
         </is>
       </c>
       <c r="D1364" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>怒發大發</t>
+          <t>天人共怒</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>노발대발</t>
+          <t>천인공노</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
@@ -27940,18 +27940,18 @@
         </is>
       </c>
       <c r="D1365" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>天人共怒</t>
+          <t>一怒一老</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>천인공노</t>
+          <t>일로일로</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
@@ -27960,18 +27960,18 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>一怒一老</t>
+          <t>喜怒哀樂</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>일로일로</t>
+          <t>희로애락</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
@@ -27980,18 +27980,18 @@
         </is>
       </c>
       <c r="D1367" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>喜怒哀樂</t>
+          <t>怒氣衝天</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>희로애락</t>
+          <t>노기충천</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
@@ -28006,12 +28006,12 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>怒氣衝天</t>
+          <t>擧案齊眉</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>노기충천</t>
+          <t>거안제미</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
@@ -28026,12 +28026,12 @@
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>擧案齊眉</t>
+          <t>深思熟考</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>거안제미</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
@@ -28046,12 +28046,12 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>深思熟考</t>
+          <t>結草報恩</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>결초보은</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
@@ -28066,12 +28066,12 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>結草報恩</t>
+          <t>結者解之</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>결초보은</t>
+          <t>결자해지</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
@@ -28086,12 +28086,12 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>結者解之</t>
+          <t>一觸卽發</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>결자해지</t>
+          <t>일촉즉발</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
@@ -28100,18 +28100,18 @@
         </is>
       </c>
       <c r="D1373" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>一觸卽發</t>
+          <t>最後一刻</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>일촉즉발</t>
+          <t>최후일각</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
@@ -28120,18 +28120,18 @@
         </is>
       </c>
       <c r="D1374" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>最後一刻</t>
+          <t>非一非再</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>최후일각</t>
+          <t>비일비재</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
@@ -28146,12 +28146,12 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>非一非再</t>
+          <t>興盡悲來</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>비일비재</t>
+          <t>흥진비래</t>
         </is>
       </c>
       <c r="C1376" t="inlineStr">
@@ -28166,12 +28166,12 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>興盡悲來</t>
+          <t>苦盡甘來</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>흥진비래</t>
+          <t>고진감래</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr">
@@ -28180,18 +28180,18 @@
         </is>
       </c>
       <c r="D1377" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>苦盡甘來</t>
+          <t>走馬看山</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>고진감래</t>
+          <t>주마간산</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
@@ -28206,12 +28206,12 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>走馬看山</t>
+          <t>馬耳東風</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>주마간산</t>
+          <t>마이동풍</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
@@ -28226,12 +28226,12 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>馬耳東風</t>
+          <t>天高馬肥</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>마이동풍</t>
+          <t>천고마비</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
@@ -28246,12 +28246,12 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>天高馬肥</t>
+          <t>以毒制毒</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>천고마비</t>
+          <t>이독제독</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
@@ -28266,12 +28266,12 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>以毒制毒</t>
+          <t>電光石火</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>이독제독</t>
+          <t>전광석화</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
@@ -28280,18 +28280,18 @@
         </is>
       </c>
       <c r="D1382" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>電光石火</t>
+          <t>雪上加霜</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>전광석화</t>
+          <t>설상가상</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -28300,18 +28300,18 @@
         </is>
       </c>
       <c r="D1383" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>雪上加霜</t>
+          <t>樂山樂水</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>설상가상</t>
+          <t>요산요수</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
@@ -28326,12 +28326,12 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>樂山樂水</t>
+          <t>簞食瓢飮</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>요산요수</t>
+          <t>단사표음</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
@@ -28346,17 +28346,17 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>簞食瓢飮</t>
+          <t>銀河水</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>단사표음</t>
+          <t>은하수</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>4글자</t>
+          <t>3글자</t>
         </is>
       </c>
       <c r="D1386" t="n">
@@ -28366,12 +28366,12 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>銀河水</t>
+          <t>口舌數</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>은하수</t>
+          <t>구설수</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
@@ -28380,18 +28380,18 @@
         </is>
       </c>
       <c r="D1387" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>口舌數</t>
+          <t>長廣舌</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>구설수</t>
+          <t>장광설</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
@@ -28406,12 +28406,12 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>長廣舌</t>
+          <t>衣食住</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>장광설</t>
+          <t>의식주</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
@@ -28426,12 +28426,12 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>衣食住</t>
+          <t>望夫石</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>의식주</t>
+          <t>망부석</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
@@ -28446,12 +28446,12 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>望夫石</t>
+          <t>辯護士</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>망부석</t>
+          <t>변호사</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
@@ -28460,18 +28460,18 @@
         </is>
       </c>
       <c r="D1391" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>辯護士</t>
+          <t>夢中夢</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>변호사</t>
+          <t>몽중몽</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
@@ -28480,18 +28480,18 @@
         </is>
       </c>
       <c r="D1392" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>夢中夢</t>
+          <t>重且大</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>몽중몽</t>
+          <t>중차대</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
@@ -28500,18 +28500,18 @@
         </is>
       </c>
       <c r="D1393" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>重且大</t>
+          <t>早晩間</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>중차대</t>
+          <t>조만간</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
@@ -28526,12 +28526,12 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>早晩間</t>
+          <t>不可避</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>조만간</t>
+          <t>불가피</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
@@ -28546,12 +28546,12 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>不可避</t>
+          <t>不可缺</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>불가피</t>
+          <t>불가결</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
@@ -28566,12 +28566,12 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>不可缺</t>
+          <t>靑瓦臺</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>불가결</t>
+          <t>청와대</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
@@ -28580,18 +28580,18 @@
         </is>
       </c>
       <c r="D1397" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>靑瓦臺</t>
+          <t>靑少年</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>청와대</t>
+          <t>청소년</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
@@ -28600,18 +28600,18 @@
         </is>
       </c>
       <c r="D1398" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>靑少年</t>
+          <t>句讀點</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>청소년</t>
+          <t>구두점</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
@@ -28626,12 +28626,12 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>句讀點</t>
+          <t>白眼視</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>구두점</t>
+          <t xml:space="preserve">백안시 </t>
         </is>
       </c>
       <c r="C1400" t="inlineStr">
@@ -28640,18 +28640,18 @@
         </is>
       </c>
       <c r="D1400" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>白眼視</t>
+          <t>度外視</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t xml:space="preserve">백안시 </t>
+          <t>도외시</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -28660,23 +28660,23 @@
         </is>
       </c>
       <c r="D1401" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>度外視</t>
+          <t>上漏下濕</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>도외시</t>
+          <t>상루하습 | 매우 가난한 집</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>3글자</t>
+          <t>4글자</t>
         </is>
       </c>
       <c r="D1402" t="n">
@@ -28686,12 +28686,12 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>上漏下濕</t>
+          <t>家徒壁立</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>상루하습 | 매우 가난한 집</t>
+          <t>가도벽립 | 매우 가난한 처지</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
@@ -28700,27 +28700,7 @@
         </is>
       </c>
       <c r="D1403" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>家徒壁立</t>
-        </is>
-      </c>
-      <c r="B1404" t="inlineStr">
-        <is>
-          <t>가도벽립 | 매우 가난한 처지</t>
-        </is>
-      </c>
-      <c r="C1404" t="inlineStr">
-        <is>
-          <t>4글자</t>
-        </is>
-      </c>
-      <c r="D1404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1323"/>
+  <dimension ref="A1:D1337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -11618,7 +11618,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550">
@@ -21658,7 +21658,7 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
@@ -24918,7 +24918,7 @@
         </is>
       </c>
       <c r="D1214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215">
@@ -27099,6 +27099,310 @@
       </c>
       <c r="D1323" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>指鹿爲馬</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>지록위마| 윗사람을 농락하여 권세를 마음대로 함을 이르는 말. 중국 진(秦)나라의 조고(趙高)가 자신의 권세를 시험하여 보고자 황제 호해(胡亥)에게 사슴을 가리키며 말이라고 한 데서 유래한다</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>釣而不網</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>조이불망| 낚시질은 해도 그물질은 하지 않는다는 뜻으로. 무슨 일에나 정도를 넘지 않는 훌륭한 인물의 태도를 이르는 말</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>隔靴搔癢</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>격화소양| 신을 신고 발바닥을 긁는다는 뜻으로 성에 차지 않거나 철저하지 못한 안타까움을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>牽强附會</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>견강부회| 이치에 맞지 않는 말을 억지로 끌어 붙여 자기에게 유리하게 함</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>同病相憐</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>동병상련</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>不立文字</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>불립문자</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>刻骨難忘</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>각골난망</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>寤寐不忘</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>오매불망</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>主客顚倒</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>주객전도</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>前途洋洋</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>전도양양</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>賊反荷杖</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>적반하장</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>自家撞着</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>자가당착</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>4글자</t>
+        </is>
+      </c>
+      <c r="D1335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>雨歇長堤草色多
+送君南浦動悲歌
+大洞江水何時盡
+別淚年年添錄波</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>송인|
+정지상, ‘송인(送人)’
+- 대동강을 배경으로 이별의 슬픔을 노래.
+雨歇長堤草色多(우헐장제초색다)
+:비 그친 긴 강둑에는 풀빛이 푸른데,
+送君南浦動悲歌(송군남포동비가)
+:그대를 남포에서 보내며 슬픈 노래 부르네.
+大洞江水何時盡(대동강수하시진)
+:대동강 물은 그 언제 마를 것인가,
+別淚年年添錄波(별루년년첨록파)
+:이별의 눈물 해마다 푸른 물결에 더하는 것을.</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>한시</t>
+        </is>
+      </c>
+      <c r="D1336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>鳥獸哀鳴海岳嚬
+槿花世界已沈淪
+秋燈掩卷懷千古
+難作人間識字人</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>절명시|‘조수애명해악빈’
+(새 짐승 슬피 울고 강산은 찡그리네)
+‘근화세계이침륜’
+(무궁화 세계는 이미 사라지고 말았구나)
+‘추등엄권회천고’
+(가을 등불 아래 책 덮고 역사를 생각하니)
+‘난작인간식자인’
+(세상에서 글 아는 사람 노릇 하기 어렵구나)
+이 시는 한일 합방으로 일제에게 국권을 침탈당한 뒤에 절의를 지키기 위해 자결을 앞두고 쓴 매천 황현 선생의 작품으로, 국권 상실에 따른 지식인의 비탄과 절망을 토로하고 있다.</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>한시</t>
+        </is>
+      </c>
+      <c r="D1337" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113">
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123">
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159">
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198">
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219">
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231">
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
@@ -5598,7 +5598,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
@@ -6318,7 +6318,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300">
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339">
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345">
@@ -7638,7 +7638,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -8118,7 +8118,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375">
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8378,7 +8378,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
@@ -8538,7 +8538,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396">
@@ -8898,7 +8898,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
@@ -8998,7 +8998,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419">
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
@@ -9258,7 +9258,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
@@ -9458,7 +9458,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
@@ -9898,7 +9898,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
@@ -9978,7 +9978,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
@@ -10478,7 +10478,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
@@ -10578,7 +10578,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="498">
@@ -10678,7 +10678,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
@@ -11078,7 +11078,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
@@ -11618,7 +11618,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -11778,7 +11778,7 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
@@ -11938,7 +11938,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="566">
@@ -11998,7 +11998,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569">
@@ -12158,7 +12158,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="577">
@@ -12978,7 +12978,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="618">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="625">
@@ -13218,7 +13218,7 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630">
@@ -13558,7 +13558,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="647">
@@ -13578,7 +13578,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648">
@@ -13998,7 +13998,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="669">
@@ -14218,7 +14218,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680">
@@ -14718,7 +14718,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="705">
@@ -14738,7 +14738,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="706">
@@ -15078,7 +15078,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="723">
@@ -15438,7 +15438,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741">
@@ -15818,7 +15818,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -15878,7 +15878,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="763">
@@ -15958,7 +15958,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767">
@@ -16258,7 +16258,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="782">
@@ -16418,7 +16418,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790">
@@ -16638,7 +16638,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801">
@@ -16658,7 +16658,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802">
@@ -16698,7 +16698,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="804">
@@ -16818,7 +16818,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="810">
@@ -17078,7 +17078,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="823">
@@ -17458,7 +17458,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="842">
@@ -17658,7 +17658,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="852">
@@ -17818,7 +17818,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="860">
@@ -17838,7 +17838,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="861">
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="886">
@@ -18538,7 +18538,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="896">
@@ -18698,7 +18698,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="904">
@@ -18758,7 +18758,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="907">
@@ -18838,7 +18838,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="911">
@@ -18978,7 +18978,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="918">
@@ -19138,7 +19138,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="926">
@@ -19238,7 +19238,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="931">
@@ -19278,7 +19278,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="933">
@@ -19778,7 +19778,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="958">
@@ -19818,7 +19818,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="960">
@@ -19898,7 +19898,7 @@
         </is>
       </c>
       <c r="D963" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="964">
@@ -20318,7 +20318,7 @@
         </is>
       </c>
       <c r="D984" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="985">
@@ -20518,7 +20518,7 @@
         </is>
       </c>
       <c r="D994" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="995">
@@ -20698,7 +20698,7 @@
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1004">
@@ -20918,7 +20918,7 @@
         </is>
       </c>
       <c r="D1014" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1015">
@@ -21458,7 +21458,7 @@
         </is>
       </c>
       <c r="D1041" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1042">
@@ -21818,7 +21818,7 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1060">
@@ -22538,7 +22538,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1096">
@@ -23038,7 +23038,7 @@
         </is>
       </c>
       <c r="D1120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1121">
@@ -23098,7 +23098,7 @@
         </is>
       </c>
       <c r="D1123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1124">
@@ -23138,7 +23138,7 @@
         </is>
       </c>
       <c r="D1125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1126">
@@ -23378,7 +23378,7 @@
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1138">
@@ -23478,7 +23478,7 @@
         </is>
       </c>
       <c r="D1142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1143">
@@ -23978,7 +23978,7 @@
         </is>
       </c>
       <c r="D1167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1168">
@@ -24118,7 +24118,7 @@
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1175">
@@ -24198,7 +24198,7 @@
         </is>
       </c>
       <c r="D1178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1179">
@@ -24458,7 +24458,7 @@
         </is>
       </c>
       <c r="D1191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1192">
@@ -24578,7 +24578,7 @@
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1198">
@@ -24818,7 +24818,7 @@
         </is>
       </c>
       <c r="D1209" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1210">
@@ -24838,7 +24838,7 @@
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1211">
@@ -24918,7 +24918,7 @@
         </is>
       </c>
       <c r="D1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -25018,7 +25018,7 @@
         </is>
       </c>
       <c r="D1219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1220">
@@ -25078,7 +25078,7 @@
         </is>
       </c>
       <c r="D1222" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1223">
@@ -25478,7 +25478,7 @@
         </is>
       </c>
       <c r="D1242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1243">
@@ -25558,7 +25558,7 @@
         </is>
       </c>
       <c r="D1246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1247">
@@ -25618,7 +25618,7 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1250">
@@ -25758,7 +25758,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1257">
@@ -25818,7 +25818,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1260">
@@ -25918,7 +25918,7 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1265">
@@ -26318,7 +26318,7 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1285">
@@ -26358,7 +26358,7 @@
         </is>
       </c>
       <c r="D1286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1287">
@@ -26438,7 +26438,7 @@
         </is>
       </c>
       <c r="D1290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1291">
@@ -26898,7 +26898,7 @@
         </is>
       </c>
       <c r="D1313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -26918,7 +26918,7 @@
         </is>
       </c>
       <c r="D1314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315">
@@ -26958,7 +26958,7 @@
         </is>
       </c>
       <c r="D1316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317">
@@ -26978,7 +26978,7 @@
         </is>
       </c>
       <c r="D1317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318">
@@ -27098,7 +27098,7 @@
         </is>
       </c>
       <c r="D1323" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1324">
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="D1324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325">
@@ -27138,7 +27138,7 @@
         </is>
       </c>
       <c r="D1325" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1326">
@@ -27158,7 +27158,7 @@
         </is>
       </c>
       <c r="D1326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327">
@@ -27178,7 +27178,7 @@
         </is>
       </c>
       <c r="D1327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -27198,7 +27198,7 @@
         </is>
       </c>
       <c r="D1328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329">
@@ -27238,7 +27238,7 @@
         </is>
       </c>
       <c r="D1330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331">
@@ -27258,7 +27258,7 @@
         </is>
       </c>
       <c r="D1331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -27278,7 +27278,7 @@
         </is>
       </c>
       <c r="D1332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333">
@@ -27298,7 +27298,7 @@
         </is>
       </c>
       <c r="D1333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334">
@@ -27318,7 +27318,7 @@
         </is>
       </c>
       <c r="D1334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335">
@@ -27402,7 +27402,7 @@
         </is>
       </c>
       <c r="D1337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1337"/>
+  <dimension ref="A1:D1341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -10198,7 +10198,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479">
@@ -10598,7 +10598,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
@@ -11178,7 +11178,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528">
@@ -11618,7 +11618,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -13338,7 +13338,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="636">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="638">
@@ -14318,7 +14318,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="685">
@@ -14778,7 +14778,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="708">
@@ -14958,7 +14958,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="717">
@@ -15818,7 +15818,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -18318,7 +18318,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="885">
@@ -18558,7 +18558,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="897">
@@ -19018,7 +19018,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="920">
@@ -19038,7 +19038,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="921">
@@ -21178,7 +21178,7 @@
         </is>
       </c>
       <c r="D1027" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1028">
@@ -24178,7 +24178,7 @@
         </is>
       </c>
       <c r="D1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178">
@@ -24478,7 +24478,7 @@
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1193">
@@ -24638,7 +24638,7 @@
         </is>
       </c>
       <c r="D1200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1201">
@@ -26478,7 +26478,7 @@
         </is>
       </c>
       <c r="D1292" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1293">
@@ -26738,7 +26738,7 @@
         </is>
       </c>
       <c r="D1305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1306">
@@ -26898,7 +26898,7 @@
         </is>
       </c>
       <c r="D1313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -26978,7 +26978,7 @@
         </is>
       </c>
       <c r="D1317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318">
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="D1324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325">
@@ -27138,7 +27138,7 @@
         </is>
       </c>
       <c r="D1325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326">
@@ -27158,7 +27158,7 @@
         </is>
       </c>
       <c r="D1326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327">
@@ -27178,7 +27178,7 @@
         </is>
       </c>
       <c r="D1327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -27198,7 +27198,7 @@
         </is>
       </c>
       <c r="D1328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329">
@@ -27238,7 +27238,7 @@
         </is>
       </c>
       <c r="D1330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331">
@@ -27258,7 +27258,7 @@
         </is>
       </c>
       <c r="D1331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -27278,7 +27278,7 @@
         </is>
       </c>
       <c r="D1332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333">
@@ -27298,7 +27298,7 @@
         </is>
       </c>
       <c r="D1333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334">
@@ -27318,7 +27318,7 @@
         </is>
       </c>
       <c r="D1334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335">
@@ -27402,7 +27402,87 @@
         </is>
       </c>
       <c r="D1337" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>나라가 망함을 탄식</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>서리지탄, 黍離之歎</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>한탄</t>
+        </is>
+      </c>
+      <c r="D1338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>시기에 늦어 기회를 놓침을 탄식</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>만시지탄, 晩時之歎</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>한탄</t>
+        </is>
+      </c>
+      <c r="D1339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>학문의 길이 많아 진리를 얻기 어려움을 탄식</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>망양지탄, 亡羊之歎</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>한탄</t>
+        </is>
+      </c>
+      <c r="D1340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>재능을 발휘하지 못함을 탄식</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>비육지탄, 髀肉之嘆</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>한탄</t>
+        </is>
+      </c>
+      <c r="D1341" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>대마불사| 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말</t>
+          <t>대마불사| 바둑을 둘 때 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207">
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
@@ -5958,7 +5958,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -6218,7 +6218,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280">
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
@@ -6478,7 +6478,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315">
@@ -7018,7 +7018,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
@@ -7338,7 +7338,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
@@ -7558,7 +7558,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353">
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358">
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -8898,7 +8898,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417">
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
@@ -9098,7 +9098,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
@@ -9238,7 +9238,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443">
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -9638,7 +9638,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
@@ -9698,7 +9698,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454">
@@ -9858,7 +9858,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -9958,7 +9958,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
@@ -10038,7 +10038,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472">
@@ -10318,7 +10318,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
@@ -10338,7 +10338,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
@@ -10518,7 +10518,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="495">
@@ -11258,7 +11258,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
@@ -11318,7 +11318,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -11518,7 +11518,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
@@ -11578,7 +11578,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
@@ -11738,7 +11738,7 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="560">
@@ -11898,7 +11898,7 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564">
@@ -11998,7 +11998,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569">
@@ -12038,7 +12038,7 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="571">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573">
@@ -12178,7 +12178,7 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="578">
@@ -12218,7 +12218,7 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
@@ -12398,7 +12398,7 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589">
@@ -12738,7 +12738,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="606">
@@ -12798,7 +12798,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="609">
@@ -12818,7 +12818,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="610">
@@ -12838,7 +12838,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="611">
@@ -12958,7 +12958,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="617">
@@ -12998,7 +12998,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="619">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="625">
@@ -13298,7 +13298,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="634">
@@ -13458,7 +13458,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="642">
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="646">
@@ -13658,7 +13658,7 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="652">
@@ -13678,7 +13678,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="653">
@@ -13758,7 +13758,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="657">
@@ -13858,7 +13858,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="662">
@@ -13878,7 +13878,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -13938,7 +13938,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="666">
@@ -13958,7 +13958,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="667">
@@ -14258,7 +14258,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682">
@@ -14478,7 +14478,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="693">
@@ -14638,7 +14638,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="701">
@@ -14718,7 +14718,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="705">
@@ -14838,7 +14838,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="711">
@@ -14858,7 +14858,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="712">
@@ -15138,7 +15138,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="726">
@@ -15198,7 +15198,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -15278,7 +15278,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="733">
@@ -15398,7 +15398,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="739">
@@ -15498,7 +15498,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="744">
@@ -15518,7 +15518,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="745">
@@ -15738,7 +15738,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756">
@@ -15818,7 +15818,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760">
@@ -16058,7 +16058,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="772">
@@ -16158,7 +16158,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777">
@@ -16178,7 +16178,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="778">
@@ -16238,7 +16238,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="781">
@@ -16298,7 +16298,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="784">
@@ -16318,7 +16318,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785">
@@ -16458,7 +16458,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="792">
@@ -16638,7 +16638,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801">
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803">
@@ -16778,7 +16778,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="808">
@@ -17158,7 +17158,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="827">
@@ -17358,7 +17358,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="837">
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="839">
@@ -17498,7 +17498,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="844">
@@ -17618,7 +17618,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850">
@@ -17738,7 +17738,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="856">
@@ -18218,7 +18218,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="880">
@@ -18358,7 +18358,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="887">
@@ -18418,7 +18418,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="890">
@@ -18458,7 +18458,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="892">
@@ -18798,7 +18798,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="909">
@@ -18858,7 +18858,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="912">
@@ -18898,7 +18898,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="914">
@@ -18998,7 +18998,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="919">
@@ -19178,7 +19178,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="928">
@@ -19278,7 +19278,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="933">
@@ -19338,7 +19338,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="936">
@@ -19358,7 +19358,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="937">
@@ -19598,7 +19598,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="949">
@@ -19638,7 +19638,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="951">
@@ -19678,7 +19678,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953">
@@ -19718,7 +19718,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="955">
@@ -19758,7 +19758,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957">
@@ -19798,7 +19798,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="959">
@@ -20118,7 +20118,7 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="975">
@@ -20218,7 +20218,7 @@
         </is>
       </c>
       <c r="D979" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="980">
@@ -20258,7 +20258,7 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="982">
@@ -20338,7 +20338,7 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="986">
@@ -20398,7 +20398,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="989">
@@ -20558,7 +20558,7 @@
         </is>
       </c>
       <c r="D996" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="997">
@@ -20598,7 +20598,7 @@
         </is>
       </c>
       <c r="D998" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="999">
@@ -20638,7 +20638,7 @@
         </is>
       </c>
       <c r="D1000" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1001">
@@ -20698,7 +20698,7 @@
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1004">
@@ -20758,7 +20758,7 @@
         </is>
       </c>
       <c r="D1006" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1007">
@@ -20938,7 +20938,7 @@
         </is>
       </c>
       <c r="D1015" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1016">
@@ -20978,7 +20978,7 @@
         </is>
       </c>
       <c r="D1017" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1018">
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="D1018" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1019">
@@ -21158,7 +21158,7 @@
         </is>
       </c>
       <c r="D1026" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1027">
@@ -21218,7 +21218,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1030">
@@ -21258,7 +21258,7 @@
         </is>
       </c>
       <c r="D1031" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1032">
@@ -21318,7 +21318,7 @@
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1035">
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1046">
@@ -21558,7 +21558,7 @@
         </is>
       </c>
       <c r="D1046" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1047">
@@ -21618,7 +21618,7 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1050">
@@ -21778,7 +21778,7 @@
         </is>
       </c>
       <c r="D1057" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1058">
@@ -21938,7 +21938,7 @@
         </is>
       </c>
       <c r="D1065" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1066">
@@ -21958,7 +21958,7 @@
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1067">
@@ -22118,7 +22118,7 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1075">
@@ -22278,7 +22278,7 @@
         </is>
       </c>
       <c r="D1082" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1083">
@@ -22318,7 +22318,7 @@
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085">
@@ -22398,7 +22398,7 @@
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1089">
@@ -22418,7 +22418,7 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1090">
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="D1090" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1091">
@@ -22618,7 +22618,7 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1100">
@@ -22698,7 +22698,7 @@
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1104">
@@ -22798,7 +22798,7 @@
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1109">
@@ -22958,7 +22958,7 @@
         </is>
       </c>
       <c r="D1116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1117">
@@ -22978,7 +22978,7 @@
         </is>
       </c>
       <c r="D1117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1118">
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="D1126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1127">
@@ -23258,7 +23258,7 @@
         </is>
       </c>
       <c r="D1131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1132">
@@ -23578,7 +23578,7 @@
         </is>
       </c>
       <c r="D1147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1148">
@@ -23618,7 +23618,7 @@
         </is>
       </c>
       <c r="D1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150">
@@ -23638,7 +23638,7 @@
         </is>
       </c>
       <c r="D1150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1151">
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="D1153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1154">
@@ -23738,7 +23738,7 @@
         </is>
       </c>
       <c r="D1155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1156">
@@ -23838,7 +23838,7 @@
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1161">
@@ -23858,7 +23858,7 @@
         </is>
       </c>
       <c r="D1161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1162">
@@ -24138,7 +24138,7 @@
         </is>
       </c>
       <c r="D1175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1176">
@@ -24218,7 +24218,7 @@
         </is>
       </c>
       <c r="D1179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1180">
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="D1180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1181">
@@ -24278,7 +24278,7 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1183">
@@ -24338,7 +24338,7 @@
         </is>
       </c>
       <c r="D1185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1186">
@@ -24498,7 +24498,7 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1194">
@@ -24518,7 +24518,7 @@
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1195">
@@ -24678,7 +24678,7 @@
         </is>
       </c>
       <c r="D1202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1203">
@@ -24698,7 +24698,7 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1204">
@@ -24798,7 +24798,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1209">
@@ -25098,7 +25098,7 @@
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1224">
@@ -25138,7 +25138,7 @@
         </is>
       </c>
       <c r="D1225" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1226">
@@ -25198,7 +25198,7 @@
         </is>
       </c>
       <c r="D1228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1229">
@@ -25238,7 +25238,7 @@
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1231">
@@ -25278,7 +25278,7 @@
         </is>
       </c>
       <c r="D1232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1233">
@@ -25718,7 +25718,7 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1255">
@@ -25798,7 +25798,7 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1259">
@@ -25918,7 +25918,7 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1265">
@@ -25958,7 +25958,7 @@
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1267">
@@ -25978,7 +25978,7 @@
         </is>
       </c>
       <c r="D1267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1268">
@@ -26018,7 +26018,7 @@
         </is>
       </c>
       <c r="D1269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1270">
@@ -26058,7 +26058,7 @@
         </is>
       </c>
       <c r="D1271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1272">
@@ -26178,7 +26178,7 @@
         </is>
       </c>
       <c r="D1277" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1278">
@@ -26218,7 +26218,7 @@
         </is>
       </c>
       <c r="D1279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1280">
@@ -26378,7 +26378,7 @@
         </is>
       </c>
       <c r="D1287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1288">
@@ -26458,7 +26458,7 @@
         </is>
       </c>
       <c r="D1291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1292">
@@ -26598,7 +26598,7 @@
         </is>
       </c>
       <c r="D1298" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1299">
@@ -26818,7 +26818,7 @@
         </is>
       </c>
       <c r="D1309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1310">
@@ -26938,7 +26938,7 @@
         </is>
       </c>
       <c r="D1315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1316">
@@ -26998,7 +26998,7 @@
         </is>
       </c>
       <c r="D1318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1319">
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="D1324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1325">
@@ -27178,7 +27178,7 @@
         </is>
       </c>
       <c r="D1327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1328">
@@ -27338,7 +27338,7 @@
         </is>
       </c>
       <c r="D1335" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1336">
@@ -27402,7 +27402,7 @@
         </is>
       </c>
       <c r="D1337" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1338">
@@ -27422,7 +27422,7 @@
         </is>
       </c>
       <c r="D1338" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1339">
@@ -27462,7 +27462,7 @@
         </is>
       </c>
       <c r="D1340" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1341">
@@ -27493,7 +27493,7 @@
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>불편부당| 어느 KSWHR으로 치우치지 않아 아주 공정감</t>
+          <t>불편부당| 어느 쪽으로 치우치지 않아 아주 공정함</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
@@ -27502,7 +27502,7 @@
         </is>
       </c>
       <c r="D1342" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1343">
@@ -27542,7 +27542,7 @@
         </is>
       </c>
       <c r="D1344" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D227168-B4B6-4A93-9F48-1BE6F60BFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C03F2BB-1C45-4209-8E1F-B8DEC18FC413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="2627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="2685">
   <si>
     <t>질문</t>
   </si>
@@ -8203,6 +8203,237 @@
   </si>
   <si>
     <t>자중지란| 같은 편 사이에서 일어나는 혼란이나 난리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累卵之勢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>누란지세</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鯨戰蝦死</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경전하사| 고래 싸움에 새우 등 터진다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>識字憂患</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>식자우환</t>
+  </si>
+  <si>
+    <t>殃及池魚</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙급지어| 재앙이 연못 속 고기에 미친다. 까닭 없이 화를 당함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一望無際</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일망무제| 아득히 멀어서 끝이 없음. 아득하게 끝없이 멀어 눈을 가리는 것이 없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支離滅裂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지리멸렬| 이리저리 흩어지고 찢기어 갈피를 잡을 수 없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>千慮一失</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>천려일실| 천 번 생각에 한 번 실수. 슬기로운 사람이라도 여러 가지 생각 가운데에는 잘못되는 것이 있을 수 있음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻苦勉勵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>각고면려| 어떤 일에 고생을 무릅쓰고 몸과 마음을 다하여, 무척 애를 쓰면서 부지런히 노력함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>進退維谷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>진퇴유곡| 이러지도 저러지도 못하고 꼼짝할 수 없는 궁지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>送舊迎新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>송구영신| 묵은 해를 보내고 새해를 맞음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑麻之交</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상마지교| 뽕나무와 삼나무를 벗 삼아 지낸다. 전원에 은거하여 시골 사람들과 사귀며 지냄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠漆之交</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>교칠지교| 아주 친밀하여 떨어질 수 없는 사이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉禍爲福</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화위복| 재앙과 근심, 걱정이 바뀌어 오히려 복이 됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲速不達</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕속부달| 일을 빨리하려고 하면 도리어 이루지 못함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>心心相印</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>심심상인| 말없이 마음과 마음으로 뜻을 전함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>樵童汲婦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초동급부| 평범한 사람</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夫唱婦隨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>부창부수| 남편이 주장하고 아내가 이에 잘 따름. 부부 사이의 도리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>善男善女</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선남선녀| 불교에 귀의한 남자와 여자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同氣相求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기상구| 같은 소리끼리는 서로 응하여 울린다는 뜻. 같은 무리끼리 서로 통하고 모인다는 말</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同聲異俗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동성이속| 사람이 날 때는 다 같은 소리를 가지고 있으나 자라면서 그 나라의 풍속으로 인해 서로 달라짐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空理空論</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공리공론| 실천이 따르지 아니하는, 헛된 이론이나 논의</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>實事求是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실사구시| 고증의 정확성을 존중하는 과학적, 객관주의적 학문 태도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用厚生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용후생| 기구를 편리하게 쓰고 먹을 것과 입을 것을 넉넉하게 하여, 국민의 생활을 나아지게 함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主權在民</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주권재민| 나라의 주권이 국민에게 있음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一敗塗地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일패도지| 여지없이 패하여 다시 일어날 수 없게 됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首鼠兩端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서양단| 머뭇거리며 진퇴나 거취를 정하지 못하는 상태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宦海風波</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>환해풍파| 벼슬살이에서 겪는 온갖 험한 일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩寡分悲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양과분비| 두 과부가 슬픔을 서로 나눈다. 같은 처지에 있는 사람끼리 서로 동정함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口如懸河</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구여현하| 입이 흐르는 물과 같다. 거침없이 말을 잘함.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -8609,11 +8840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1328"/>
+  <dimension ref="A1:D1357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1329" sqref="A1329"/>
+      <pane ySplit="1" topLeftCell="A1344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1358" sqref="B1358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -27086,6 +27317,9 @@
       <c r="B1322" s="2" t="s">
         <v>2614</v>
       </c>
+      <c r="C1322" s="2" t="s">
+        <v>2598</v>
+      </c>
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1323" s="2" t="s">
@@ -27094,6 +27328,9 @@
       <c r="B1323" s="2" t="s">
         <v>2616</v>
       </c>
+      <c r="C1323" s="2" t="s">
+        <v>2598</v>
+      </c>
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1324" s="2" t="s">
@@ -27102,6 +27339,9 @@
       <c r="B1324" s="2" t="s">
         <v>2618</v>
       </c>
+      <c r="C1324" s="2" t="s">
+        <v>2598</v>
+      </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1325" s="2" t="s">
@@ -27110,6 +27350,9 @@
       <c r="B1325" s="2" t="s">
         <v>2620</v>
       </c>
+      <c r="C1325" s="2" t="s">
+        <v>2598</v>
+      </c>
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1326" s="2" t="s">
@@ -27118,6 +27361,9 @@
       <c r="B1326" s="2" t="s">
         <v>2622</v>
       </c>
+      <c r="C1326" s="2" t="s">
+        <v>2598</v>
+      </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1327" s="2" t="s">
@@ -27126,6 +27372,9 @@
       <c r="B1327" s="2" t="s">
         <v>2624</v>
       </c>
+      <c r="C1327" s="2" t="s">
+        <v>2598</v>
+      </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1328" s="2" t="s">
@@ -27133,6 +27382,301 @@
       </c>
       <c r="B1328" s="2" t="s">
         <v>2626</v>
+      </c>
+      <c r="C1328" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1329" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B1329" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1329" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1330" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B1330" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1330" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1331" s="2" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1331" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1331" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1332" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1332" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1332" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1333" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B1333" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1333" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1334" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B1334" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1334" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1335" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B1335" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1335" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1336" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B1336" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1336" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1337" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1337" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1337" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1338" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1338" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C1338" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1339" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1339" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C1339" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1340" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1340" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1340" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1341" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1341" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1341" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1342" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1342" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1342" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1343" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1343" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1343" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1344" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1344" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C1344" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1345" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1345" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1345" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1346" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B1346" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1346" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1347" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1347" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C1347" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1348" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B1348" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C1348" s="2" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1349" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B1349" s="2" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1350" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B1350" s="2" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1351" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B1351" s="2" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1352" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B1352" s="2" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1353" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1353" s="2" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1354" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B1354" s="2" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1355" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B1355" s="2" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1356" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1356" s="2" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1357" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B1357" s="2" t="s">
+        <v>2684</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="31">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="37">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="52">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="55">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="71">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="82">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="95">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="109">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="112">
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="124">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="125">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="127">
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="135">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="137">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="142">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="146">
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="148">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="152">
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="155">
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="156">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="158">
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="167">
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="171">
@@ -4269,7 +4269,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="183">
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="188">
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="191">
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="193">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="198">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="200">
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="206">
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="210">
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="221">
@@ -5149,7 +5149,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="227">
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="228">
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="235">
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="236">
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="237">
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="242">
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="247">
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="250">
@@ -5769,7 +5769,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="258">
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="259">
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="264">
@@ -6069,7 +6069,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="278">
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="279">
@@ -6209,7 +6209,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="280">
@@ -6249,7 +6249,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="282">
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="283">
@@ -6509,7 +6509,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="295">
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="297">
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="298">
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="300">
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="307">
@@ -6849,7 +6849,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="312">
@@ -6869,7 +6869,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="313">
@@ -6949,7 +6949,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="317">
@@ -7009,7 +7009,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="320">
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="322">
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="325">
@@ -7129,7 +7129,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="326">
@@ -7249,7 +7249,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -7309,7 +7309,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="335">
@@ -7409,7 +7409,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="340">
@@ -7469,7 +7469,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="343">
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="346">
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="347">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="357">
@@ -7769,7 +7769,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="358">
@@ -7809,7 +7809,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="360">
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="366">
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="368">
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="371">
@@ -8169,7 +8169,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="378">
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="403">
@@ -8729,7 +8729,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="406">
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
@@ -8869,7 +8869,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="413">
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="424">
@@ -9129,7 +9129,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="426">
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="429">
@@ -9269,7 +9269,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="433">
@@ -9329,7 +9329,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="436">
@@ -9469,7 +9469,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="443">
@@ -9589,7 +9589,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="449">
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="450">
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="451">
@@ -9989,7 +9989,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="469">
@@ -10089,7 +10089,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="474">
@@ -10109,7 +10109,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="475">
@@ -10169,7 +10169,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="478">
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="481">
@@ -10309,7 +10309,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="485">
@@ -10469,7 +10469,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
@@ -10489,7 +10489,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="494">
@@ -10729,7 +10729,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="506">
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="513">
@@ -10969,7 +10969,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="518">
@@ -11029,7 +11029,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="521">
@@ -11049,7 +11049,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="522">
@@ -11069,7 +11069,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="523">
@@ -11149,7 +11149,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="527">
@@ -11169,7 +11169,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="528">
@@ -11269,7 +11269,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533">
@@ -11329,7 +11329,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="536">
@@ -11409,7 +11409,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="540">
@@ -11469,7 +11469,7 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="543">
@@ -11609,7 +11609,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="550">
@@ -11869,7 +11869,7 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="563">
@@ -11929,7 +11929,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="566">
@@ -11989,7 +11989,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="569">
@@ -12029,7 +12029,7 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="571">
@@ -12329,7 +12329,7 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="586">
@@ -12349,7 +12349,7 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="587">
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="591">
@@ -12489,7 +12489,7 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="594">
@@ -12689,7 +12689,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="604">
@@ -12769,7 +12769,7 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="608">
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="609">
@@ -12829,7 +12829,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="611">
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="616">
@@ -12949,7 +12949,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="617">
@@ -12969,7 +12969,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="618">
@@ -13109,7 +13109,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="625">
@@ -13169,7 +13169,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="628">
@@ -13249,7 +13249,7 @@
         </is>
       </c>
       <c r="D631" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="632">
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="638">
@@ -13409,7 +13409,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="640">
@@ -13449,7 +13449,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="642">
@@ -13549,7 +13549,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="647">
@@ -13569,7 +13569,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="648">
@@ -13669,7 +13669,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="653">
@@ -13809,7 +13809,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="660">
@@ -13829,7 +13829,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="661">
@@ -13929,7 +13929,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="666">
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="675">
@@ -14169,7 +14169,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="678">
@@ -14389,7 +14389,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="689">
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="693">
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="699">
@@ -14849,7 +14849,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="712">
@@ -14909,7 +14909,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="715">
@@ -15029,7 +15029,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="721">
@@ -15049,7 +15049,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="722">
@@ -15069,7 +15069,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="723">
@@ -15089,7 +15089,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="724">
@@ -15129,7 +15129,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="726">
@@ -15169,7 +15169,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="728">
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="729">
@@ -15209,7 +15209,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="730">
@@ -15329,7 +15329,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="736">
@@ -15409,7 +15409,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="740">
@@ -15589,7 +15589,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="749">
@@ -15649,7 +15649,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="752">
@@ -15809,7 +15809,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -15869,7 +15869,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="763">
@@ -16149,7 +16149,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="777">
@@ -16429,7 +16429,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="791">
@@ -16449,7 +16449,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="792">
@@ -16489,7 +16489,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="794">
@@ -17029,7 +17029,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="821">
@@ -17229,7 +17229,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="831">
@@ -17249,7 +17249,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="832">
@@ -17409,7 +17409,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="840">
@@ -17449,7 +17449,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="842">
@@ -17629,7 +17629,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="851">
@@ -17669,7 +17669,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="853">
@@ -17769,7 +17769,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="858">
@@ -17809,7 +17809,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="860">
@@ -17909,7 +17909,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="865">
@@ -17949,7 +17949,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="867">
@@ -18329,7 +18329,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="886">
@@ -18389,7 +18389,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="889">
@@ -18449,7 +18449,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="892">
@@ -18769,7 +18769,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="908">
@@ -18789,7 +18789,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="909">
@@ -18809,7 +18809,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="910">
@@ -18869,7 +18869,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="913">
@@ -18969,7 +18969,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="918">
@@ -19409,7 +19409,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="940">
@@ -19449,7 +19449,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="942">
@@ -19549,7 +19549,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="947">
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="951">
@@ -19649,7 +19649,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="952">
@@ -19709,7 +19709,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="955">
@@ -19749,7 +19749,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="957">
@@ -19789,7 +19789,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="959">
@@ -19809,7 +19809,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="960">
@@ -19869,7 +19869,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="963">
@@ -19929,7 +19929,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="966">
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="969">
@@ -20149,7 +20149,7 @@
         </is>
       </c>
       <c r="D976" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="977">
@@ -20429,7 +20429,7 @@
         </is>
       </c>
       <c r="D990" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="991">
@@ -20469,7 +20469,7 @@
         </is>
       </c>
       <c r="D992" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="993">
@@ -20509,7 +20509,7 @@
         </is>
       </c>
       <c r="D994" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="995">
@@ -20589,7 +20589,7 @@
         </is>
       </c>
       <c r="D998" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="999">
@@ -20689,7 +20689,7 @@
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1004">
@@ -20729,7 +20729,7 @@
         </is>
       </c>
       <c r="D1005" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1006">
@@ -20849,7 +20849,7 @@
         </is>
       </c>
       <c r="D1011" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1012">
@@ -20869,7 +20869,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1013">
@@ -21049,7 +21049,7 @@
         </is>
       </c>
       <c r="D1021" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1022">
@@ -21089,7 +21089,7 @@
         </is>
       </c>
       <c r="D1023" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1024">
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1035">
@@ -21389,7 +21389,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039">
@@ -21469,7 +21469,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1043">
@@ -21529,7 +21529,7 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1046">
@@ -21549,7 +21549,7 @@
         </is>
       </c>
       <c r="D1046" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1047">
@@ -21569,7 +21569,7 @@
         </is>
       </c>
       <c r="D1047" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1048">
@@ -21609,7 +21609,7 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1050">
@@ -21709,7 +21709,7 @@
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1055">
@@ -21749,7 +21749,7 @@
         </is>
       </c>
       <c r="D1056" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1057">
@@ -21809,7 +21809,7 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1060">
@@ -21849,7 +21849,7 @@
         </is>
       </c>
       <c r="D1061" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1062">
@@ -21929,7 +21929,7 @@
         </is>
       </c>
       <c r="D1065" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1066">
@@ -22029,7 +22029,7 @@
         </is>
       </c>
       <c r="D1070" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1071">
@@ -22129,7 +22129,7 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1076">
@@ -22269,7 +22269,7 @@
         </is>
       </c>
       <c r="D1082" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1083">
@@ -22469,7 +22469,7 @@
         </is>
       </c>
       <c r="D1092" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1093">
@@ -22589,7 +22589,7 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1099">
@@ -22669,7 +22669,7 @@
         </is>
       </c>
       <c r="D1102" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1103">
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="D1106" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1107">
@@ -22849,7 +22849,7 @@
         </is>
       </c>
       <c r="D1111" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1112">
@@ -23009,7 +23009,7 @@
         </is>
       </c>
       <c r="D1119" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1120">
@@ -23029,7 +23029,7 @@
         </is>
       </c>
       <c r="D1120" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1121">
@@ -23349,7 +23349,7 @@
         </is>
       </c>
       <c r="D1136" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1137">
@@ -23409,7 +23409,7 @@
         </is>
       </c>
       <c r="D1139" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1140">
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="D1142" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1143">
@@ -23489,7 +23489,7 @@
         </is>
       </c>
       <c r="D1143" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1144">
@@ -23509,7 +23509,7 @@
         </is>
       </c>
       <c r="D1144" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1145">
@@ -23549,7 +23549,7 @@
         </is>
       </c>
       <c r="D1146" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1147">
@@ -23569,7 +23569,7 @@
         </is>
       </c>
       <c r="D1147" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1148">
@@ -23669,7 +23669,7 @@
         </is>
       </c>
       <c r="D1152" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1153">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="D1163" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1164">
@@ -24129,7 +24129,7 @@
         </is>
       </c>
       <c r="D1175" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1176">
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D1184" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1185">
@@ -24369,7 +24369,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1188">
@@ -24409,7 +24409,7 @@
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1190">
@@ -24449,7 +24449,7 @@
         </is>
       </c>
       <c r="D1191" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1192">
@@ -24469,7 +24469,7 @@
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1193">
@@ -24489,7 +24489,7 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1194">
@@ -24569,7 +24569,7 @@
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1198">
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D1202" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1203">
@@ -24689,7 +24689,7 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1204">
@@ -24849,7 +24849,7 @@
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1212">
@@ -24929,7 +24929,7 @@
         </is>
       </c>
       <c r="D1215" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1216">
@@ -24969,7 +24969,7 @@
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1218">
@@ -24989,7 +24989,7 @@
         </is>
       </c>
       <c r="D1218" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1219">
@@ -25189,7 +25189,7 @@
         </is>
       </c>
       <c r="D1228" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1229">
@@ -25229,7 +25229,7 @@
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1231">
@@ -25329,7 +25329,7 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1236">
@@ -25449,7 +25449,7 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1242">
@@ -25489,7 +25489,7 @@
         </is>
       </c>
       <c r="D1243" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1244">
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1257">
@@ -25769,7 +25769,7 @@
         </is>
       </c>
       <c r="D1257" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1258">
@@ -25889,7 +25889,7 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1264">
@@ -26049,7 +26049,7 @@
         </is>
       </c>
       <c r="D1271" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1272">
@@ -26089,7 +26089,7 @@
         </is>
       </c>
       <c r="D1273" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1274">
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D1274" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1275">
@@ -26129,7 +26129,7 @@
         </is>
       </c>
       <c r="D1275" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1276">
@@ -26289,7 +26289,7 @@
         </is>
       </c>
       <c r="D1283" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1284">
@@ -26309,7 +26309,7 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1285">
@@ -26329,7 +26329,7 @@
         </is>
       </c>
       <c r="D1285" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1286">
@@ -26429,7 +26429,7 @@
         </is>
       </c>
       <c r="D1290" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1291">
@@ -26449,7 +26449,7 @@
         </is>
       </c>
       <c r="D1291" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1292">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D1292" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1293">
@@ -26569,7 +26569,7 @@
         </is>
       </c>
       <c r="D1297" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1298">
@@ -26753,7 +26753,7 @@
         </is>
       </c>
       <c r="D1305" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1306">
@@ -26813,7 +26813,7 @@
         </is>
       </c>
       <c r="D1308" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1309">
@@ -26873,7 +26873,7 @@
         </is>
       </c>
       <c r="D1311" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1312">
@@ -26913,7 +26913,7 @@
         </is>
       </c>
       <c r="D1313" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1314">
@@ -26953,7 +26953,7 @@
         </is>
       </c>
       <c r="D1315" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1316">
@@ -27093,7 +27093,7 @@
         </is>
       </c>
       <c r="D1322" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1323">
@@ -27253,7 +27253,7 @@
         </is>
       </c>
       <c r="D1330" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1331">
@@ -27473,7 +27473,7 @@
         </is>
       </c>
       <c r="D1341" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1342">
@@ -27553,7 +27553,7 @@
         </is>
       </c>
       <c r="D1345" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1346">
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="D1346" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1347">
@@ -27633,7 +27633,7 @@
         </is>
       </c>
       <c r="D1349" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1350">
@@ -27673,7 +27673,7 @@
         </is>
       </c>
       <c r="D1351" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1352">
@@ -27973,7 +27973,7 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1367">
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D1370" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1371">
@@ -28093,7 +28093,7 @@
         </is>
       </c>
       <c r="D1372" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1373">
@@ -28153,7 +28153,7 @@
         </is>
       </c>
       <c r="D1375" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1376">
@@ -28213,7 +28213,7 @@
         </is>
       </c>
       <c r="D1378" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1379">
@@ -28313,7 +28313,7 @@
         </is>
       </c>
       <c r="D1383" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="40">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="57">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="58">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="64">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="100">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="134">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="165">
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="166">
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="179">
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="189">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="198">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="249">
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="264">
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="297">
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="300">
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="307">
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="311">
@@ -7489,7 +7489,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="344">
@@ -7809,7 +7809,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="360">
@@ -8309,7 +8309,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="385">
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -8589,7 +8589,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="399">
@@ -9009,7 +9009,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="420">
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="428">
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="439">
@@ -9489,7 +9489,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="451">
@@ -10069,7 +10069,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="473">
@@ -10389,7 +10389,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="489">
@@ -10789,7 +10789,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="509">
@@ -11049,7 +11049,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="522">
@@ -11169,7 +11169,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="528">
@@ -11329,7 +11329,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="536">
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="554">
@@ -11929,7 +11929,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="566">
@@ -12689,7 +12689,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="604">
@@ -12909,7 +12909,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="615">
@@ -13009,7 +13009,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -13289,7 +13289,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="634">
@@ -13329,7 +13329,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="636">
@@ -13849,7 +13849,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="662">
@@ -13969,7 +13969,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="668">
@@ -14249,7 +14249,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="682">
@@ -14309,7 +14309,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="685">
@@ -14409,7 +14409,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="690">
@@ -15129,7 +15129,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="726">
@@ -15809,7 +15809,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760">
@@ -15869,7 +15869,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="763">
@@ -15929,7 +15929,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766">
@@ -16169,7 +16169,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="778">
@@ -16869,7 +16869,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="813">
@@ -17049,7 +17049,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="822">
@@ -17329,7 +17329,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="836">
@@ -17549,7 +17549,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="847">
@@ -17629,7 +17629,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="851">
@@ -18369,7 +18369,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="888">
@@ -18929,7 +18929,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="916">
@@ -19929,7 +19929,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="966">
@@ -20029,7 +20029,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="971">
@@ -20549,7 +20549,7 @@
         </is>
       </c>
       <c r="D996" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="997">
@@ -21389,7 +21389,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1039">
@@ -21609,7 +21609,7 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="1050">
@@ -21949,7 +21949,7 @@
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1067">
@@ -22589,7 +22589,7 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="1099">
@@ -23509,7 +23509,7 @@
         </is>
       </c>
       <c r="D1144" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1145">
@@ -24649,7 +24649,7 @@
         </is>
       </c>
       <c r="D1201" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1202">
@@ -24809,7 +24809,7 @@
         </is>
       </c>
       <c r="D1209" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1210">
@@ -25129,7 +25129,7 @@
         </is>
       </c>
       <c r="D1225" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1226">
@@ -25329,7 +25329,7 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1236">
@@ -25509,7 +25509,7 @@
         </is>
       </c>
       <c r="D1244" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1245">
@@ -25969,7 +25969,7 @@
         </is>
       </c>
       <c r="D1267" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1268">
@@ -26309,7 +26309,7 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1285">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D1292" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1293">
@@ -26953,7 +26953,7 @@
         </is>
       </c>
       <c r="D1315" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1316">
@@ -27013,7 +27013,7 @@
         </is>
       </c>
       <c r="D1318" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1319">
@@ -27233,7 +27233,7 @@
         </is>
       </c>
       <c r="D1329" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1330">
@@ -27873,7 +27873,7 @@
         </is>
       </c>
       <c r="D1361" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1362">
@@ -28233,7 +28233,7 @@
         </is>
       </c>
       <c r="D1379" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1380">

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178">
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327">
@@ -7368,7 +7368,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
@@ -7548,7 +7548,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362">
@@ -7898,7 +7898,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -8964,7 +8964,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
@@ -9204,7 +9204,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438">
@@ -9224,7 +9224,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
@@ -9364,7 +9364,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
@@ -9930,7 +9930,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
@@ -10230,7 +10230,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489">
@@ -10515,7 +10515,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
@@ -10555,7 +10555,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
@@ -10717,7 +10717,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
@@ -10777,7 +10777,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="516">
@@ -10837,7 +10837,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
@@ -11289,7 +11289,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
@@ -11409,7 +11409,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
@@ -11489,7 +11489,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584">
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="660">
@@ -13841,7 +13841,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
@@ -14026,7 +14026,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="675">
@@ -14252,7 +14252,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686">
@@ -14352,7 +14352,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="691">
@@ -14726,7 +14726,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="709">
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="711">
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="714">
@@ -14920,7 +14920,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="718">
@@ -15042,7 +15042,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="724">
@@ -15122,7 +15122,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="728">
@@ -15142,7 +15142,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="729">
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="730">
@@ -15353,7 +15353,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="739">
@@ -15441,7 +15441,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="743">
@@ -15461,7 +15461,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="744">
@@ -15501,7 +15501,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="746">
@@ -15628,7 +15628,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="752">
@@ -15695,7 +15695,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="755">
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="757">
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="761">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="762">
@@ -15932,7 +15932,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766">
@@ -15972,7 +15972,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768">
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="770">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774">
@@ -16182,7 +16182,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="778">
@@ -16202,7 +16202,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779">
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="782">
@@ -16304,7 +16304,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="784">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="786">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="794">
@@ -16695,7 +16695,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802">
@@ -16805,7 +16805,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807">
@@ -17329,7 +17329,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831">
@@ -17394,7 +17394,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="834">
@@ -17556,7 +17556,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="842">
@@ -17576,7 +17576,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="843">
@@ -17658,7 +17658,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="847">
@@ -17788,7 +17788,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="853">
@@ -17895,7 +17895,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="858">
@@ -17975,7 +17975,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="862">
@@ -18055,7 +18055,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="866">
@@ -18075,7 +18075,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="867">
@@ -18335,7 +18335,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="880">
@@ -18455,7 +18455,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="886">
@@ -18495,7 +18495,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="888">
@@ -18515,7 +18515,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="889">
@@ -18675,7 +18675,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="897">
@@ -18775,7 +18775,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="902">
@@ -18815,7 +18815,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="904">
@@ -18915,7 +18915,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="909">
@@ -18975,7 +18975,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="912">
@@ -19235,7 +19235,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="925">
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="929">
@@ -19415,7 +19415,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="934">
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="940">
@@ -19555,7 +19555,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="941">
@@ -19655,7 +19655,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="946">
@@ -19775,7 +19775,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="952">
@@ -19895,7 +19895,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="958">
@@ -19935,7 +19935,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="960">
@@ -19955,7 +19955,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="961">
@@ -20055,7 +20055,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="966">
@@ -20095,7 +20095,7 @@
         </is>
       </c>
       <c r="D967" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="968">
@@ -20115,7 +20115,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="969">
@@ -20175,7 +20175,7 @@
         </is>
       </c>
       <c r="D971" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="972">
@@ -20235,7 +20235,7 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="975">
@@ -20275,7 +20275,7 @@
         </is>
       </c>
       <c r="D976" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="977">
@@ -20375,7 +20375,7 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="982">
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="D982" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="983">
@@ -20575,7 +20575,7 @@
         </is>
       </c>
       <c r="D991" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="992">
@@ -20675,7 +20675,7 @@
         </is>
       </c>
       <c r="D996" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="997">
@@ -20795,7 +20795,7 @@
         </is>
       </c>
       <c r="D1002" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1003">
@@ -21015,7 +21015,7 @@
         </is>
       </c>
       <c r="D1013" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1014">
@@ -21035,7 +21035,7 @@
         </is>
       </c>
       <c r="D1014" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1015">
@@ -21075,7 +21075,7 @@
         </is>
       </c>
       <c r="D1016" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1017">
@@ -21175,7 +21175,7 @@
         </is>
       </c>
       <c r="D1021" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1022">
@@ -21335,7 +21335,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1030">
@@ -21375,7 +21375,7 @@
         </is>
       </c>
       <c r="D1031" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1032">
@@ -21395,7 +21395,7 @@
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1033">
@@ -21635,7 +21635,7 @@
         </is>
       </c>
       <c r="D1044" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1045">
@@ -21655,7 +21655,7 @@
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1046">
@@ -21735,7 +21735,7 @@
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1050">
@@ -21775,7 +21775,7 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1052">
@@ -21855,7 +21855,7 @@
         </is>
       </c>
       <c r="D1055" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1056">
@@ -22055,7 +22055,7 @@
         </is>
       </c>
       <c r="D1065" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1066">
@@ -22095,7 +22095,7 @@
         </is>
       </c>
       <c r="D1067" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1068">
@@ -22475,7 +22475,7 @@
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1087">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1089">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1096">
@@ -22695,7 +22695,7 @@
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1098">
@@ -22775,7 +22775,7 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한자.xlsx
+++ b/학습자료/단답형/한자.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165">
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170">
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192">
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -4340,7 +4340,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
@@ -4380,7 +4380,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>(다를 이, 항상 상), 정상이 아닌 상태</t>
+          <t>이상, 정상이 아닌 상태| (다를 이, 항상 상)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>(다를 이, 형상 상 ), 평소와는 다른 상태</t>
+          <t>이상, 평소와는 다른 상태| (다를 이, 형상 상)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>(이룰 성, 길 장), 사람이나 동식물 따위가 자라서 점점 커짐</t>
+          <t>성장, 사람이나 동식물 따위가 자라서 점점 커짐| (이룰 성, 길 장)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>(성장-성할 성,꾸밀 장) , 얼굴과 몸의 꾸밈을 화려하게 함</t>
+          <t>성장 , 얼굴과 몸의 꾸밈을 화려하게 함| (성할 성,꾸밀 장)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309">
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319">
@@ -6828,7 +6828,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -6928,7 +6928,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -7268,7 +7268,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346">
@@ -7388,7 +7388,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
@@ -7468,7 +7468,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
@@ -7694,7 +7694,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
@@ -7734,7 +7734,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365">
@@ -7834,7 +7834,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379">
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
@@ -8220,7 +8220,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389">
@@ -8240,7 +8240,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
@@ -8280,7 +8280,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392">
@@ -8564,7 +8564,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406">
@@ -8584,7 +8584,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
@@ -8644,7 +8644,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410">
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
@@ -8864,7 +8864,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
@@ -8904,7 +8904,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423">
@@ -8924,7 +8924,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
@@ -9024,7 +9024,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456">
@@ -9610,7 +9610,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458">
@@ -9690,7 +9690,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
@@ -9770,7 +9770,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
@@ -9810,7 +9810,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
@@ -10190,7 +10190,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
@@ -10350,7 +10350,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="495">
@@ -10535,7 +10535,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507">
@@ -10697,7 +10697,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
@@ -10757,7 +10757,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="515">
@@ -10783,12 +10783,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>이 선수가 앞으로 한국 신기록을 갱신(更新)할 것으로 기대됩니다</t>
+          <t>이 선수가 앞으로 한국 신기록을 경신(更新)할 것으로 기대됩니다</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>갱신//경신</t>
+          <t>경신//갱신</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -10979,7 +10979,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526">
@@ -10999,7 +10999,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527">
@@ -11187,7 +11187,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536">
@@ -11247,7 +11247,7 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="539">
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
@@ -11360,7 +11360,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>하강| 내릴(강) 가지런할(등), 등급이나 계급을 내린다</t>
+          <t>강등| 내릴(강) 가지런할(등), 등급이나 계급을 내린다</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -11449,7 +11449,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
@@ -11469,7 +11469,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="555">
@@ -11593,7 +11593,7 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
@@ -11615,7 +11615,7 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
@@ -11697,7 +11697,7 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
@@ -11777,7 +11777,7 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565">
@@ -11797,7 +11797,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="566">
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573">
@@ -12031,7 +12031,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="577">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="579">
@@ -12131,7 +12131,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582">
@@ -12151,7 +12151,7 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
@@ -12279,7 +12279,7 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589">
@@ -12733,7 +12733,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="611">
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="618">
@@ -12895,7 +12895,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="619">
@@ -12917,7 +12917,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="620">
@@ -12939,7 +12939,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="621">
@@ -13081,7 +13081,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="628">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630">
@@ -13181,7 +13181,7 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633">
@@ -13201,7 +13201,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="634">
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="641">
@@ -13601,7 +13601,7 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="654">
@@ -13701,7 +13701,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="659">
@@ -13781,7 +13781,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663">
@@ -13861,7 +13861,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="667">
@@ -13881,7 +13881,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="668">
@@ -13983,7 +13983,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="673">
@@ -14005,7 +14005,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="674">
@@ -14048,7 +14048,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="676">
@@ -14070,7 +14070,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="677">
@@ -14130,7 +14130,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680">
@@ -14192,7 +14192,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683">
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="685">
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="693">
@@ -14436,7 +14436,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="695">
@@ -14478,7 +14478,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="697">
@@ -14498,7 +14498,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="698">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="707">
@@ -14748,7 +14748,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="710">
@@ -14810,7 +14810,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="713">
@@ -14853,7 +14853,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="715">
@@ -14876,7 +14876,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="716">
@@ -14940,7 +14940,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="719">
@@ -14960,7 +14960,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="720">
@@ -14980,7 +14980,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="721">
@@ -15000,7 +15000,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="722">
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="723">
@@ -15062,7 +15062,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="725">
@@ -15082,7 +15082,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="726">
@@ -15182,7 +15182,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="731">
@@ -15267,7 +15267,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="735">
@@ -15331,7 +15331,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="738">
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741">
@@ -15481,7 +15481,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="745">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="747">
@@ -15541,7 +15541,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="748">
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="749">
@@ -15606,7 +15606,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="751">
@@ -15651,7 +15651,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="753">
@@ -15673,7 +15673,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754">
@@ -15761,7 +15761,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="758">
@@ -15804,7 +15804,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760">
@@ -15952,7 +15952,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767">
@@ -16244,7 +16244,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="781">
@@ -16284,7 +16284,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="783">
@@ -16324,7 +16324,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785">
@@ -16392,7 +16392,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="788">
@@ -16437,7 +16437,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="790">
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="793">
@@ -16545,7 +16545,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="795">
@@ -16568,7 +16568,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796">
@@ -16652,7 +16652,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800">
@@ -16674,7 +16674,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801">
@@ -16717,7 +16717,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803">
@@ -16783,7 +16783,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="806">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="808">
@@ -16872,7 +16872,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="810">
@@ -16914,7 +16914,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="812">
@@ -16936,7 +16936,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="813">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816">
@@ -17025,7 +17025,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="817">
@@ -17048,7 +17048,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="818">
@@ -17068,7 +17068,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="819">
@@ -17089,7 +17089,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="820">
@@ -17131,7 +17131,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="822">
@@ -17151,7 +17151,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="823">
@@ -17173,7 +17173,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="824">
@@ -17195,7 +17195,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="825">
@@ -17217,7 +17217,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="826">
@@ -17240,7 +17240,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="827">
@@ -17285,7 +17285,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="829">
@@ -17307,7 +17307,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="830">
@@ -17414,7 +17414,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="835">
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="836">
@@ -17454,7 +17454,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="837">
@@ -17474,7 +17474,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="838">
@@ -17514,7 +17514,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="840">
@@ -17638,7 +17638,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="846">
@@ -17680,7 +17680,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="848">
@@ -17700,7 +17700,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="849">
@@ -17831,7 +17831,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="855">
@@ -17915,7 +17915,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="859">
@@ -18095,7 +18095,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="868">
@@ -18135,7 +18135,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="870">
@@ -18215,7 +18215,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="874">
@@ -18295,7 +18295,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="878">
@@ -18355,7 +18355,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="881">
@@ -18375,7 +18375,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="882">
@@ -18415,7 +18415,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="884">
@@ -18555,7 +18555,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="891">
@@ -18615,7 +18615,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="894">
@@ -18695,7 +18695,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="898">
@@ -18715,7 +18715,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="899">
@@ -18735,7 +18735,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="900">
@@ -18855,7 +18855,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="906">
@@ -18895,7 +18895,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="908">
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="911">
@@ -18995,7 +18995,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="913">
@@ -19015,7 +19015,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="914">
@@ -19175,7 +19175,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="922">
@@ -19255,7 +19255,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="926">
@@ -19395,7 +19395,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="933">
@@ -19495,7 +19495,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="938">
@@ -19575,7 +19575,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="942">
@@ -19615,7 +19615,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="944">
@@ -19635,7 +19635,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945">
@@ -19695,7 +19695,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="948">
@@ -19795,7 +19795,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953">
@@ -19915,7 +19915,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="959">
@@ -19975,7 +19975,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="962">
@@ -19995,7 +19995,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="963">
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="965">
@@ -20075,7 +20075,7 @@
         </is>
       </c>
       <c r="D966" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="967">
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="971">
@@ -20195,7 +20195,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="973">
@@ -20255,7 +20255,7 @@
         </is>
       </c>
       <c r="D975" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="976">
@@ -20435,7 +20435,7 @@
         </is>
       </c>
       <c r="D984" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="985">
@@ -20455,7 +20455,7 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="986">
@@ -20515,7 +20515,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="989">
@@ -20595,7 +20595,7 @@
         </is>
       </c>
       <c r="D992" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="993">
@@ -20715,7 +20715,7 @@
         </is>
       </c>
       <c r="D998" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="999">
@@ -20775,7 +20775,7 @@
         </is>
       </c>
       <c r="D1001" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1002">
@@ -20855,7 +20855,7 @@
         </is>
       </c>
       <c r="D1005" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1006">
@@ -20895,7 +20895,7 @@
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1008">
@@ -20935,7 +20935,7 @@
         </is>
       </c>
       <c r="D1009" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1010">
@@ -20975,7 +20975,7 @@
         </is>
       </c>
       <c r="D1011" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1012">
@@ -20995,7 +20995,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1013">
@@ -21055,7 +21055,7 @@
         </is>
       </c>
       <c r="D1015" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1016">
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="D1018" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1019">
@@ -21155,7 +21155,7 @@
         </is>
       </c>
       <c r="D1020" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1021">
@@ -21195,7 +21195,7 @@
         </is>
       </c>
       <c r="D1022" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1023">
@@ -21235,7 +21235,7 @@
         </is>
       </c>
       <c r="D1024" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1025">
@@ -21355,7 +21355,7 @@
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1031">
@@ -21515,7 +21515,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1039">
@@ -21595,7 +21595,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1043">
@@ -21755,7 +21755,7 @@
         </is>
       </c>
       <c r="D1050" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1051">
@@ -21795,7 +21795,7 @@
         </is>
       </c>
       <c r="D1052" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1053">
@@ -21815,7 +21815,7 @@
         </is>
       </c>
       <c r="D1053" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1054">
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1055">
@@ -22015,7 +22015,7 @@
         </is>
       </c>
       <c r="D1063" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1064">
@@ -22035,7 +22035,7 @@
         </is>
       </c>
       <c r="D1064" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1065">
@@ -22075,7 +22075,7 @@
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1067">
@@ -22115,7 +22115,7 @@
         </is>
       </c>
       <c r="D1068" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1069">
@@ -22135,7 +22135,7 @@
         </is>
       </c>
       <c r="D1069" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1070">
@@ -22155,7 +22155,7 @@
         </is>
       </c>
       <c r="D1070" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1071">
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="D1072" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1073">
@@ -22215,7 +22215,7 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1074">
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="D1076" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1077">
@@ -22315,7 +22315,7 @@
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1079">
@@ -22355,7 +22355,7 @@
         </is>
       </c>
       <c r="D1080" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1081">
@@ -22375,7 +22375,7 @@
         </is>
       </c>
       <c r="D1081" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1082">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="D1083" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1084">
@@ -22435,7 +22435,7 @@
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1085">
@@ -22495,7 +22495,7 @@
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1088">
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="D1090" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1091">
@@ -22575,7 +22575,7 @@
         </is>
       </c>
       <c r="D1091" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1092">
@@ -22615,7 +22615,7 @@
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1094">
@@ -22635,7 +22635,7 @@
         </is>
       </c>
       <c r="D1094" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1095">
@@ -22675,7 +22675,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1097">
@@ -22715,7 +22715,7 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1099">
@@ -22735,7 +22735,7 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1100">
